--- a/CH-90 TSP.xlsx
+++ b/CH-90 TSP.xlsx
@@ -8,15 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4EA1E6-53B7-4707-A9ED-A05B419DE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36157416-A1E9-49AC-A75E-3444934ADFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_nDist">EDA!$N$5:$N$29</definedName>
+    <definedName name="_nPath">EDA!$M$5:$M$29</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DgkY+fpI/2xRIY6cJZSUsIsNHItUH9qAtTi9OVGj8sw="/>
     </ext>
@@ -24,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -130,6 +168,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7223794435510169600/</t>
+  </si>
+  <si>
+    <t>Try a model</t>
   </si>
 </sst>
 </file>
@@ -819,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6231,4 +6272,5821 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70842E-8ADC-4673-8DA3-6F4EDDA9AD81}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="str">
+        <f>J11</f>
+        <v>ACDBEA</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="str" cm="1">
+        <f t="array" ref="M5:M29">_xlfn.TOCOL(B3:B7&amp;C2:G2)</f>
+        <v>AA</v>
+      </c>
+      <c r="N5" s="2" cm="1">
+        <f t="array" ref="N5:N29">_xlfn.TOCOL(C3:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="str" cm="1">
+        <f t="array" ref="P5:P9">MID(P3,_xlfn.SEQUENCE(LEN(P3)-1),2)</f>
+        <v>AC</v>
+      </c>
+      <c r="Q5" s="2" cm="1">
+        <f t="array" ref="Q5:Q9">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(P5),_nPath,_nDist)</f>
+        <v>31</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <f>SUM(_xlfn.ANCHORARRAY(Q5))</f>
+        <v>98</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>107</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="str">
+        <v>AB</v>
+      </c>
+      <c r="N6" s="2">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="str">
+        <v>CD</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="str">
+        <v>AC</v>
+      </c>
+      <c r="N7" s="2">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="str">
+        <v>DB</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>30</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10">
+        <v>113</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="str">
+        <v>AD</v>
+      </c>
+      <c r="N8">
+        <v>14</v>
+      </c>
+      <c r="P8" t="str">
+        <v>BE</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10">
+        <v>113</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="str">
+        <v>AE</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="P9" t="str">
+        <v>EA</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10">
+        <v>98</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="str">
+        <v>BA</v>
+      </c>
+      <c r="N10">
+        <v>22</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10">
+        <v>98</v>
+      </c>
+      <c r="M11" t="str">
+        <v>BB</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="10">
+        <v>84</v>
+      </c>
+      <c r="M12" t="str">
+        <v>BC</v>
+      </c>
+      <c r="N12">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <f>S5</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10">
+        <v>96</v>
+      </c>
+      <c r="M13" t="str">
+        <v>BD</v>
+      </c>
+      <c r="N13">
+        <v>31</v>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" ref="P13:P36">J3:J26</f>
+        <v>ABCDEA</v>
+      </c>
+      <c r="Q13">
+        <f t="dataTable" ref="Q13:Q36" dt2D="0" dtr="0" r1="P3"/>
+        <v>92</v>
+      </c>
+      <c r="S13" t="b" cm="1">
+        <f t="array" ref="S13:S36">Q13:Q36=K3:K26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10">
+        <v>105</v>
+      </c>
+      <c r="M14" t="str">
+        <v>BE</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="P14" t="str">
+        <v>ABCEDA</v>
+      </c>
+      <c r="Q14">
+        <v>94</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="J15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="M15" t="str">
+        <v>CA</v>
+      </c>
+      <c r="N15">
+        <v>40</v>
+      </c>
+      <c r="P15" t="str">
+        <v>ABECDA</v>
+      </c>
+      <c r="Q15">
+        <v>74</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="10">
+        <v>104</v>
+      </c>
+      <c r="M16" t="str">
+        <v>CB</v>
+      </c>
+      <c r="N16">
+        <v>33</v>
+      </c>
+      <c r="P16" t="str">
+        <v>ABEDCA</v>
+      </c>
+      <c r="Q16">
+        <v>107</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="10">
+        <v>89</v>
+      </c>
+      <c r="M17" t="str">
+        <v>CC</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <v>ABDCEA</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="J18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10">
+        <v>77</v>
+      </c>
+      <c r="M18" t="str">
+        <v>CD</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="P18" t="str">
+        <v>ABDECA</v>
+      </c>
+      <c r="Q18">
+        <v>113</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="J19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10">
+        <v>103</v>
+      </c>
+      <c r="M19" t="str">
+        <v>CE</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="P19" t="str">
+        <v>ACBDEA</v>
+      </c>
+      <c r="Q19">
+        <v>113</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="10">
+        <v>85</v>
+      </c>
+      <c r="M20" t="str">
+        <v>DA</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="P20" t="str">
+        <v>ACBEDA</v>
+      </c>
+      <c r="Q20">
+        <v>98</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="J21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="10">
+        <v>79</v>
+      </c>
+      <c r="M21" t="str">
+        <v>DB</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="P21" t="str">
+        <v>ACDBEA</v>
+      </c>
+      <c r="Q21">
+        <v>98</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="J22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="10">
+        <v>109</v>
+      </c>
+      <c r="M22" t="str">
+        <v>DC</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="P22" t="str">
+        <v>ACDEBA</v>
+      </c>
+      <c r="Q22">
+        <v>84</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="J23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="10">
+        <v>95</v>
+      </c>
+      <c r="M23" t="str">
+        <v>DD</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
+        <v>ACEBDA</v>
+      </c>
+      <c r="Q23">
+        <v>96</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="J24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="10">
+        <v>85</v>
+      </c>
+      <c r="M24" t="str">
+        <v>DE</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="P24" t="str">
+        <v>ACEDBA</v>
+      </c>
+      <c r="Q24">
+        <v>105</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="10">
+        <v>122</v>
+      </c>
+      <c r="M25" t="str">
+        <v>EA</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="P25" t="str">
+        <v>ADBCEA</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="J26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="16">
+        <v>94</v>
+      </c>
+      <c r="M26" t="str">
+        <v>EB</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="P26" t="str">
+        <v>ADBECA</v>
+      </c>
+      <c r="Q26">
+        <v>104</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="J27" s="17"/>
+      <c r="M27" t="str">
+        <v>EC</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="P27" t="str">
+        <v>ADCBEA</v>
+      </c>
+      <c r="Q27">
+        <v>89</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="J28" s="17"/>
+      <c r="M28" t="str">
+        <v>ED</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="P28" t="str">
+        <v>ADCEBA</v>
+      </c>
+      <c r="Q28">
+        <v>77</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="J29" s="17"/>
+      <c r="M29" t="str">
+        <v>EE</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="str">
+        <v>ADEBCA</v>
+      </c>
+      <c r="Q29">
+        <v>103</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="J30" s="17"/>
+      <c r="P30" t="str">
+        <v>ADECBA</v>
+      </c>
+      <c r="Q30">
+        <v>85</v>
+      </c>
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="J31" s="17"/>
+      <c r="P31" t="str">
+        <v>AEBCDA</v>
+      </c>
+      <c r="Q31">
+        <v>79</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="J32" s="17"/>
+      <c r="P32" t="str">
+        <v>AEBDCA</v>
+      </c>
+      <c r="Q32">
+        <v>109</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="J33" s="17"/>
+      <c r="P33" t="str">
+        <v>AECBDA</v>
+      </c>
+      <c r="Q33">
+        <v>95</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="J34" s="17"/>
+      <c r="P34" t="str">
+        <v>AECDBA</v>
+      </c>
+      <c r="Q34">
+        <v>85</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="J35" s="17"/>
+      <c r="P35" t="str">
+        <v>AEDBCA</v>
+      </c>
+      <c r="Q35">
+        <v>122</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="J36" s="17"/>
+      <c r="P36" t="str">
+        <v>AEDCBA</v>
+      </c>
+      <c r="Q36">
+        <v>94</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="J79" s="17"/>
+    </row>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="J80" s="17"/>
+    </row>
+    <row r="81" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="J103" s="17"/>
+    </row>
+    <row r="104" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="J146" s="17"/>
+    </row>
+    <row r="147" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="J148" s="17"/>
+    </row>
+    <row r="149" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="J151" s="17"/>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="J152" s="17"/>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="J154" s="17"/>
+    </row>
+    <row r="155" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="J155" s="17"/>
+    </row>
+    <row r="156" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="J157" s="17"/>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="J158" s="17"/>
+    </row>
+    <row r="159" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="J159" s="17"/>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="J160" s="17"/>
+    </row>
+    <row r="161" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="J161" s="17"/>
+    </row>
+    <row r="162" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="J162" s="17"/>
+    </row>
+    <row r="163" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="J163" s="17"/>
+    </row>
+    <row r="164" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="J165" s="17"/>
+    </row>
+    <row r="166" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="J167" s="17"/>
+    </row>
+    <row r="168" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="J168" s="17"/>
+    </row>
+    <row r="169" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="J170" s="17"/>
+    </row>
+    <row r="171" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="J171" s="17"/>
+    </row>
+    <row r="172" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="J172" s="17"/>
+    </row>
+    <row r="173" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="J173" s="17"/>
+    </row>
+    <row r="174" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="J174" s="17"/>
+    </row>
+    <row r="175" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="J175" s="17"/>
+    </row>
+    <row r="176" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="J176" s="17"/>
+    </row>
+    <row r="177" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="J178" s="17"/>
+    </row>
+    <row r="179" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="J179" s="17"/>
+    </row>
+    <row r="180" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="J180" s="17"/>
+    </row>
+    <row r="181" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="J181" s="17"/>
+    </row>
+    <row r="182" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="J182" s="17"/>
+    </row>
+    <row r="183" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="J184" s="17"/>
+    </row>
+    <row r="185" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="J188" s="17"/>
+    </row>
+    <row r="189" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="J189" s="17"/>
+    </row>
+    <row r="190" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="J190" s="17"/>
+    </row>
+    <row r="191" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="J191" s="17"/>
+    </row>
+    <row r="192" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="J192" s="17"/>
+    </row>
+    <row r="193" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="J193" s="17"/>
+    </row>
+    <row r="194" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="J194" s="17"/>
+    </row>
+    <row r="195" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="J195" s="17"/>
+    </row>
+    <row r="196" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="J196" s="17"/>
+    </row>
+    <row r="197" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="J198" s="17"/>
+    </row>
+    <row r="199" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="J199" s="17"/>
+    </row>
+    <row r="200" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="J200" s="17"/>
+    </row>
+    <row r="201" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="J201" s="17"/>
+    </row>
+    <row r="202" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="J202" s="17"/>
+    </row>
+    <row r="203" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="J203" s="17"/>
+    </row>
+    <row r="204" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="J204" s="17"/>
+    </row>
+    <row r="205" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="J205" s="17"/>
+    </row>
+    <row r="206" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="J206" s="17"/>
+    </row>
+    <row r="207" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="J207" s="17"/>
+    </row>
+    <row r="208" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="J208" s="17"/>
+    </row>
+    <row r="209" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="J209" s="17"/>
+    </row>
+    <row r="210" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="J210" s="17"/>
+    </row>
+    <row r="211" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="J211" s="17"/>
+    </row>
+    <row r="212" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="J212" s="17"/>
+    </row>
+    <row r="213" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="J213" s="17"/>
+    </row>
+    <row r="214" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="J214" s="17"/>
+    </row>
+    <row r="215" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="J215" s="17"/>
+    </row>
+    <row r="216" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="J216" s="17"/>
+    </row>
+    <row r="217" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="J217" s="17"/>
+    </row>
+    <row r="218" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="J218" s="17"/>
+    </row>
+    <row r="219" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="J219" s="17"/>
+    </row>
+    <row r="220" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="J220" s="17"/>
+    </row>
+    <row r="221" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="J222" s="17"/>
+    </row>
+    <row r="223" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="J223" s="17"/>
+    </row>
+    <row r="224" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="J224" s="17"/>
+    </row>
+    <row r="225" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="J225" s="17"/>
+    </row>
+    <row r="226" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="J226" s="17"/>
+    </row>
+    <row r="227" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="J227" s="17"/>
+    </row>
+    <row r="228" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="J228" s="17"/>
+    </row>
+    <row r="229" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="J229" s="17"/>
+    </row>
+    <row r="230" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="J230" s="17"/>
+    </row>
+    <row r="231" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="J231" s="17"/>
+    </row>
+    <row r="232" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="J232" s="17"/>
+    </row>
+    <row r="233" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="J233" s="17"/>
+    </row>
+    <row r="234" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="J234" s="17"/>
+    </row>
+    <row r="235" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="J235" s="17"/>
+    </row>
+    <row r="236" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="J236" s="17"/>
+    </row>
+    <row r="237" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="J237" s="17"/>
+    </row>
+    <row r="238" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="J238" s="17"/>
+    </row>
+    <row r="239" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="J239" s="17"/>
+    </row>
+    <row r="240" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="J240" s="17"/>
+    </row>
+    <row r="241" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="J241" s="17"/>
+    </row>
+    <row r="242" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="J242" s="17"/>
+    </row>
+    <row r="243" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="J243" s="17"/>
+    </row>
+    <row r="244" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="J244" s="17"/>
+    </row>
+    <row r="245" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="J245" s="17"/>
+    </row>
+    <row r="246" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="J246" s="17"/>
+    </row>
+    <row r="247" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="J247" s="17"/>
+    </row>
+    <row r="248" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="J248" s="17"/>
+    </row>
+    <row r="249" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="J249" s="17"/>
+    </row>
+    <row r="250" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="J250" s="17"/>
+    </row>
+    <row r="251" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="J251" s="17"/>
+    </row>
+    <row r="252" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="J252" s="17"/>
+    </row>
+    <row r="253" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="J253" s="17"/>
+    </row>
+    <row r="254" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="J254" s="17"/>
+    </row>
+    <row r="255" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="J255" s="17"/>
+    </row>
+    <row r="256" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="J256" s="17"/>
+    </row>
+    <row r="257" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="J257" s="17"/>
+    </row>
+    <row r="258" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="J258" s="17"/>
+    </row>
+    <row r="259" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="J259" s="17"/>
+    </row>
+    <row r="260" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="J260" s="17"/>
+    </row>
+    <row r="261" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="J261" s="17"/>
+    </row>
+    <row r="262" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="J262" s="17"/>
+    </row>
+    <row r="263" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="J263" s="17"/>
+    </row>
+    <row r="264" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="J264" s="17"/>
+    </row>
+    <row r="265" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="J265" s="17"/>
+    </row>
+    <row r="266" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="J266" s="17"/>
+    </row>
+    <row r="267" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="J267" s="17"/>
+    </row>
+    <row r="268" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="J268" s="17"/>
+    </row>
+    <row r="269" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="J269" s="17"/>
+    </row>
+    <row r="270" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="J270" s="17"/>
+    </row>
+    <row r="271" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="J271" s="17"/>
+    </row>
+    <row r="272" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="J272" s="17"/>
+    </row>
+    <row r="273" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="J273" s="17"/>
+    </row>
+    <row r="274" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="J274" s="17"/>
+    </row>
+    <row r="275" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="J275" s="17"/>
+    </row>
+    <row r="276" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="J276" s="17"/>
+    </row>
+    <row r="277" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="J277" s="17"/>
+    </row>
+    <row r="278" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="J278" s="17"/>
+    </row>
+    <row r="279" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="J279" s="17"/>
+    </row>
+    <row r="280" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="J280" s="17"/>
+    </row>
+    <row r="281" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="J281" s="17"/>
+    </row>
+    <row r="282" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="J282" s="17"/>
+    </row>
+    <row r="283" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="J283" s="17"/>
+    </row>
+    <row r="284" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="J284" s="17"/>
+    </row>
+    <row r="285" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="J285" s="17"/>
+    </row>
+    <row r="286" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="J286" s="17"/>
+    </row>
+    <row r="287" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="J287" s="17"/>
+    </row>
+    <row r="288" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="J288" s="17"/>
+    </row>
+    <row r="289" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="J289" s="17"/>
+    </row>
+    <row r="290" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="J290" s="17"/>
+    </row>
+    <row r="291" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="J291" s="17"/>
+    </row>
+    <row r="292" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="J292" s="17"/>
+    </row>
+    <row r="293" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="J293" s="17"/>
+    </row>
+    <row r="294" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="J294" s="17"/>
+    </row>
+    <row r="295" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="J295" s="17"/>
+    </row>
+    <row r="296" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="J296" s="17"/>
+    </row>
+    <row r="297" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="J297" s="17"/>
+    </row>
+    <row r="298" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="J298" s="17"/>
+    </row>
+    <row r="299" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="J299" s="17"/>
+    </row>
+    <row r="300" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="J300" s="17"/>
+    </row>
+    <row r="301" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="J301" s="17"/>
+    </row>
+    <row r="302" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="J302" s="17"/>
+    </row>
+    <row r="303" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="J303" s="17"/>
+    </row>
+    <row r="304" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="J304" s="17"/>
+    </row>
+    <row r="305" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="J305" s="17"/>
+    </row>
+    <row r="306" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="J306" s="17"/>
+    </row>
+    <row r="307" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="J307" s="17"/>
+    </row>
+    <row r="308" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="J308" s="17"/>
+    </row>
+    <row r="309" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="J309" s="17"/>
+    </row>
+    <row r="310" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="J310" s="17"/>
+    </row>
+    <row r="311" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="J311" s="17"/>
+    </row>
+    <row r="312" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="J312" s="17"/>
+    </row>
+    <row r="313" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="J313" s="17"/>
+    </row>
+    <row r="314" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="J314" s="17"/>
+    </row>
+    <row r="315" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="J315" s="17"/>
+    </row>
+    <row r="316" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="J316" s="17"/>
+    </row>
+    <row r="317" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="J317" s="17"/>
+    </row>
+    <row r="318" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="J318" s="17"/>
+    </row>
+    <row r="319" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="J319" s="17"/>
+    </row>
+    <row r="320" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="J320" s="17"/>
+    </row>
+    <row r="321" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="J321" s="17"/>
+    </row>
+    <row r="322" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="J322" s="17"/>
+    </row>
+    <row r="323" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="J323" s="17"/>
+    </row>
+    <row r="324" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="J324" s="17"/>
+    </row>
+    <row r="325" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="J325" s="17"/>
+    </row>
+    <row r="326" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="J326" s="17"/>
+    </row>
+    <row r="327" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="J327" s="17"/>
+    </row>
+    <row r="328" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="J328" s="17"/>
+    </row>
+    <row r="329" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="J329" s="17"/>
+    </row>
+    <row r="330" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="J330" s="17"/>
+    </row>
+    <row r="331" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="J331" s="17"/>
+    </row>
+    <row r="332" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="J332" s="17"/>
+    </row>
+    <row r="333" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="J333" s="17"/>
+    </row>
+    <row r="334" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="J334" s="17"/>
+    </row>
+    <row r="335" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="J335" s="17"/>
+    </row>
+    <row r="336" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="J336" s="17"/>
+    </row>
+    <row r="337" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="J337" s="17"/>
+    </row>
+    <row r="338" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="J338" s="17"/>
+    </row>
+    <row r="339" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="J339" s="17"/>
+    </row>
+    <row r="340" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="J340" s="17"/>
+    </row>
+    <row r="341" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="J341" s="17"/>
+    </row>
+    <row r="342" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="J342" s="17"/>
+    </row>
+    <row r="343" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="J343" s="17"/>
+    </row>
+    <row r="344" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="J344" s="17"/>
+    </row>
+    <row r="345" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="J345" s="17"/>
+    </row>
+    <row r="346" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="J346" s="17"/>
+    </row>
+    <row r="347" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
+      <c r="J347" s="17"/>
+    </row>
+    <row r="348" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="J348" s="17"/>
+    </row>
+    <row r="349" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="J349" s="17"/>
+    </row>
+    <row r="350" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
+      <c r="J350" s="17"/>
+    </row>
+    <row r="351" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="J351" s="17"/>
+    </row>
+    <row r="352" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="J352" s="17"/>
+    </row>
+    <row r="353" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="J353" s="17"/>
+    </row>
+    <row r="354" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="J354" s="17"/>
+    </row>
+    <row r="355" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
+      <c r="J355" s="17"/>
+    </row>
+    <row r="356" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="J356" s="17"/>
+    </row>
+    <row r="357" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="J357" s="17"/>
+    </row>
+    <row r="358" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="J358" s="17"/>
+    </row>
+    <row r="359" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="J359" s="17"/>
+    </row>
+    <row r="360" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="J360" s="17"/>
+    </row>
+    <row r="361" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="J361" s="17"/>
+    </row>
+    <row r="362" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
+      <c r="J362" s="17"/>
+    </row>
+    <row r="363" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="J363" s="17"/>
+    </row>
+    <row r="364" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="J364" s="17"/>
+    </row>
+    <row r="365" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
+      <c r="J365" s="17"/>
+    </row>
+    <row r="366" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="J366" s="17"/>
+    </row>
+    <row r="367" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
+      <c r="J367" s="17"/>
+    </row>
+    <row r="368" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="J368" s="17"/>
+    </row>
+    <row r="369" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="J369" s="17"/>
+    </row>
+    <row r="370" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="J370" s="17"/>
+    </row>
+    <row r="371" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
+      <c r="J371" s="17"/>
+    </row>
+    <row r="372" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
+      <c r="J372" s="17"/>
+    </row>
+    <row r="373" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
+      <c r="J373" s="17"/>
+    </row>
+    <row r="374" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
+      <c r="J374" s="17"/>
+    </row>
+    <row r="375" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="J375" s="17"/>
+    </row>
+    <row r="376" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="J376" s="17"/>
+    </row>
+    <row r="377" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
+      <c r="J377" s="17"/>
+    </row>
+    <row r="378" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
+      <c r="J378" s="17"/>
+    </row>
+    <row r="379" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
+      <c r="J379" s="17"/>
+    </row>
+    <row r="380" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="J380" s="17"/>
+    </row>
+    <row r="381" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="J381" s="17"/>
+    </row>
+    <row r="382" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="J382" s="17"/>
+    </row>
+    <row r="383" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="J383" s="17"/>
+    </row>
+    <row r="384" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
+      <c r="J384" s="17"/>
+    </row>
+    <row r="385" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="J385" s="17"/>
+    </row>
+    <row r="386" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="14"/>
+      <c r="C386" s="14"/>
+      <c r="J386" s="17"/>
+    </row>
+    <row r="387" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
+      <c r="J387" s="17"/>
+    </row>
+    <row r="388" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="14"/>
+      <c r="C388" s="14"/>
+      <c r="J388" s="17"/>
+    </row>
+    <row r="389" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
+      <c r="J389" s="17"/>
+    </row>
+    <row r="390" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
+      <c r="J390" s="17"/>
+    </row>
+    <row r="391" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
+      <c r="J391" s="17"/>
+    </row>
+    <row r="392" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
+      <c r="J392" s="17"/>
+    </row>
+    <row r="393" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
+      <c r="J393" s="17"/>
+    </row>
+    <row r="394" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+      <c r="J394" s="17"/>
+    </row>
+    <row r="395" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
+      <c r="J395" s="17"/>
+    </row>
+    <row r="396" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
+      <c r="J396" s="17"/>
+    </row>
+    <row r="397" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="14"/>
+      <c r="C397" s="14"/>
+      <c r="J397" s="17"/>
+    </row>
+    <row r="398" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
+      <c r="J398" s="17"/>
+    </row>
+    <row r="399" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
+      <c r="J399" s="17"/>
+    </row>
+    <row r="400" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="14"/>
+      <c r="C400" s="14"/>
+      <c r="J400" s="17"/>
+    </row>
+    <row r="401" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
+      <c r="J401" s="17"/>
+    </row>
+    <row r="402" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="14"/>
+      <c r="C402" s="14"/>
+      <c r="J402" s="17"/>
+    </row>
+    <row r="403" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
+      <c r="J403" s="17"/>
+    </row>
+    <row r="404" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
+      <c r="J404" s="17"/>
+    </row>
+    <row r="405" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
+      <c r="J405" s="17"/>
+    </row>
+    <row r="406" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
+      <c r="J406" s="17"/>
+    </row>
+    <row r="407" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
+      <c r="J407" s="17"/>
+    </row>
+    <row r="408" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
+      <c r="J408" s="17"/>
+    </row>
+    <row r="409" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="14"/>
+      <c r="C409" s="14"/>
+      <c r="J409" s="17"/>
+    </row>
+    <row r="410" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="14"/>
+      <c r="C410" s="14"/>
+      <c r="J410" s="17"/>
+    </row>
+    <row r="411" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
+      <c r="J411" s="17"/>
+    </row>
+    <row r="412" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="14"/>
+      <c r="C412" s="14"/>
+      <c r="J412" s="17"/>
+    </row>
+    <row r="413" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
+      <c r="J413" s="17"/>
+    </row>
+    <row r="414" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="14"/>
+      <c r="C414" s="14"/>
+      <c r="J414" s="17"/>
+    </row>
+    <row r="415" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+      <c r="J415" s="17"/>
+    </row>
+    <row r="416" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
+      <c r="J416" s="17"/>
+    </row>
+    <row r="417" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="14"/>
+      <c r="C417" s="14"/>
+      <c r="J417" s="17"/>
+    </row>
+    <row r="418" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
+      <c r="J418" s="17"/>
+    </row>
+    <row r="419" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="14"/>
+      <c r="C419" s="14"/>
+      <c r="J419" s="17"/>
+    </row>
+    <row r="420" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="14"/>
+      <c r="C420" s="14"/>
+      <c r="J420" s="17"/>
+    </row>
+    <row r="421" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="14"/>
+      <c r="C421" s="14"/>
+      <c r="J421" s="17"/>
+    </row>
+    <row r="422" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
+      <c r="J422" s="17"/>
+    </row>
+    <row r="423" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="J423" s="17"/>
+    </row>
+    <row r="424" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="14"/>
+      <c r="C424" s="14"/>
+      <c r="J424" s="17"/>
+    </row>
+    <row r="425" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="14"/>
+      <c r="C425" s="14"/>
+      <c r="J425" s="17"/>
+    </row>
+    <row r="426" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
+      <c r="J426" s="17"/>
+    </row>
+    <row r="427" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
+      <c r="J427" s="17"/>
+    </row>
+    <row r="428" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
+      <c r="J428" s="17"/>
+    </row>
+    <row r="429" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
+      <c r="J429" s="17"/>
+    </row>
+    <row r="430" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="14"/>
+      <c r="C430" s="14"/>
+      <c r="J430" s="17"/>
+    </row>
+    <row r="431" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="14"/>
+      <c r="C431" s="14"/>
+      <c r="J431" s="17"/>
+    </row>
+    <row r="432" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="J432" s="17"/>
+    </row>
+    <row r="433" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="J433" s="17"/>
+    </row>
+    <row r="434" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="J434" s="17"/>
+    </row>
+    <row r="435" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="J435" s="17"/>
+    </row>
+    <row r="436" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="J436" s="17"/>
+    </row>
+    <row r="437" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
+      <c r="J437" s="17"/>
+    </row>
+    <row r="438" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
+      <c r="J438" s="17"/>
+    </row>
+    <row r="439" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="14"/>
+      <c r="C439" s="14"/>
+      <c r="J439" s="17"/>
+    </row>
+    <row r="440" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="J440" s="17"/>
+    </row>
+    <row r="441" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
+      <c r="J441" s="17"/>
+    </row>
+    <row r="442" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="J442" s="17"/>
+    </row>
+    <row r="443" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="J443" s="17"/>
+    </row>
+    <row r="444" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
+      <c r="J444" s="17"/>
+    </row>
+    <row r="445" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="J445" s="17"/>
+    </row>
+    <row r="446" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="J446" s="17"/>
+    </row>
+    <row r="447" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="J447" s="17"/>
+    </row>
+    <row r="448" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="J448" s="17"/>
+    </row>
+    <row r="449" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="J449" s="17"/>
+    </row>
+    <row r="450" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="J450" s="17"/>
+    </row>
+    <row r="451" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="J451" s="17"/>
+    </row>
+    <row r="452" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="J452" s="17"/>
+    </row>
+    <row r="453" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="J453" s="17"/>
+    </row>
+    <row r="454" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="J454" s="17"/>
+    </row>
+    <row r="455" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="J455" s="17"/>
+    </row>
+    <row r="456" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
+      <c r="J456" s="17"/>
+    </row>
+    <row r="457" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="J457" s="17"/>
+    </row>
+    <row r="458" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="J458" s="17"/>
+    </row>
+    <row r="459" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="J459" s="17"/>
+    </row>
+    <row r="460" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
+      <c r="J460" s="17"/>
+    </row>
+    <row r="461" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="J461" s="17"/>
+    </row>
+    <row r="462" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="J462" s="17"/>
+    </row>
+    <row r="463" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="J463" s="17"/>
+    </row>
+    <row r="464" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
+      <c r="J464" s="17"/>
+    </row>
+    <row r="465" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="J465" s="17"/>
+    </row>
+    <row r="466" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="J466" s="17"/>
+    </row>
+    <row r="467" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="J467" s="17"/>
+    </row>
+    <row r="468" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="J468" s="17"/>
+    </row>
+    <row r="469" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="J469" s="17"/>
+    </row>
+    <row r="470" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
+      <c r="J470" s="17"/>
+    </row>
+    <row r="471" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="J471" s="17"/>
+    </row>
+    <row r="472" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
+      <c r="J472" s="17"/>
+    </row>
+    <row r="473" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
+      <c r="J473" s="17"/>
+    </row>
+    <row r="474" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
+      <c r="J474" s="17"/>
+    </row>
+    <row r="475" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
+      <c r="J475" s="17"/>
+    </row>
+    <row r="476" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="J476" s="17"/>
+    </row>
+    <row r="477" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
+      <c r="J477" s="17"/>
+    </row>
+    <row r="478" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
+      <c r="J478" s="17"/>
+    </row>
+    <row r="479" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
+      <c r="J479" s="17"/>
+    </row>
+    <row r="480" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
+      <c r="J480" s="17"/>
+    </row>
+    <row r="481" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
+      <c r="J481" s="17"/>
+    </row>
+    <row r="482" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="14"/>
+      <c r="C482" s="14"/>
+      <c r="J482" s="17"/>
+    </row>
+    <row r="483" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
+      <c r="J483" s="17"/>
+    </row>
+    <row r="484" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
+      <c r="J484" s="17"/>
+    </row>
+    <row r="485" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="14"/>
+      <c r="C485" s="14"/>
+      <c r="J485" s="17"/>
+    </row>
+    <row r="486" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="14"/>
+      <c r="C486" s="14"/>
+      <c r="J486" s="17"/>
+    </row>
+    <row r="487" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="14"/>
+      <c r="C487" s="14"/>
+      <c r="J487" s="17"/>
+    </row>
+    <row r="488" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="14"/>
+      <c r="C488" s="14"/>
+      <c r="J488" s="17"/>
+    </row>
+    <row r="489" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="14"/>
+      <c r="C489" s="14"/>
+      <c r="J489" s="17"/>
+    </row>
+    <row r="490" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="J490" s="17"/>
+    </row>
+    <row r="491" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="14"/>
+      <c r="C491" s="14"/>
+      <c r="J491" s="17"/>
+    </row>
+    <row r="492" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="J492" s="17"/>
+    </row>
+    <row r="493" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="14"/>
+      <c r="C493" s="14"/>
+      <c r="J493" s="17"/>
+    </row>
+    <row r="494" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="14"/>
+      <c r="C494" s="14"/>
+      <c r="J494" s="17"/>
+    </row>
+    <row r="495" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="J495" s="17"/>
+    </row>
+    <row r="496" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="14"/>
+      <c r="C496" s="14"/>
+      <c r="J496" s="17"/>
+    </row>
+    <row r="497" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="14"/>
+      <c r="C497" s="14"/>
+      <c r="J497" s="17"/>
+    </row>
+    <row r="498" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="J498" s="17"/>
+    </row>
+    <row r="499" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="14"/>
+      <c r="C499" s="14"/>
+      <c r="J499" s="17"/>
+    </row>
+    <row r="500" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="14"/>
+      <c r="C500" s="14"/>
+      <c r="J500" s="17"/>
+    </row>
+    <row r="501" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="14"/>
+      <c r="C501" s="14"/>
+      <c r="J501" s="17"/>
+    </row>
+    <row r="502" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="J502" s="17"/>
+    </row>
+    <row r="503" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="14"/>
+      <c r="C503" s="14"/>
+      <c r="J503" s="17"/>
+    </row>
+    <row r="504" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="14"/>
+      <c r="C504" s="14"/>
+      <c r="J504" s="17"/>
+    </row>
+    <row r="505" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="14"/>
+      <c r="C505" s="14"/>
+      <c r="J505" s="17"/>
+    </row>
+    <row r="506" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="14"/>
+      <c r="C506" s="14"/>
+      <c r="J506" s="17"/>
+    </row>
+    <row r="507" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="14"/>
+      <c r="C507" s="14"/>
+      <c r="J507" s="17"/>
+    </row>
+    <row r="508" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="14"/>
+      <c r="C508" s="14"/>
+      <c r="J508" s="17"/>
+    </row>
+    <row r="509" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="14"/>
+      <c r="C509" s="14"/>
+      <c r="J509" s="17"/>
+    </row>
+    <row r="510" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="J510" s="17"/>
+    </row>
+    <row r="511" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="14"/>
+      <c r="C511" s="14"/>
+      <c r="J511" s="17"/>
+    </row>
+    <row r="512" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="14"/>
+      <c r="C512" s="14"/>
+      <c r="J512" s="17"/>
+    </row>
+    <row r="513" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="14"/>
+      <c r="C513" s="14"/>
+      <c r="J513" s="17"/>
+    </row>
+    <row r="514" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="14"/>
+      <c r="C514" s="14"/>
+      <c r="J514" s="17"/>
+    </row>
+    <row r="515" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="J515" s="17"/>
+    </row>
+    <row r="516" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="14"/>
+      <c r="C516" s="14"/>
+      <c r="J516" s="17"/>
+    </row>
+    <row r="517" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="14"/>
+      <c r="C517" s="14"/>
+      <c r="J517" s="17"/>
+    </row>
+    <row r="518" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="J518" s="17"/>
+    </row>
+    <row r="519" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="14"/>
+      <c r="C519" s="14"/>
+      <c r="J519" s="17"/>
+    </row>
+    <row r="520" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="14"/>
+      <c r="C520" s="14"/>
+      <c r="J520" s="17"/>
+    </row>
+    <row r="521" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="J521" s="17"/>
+    </row>
+    <row r="522" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="14"/>
+      <c r="C522" s="14"/>
+      <c r="J522" s="17"/>
+    </row>
+    <row r="523" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="14"/>
+      <c r="C523" s="14"/>
+      <c r="J523" s="17"/>
+    </row>
+    <row r="524" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="14"/>
+      <c r="C524" s="14"/>
+      <c r="J524" s="17"/>
+    </row>
+    <row r="525" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="14"/>
+      <c r="C525" s="14"/>
+      <c r="J525" s="17"/>
+    </row>
+    <row r="526" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="14"/>
+      <c r="C526" s="14"/>
+      <c r="J526" s="17"/>
+    </row>
+    <row r="527" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="14"/>
+      <c r="C527" s="14"/>
+      <c r="J527" s="17"/>
+    </row>
+    <row r="528" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="14"/>
+      <c r="C528" s="14"/>
+      <c r="J528" s="17"/>
+    </row>
+    <row r="529" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="14"/>
+      <c r="C529" s="14"/>
+      <c r="J529" s="17"/>
+    </row>
+    <row r="530" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="14"/>
+      <c r="C530" s="14"/>
+      <c r="J530" s="17"/>
+    </row>
+    <row r="531" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="14"/>
+      <c r="C531" s="14"/>
+      <c r="J531" s="17"/>
+    </row>
+    <row r="532" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="J532" s="17"/>
+    </row>
+    <row r="533" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+      <c r="J533" s="17"/>
+    </row>
+    <row r="534" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+      <c r="J534" s="17"/>
+    </row>
+    <row r="535" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+      <c r="J535" s="17"/>
+    </row>
+    <row r="536" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="14"/>
+      <c r="C536" s="14"/>
+      <c r="J536" s="17"/>
+    </row>
+    <row r="537" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="14"/>
+      <c r="C537" s="14"/>
+      <c r="J537" s="17"/>
+    </row>
+    <row r="538" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
+      <c r="J538" s="17"/>
+    </row>
+    <row r="539" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="14"/>
+      <c r="C539" s="14"/>
+      <c r="J539" s="17"/>
+    </row>
+    <row r="540" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="14"/>
+      <c r="C540" s="14"/>
+      <c r="J540" s="17"/>
+    </row>
+    <row r="541" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="14"/>
+      <c r="C541" s="14"/>
+      <c r="J541" s="17"/>
+    </row>
+    <row r="542" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="J542" s="17"/>
+    </row>
+    <row r="543" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="J543" s="17"/>
+    </row>
+    <row r="544" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="14"/>
+      <c r="C544" s="14"/>
+      <c r="J544" s="17"/>
+    </row>
+    <row r="545" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="J545" s="17"/>
+    </row>
+    <row r="546" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="14"/>
+      <c r="C546" s="14"/>
+      <c r="J546" s="17"/>
+    </row>
+    <row r="547" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="J547" s="17"/>
+    </row>
+    <row r="548" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="14"/>
+      <c r="C548" s="14"/>
+      <c r="J548" s="17"/>
+    </row>
+    <row r="549" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="J549" s="17"/>
+    </row>
+    <row r="550" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="14"/>
+      <c r="C550" s="14"/>
+      <c r="J550" s="17"/>
+    </row>
+    <row r="551" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="J551" s="17"/>
+    </row>
+    <row r="552" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
+      <c r="J552" s="17"/>
+    </row>
+    <row r="553" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="14"/>
+      <c r="C553" s="14"/>
+      <c r="J553" s="17"/>
+    </row>
+    <row r="554" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="J554" s="17"/>
+    </row>
+    <row r="555" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="14"/>
+      <c r="C555" s="14"/>
+      <c r="J555" s="17"/>
+    </row>
+    <row r="556" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="J556" s="17"/>
+    </row>
+    <row r="557" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="J557" s="17"/>
+    </row>
+    <row r="558" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="14"/>
+      <c r="C558" s="14"/>
+      <c r="J558" s="17"/>
+    </row>
+    <row r="559" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="14"/>
+      <c r="C559" s="14"/>
+      <c r="J559" s="17"/>
+    </row>
+    <row r="560" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="14"/>
+      <c r="C560" s="14"/>
+      <c r="J560" s="17"/>
+    </row>
+    <row r="561" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="J561" s="17"/>
+    </row>
+    <row r="562" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="14"/>
+      <c r="C562" s="14"/>
+      <c r="J562" s="17"/>
+    </row>
+    <row r="563" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="14"/>
+      <c r="C563" s="14"/>
+      <c r="J563" s="17"/>
+    </row>
+    <row r="564" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="14"/>
+      <c r="C564" s="14"/>
+      <c r="J564" s="17"/>
+    </row>
+    <row r="565" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="14"/>
+      <c r="C565" s="14"/>
+      <c r="J565" s="17"/>
+    </row>
+    <row r="566" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="14"/>
+      <c r="C566" s="14"/>
+      <c r="J566" s="17"/>
+    </row>
+    <row r="567" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="14"/>
+      <c r="C567" s="14"/>
+      <c r="J567" s="17"/>
+    </row>
+    <row r="568" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="14"/>
+      <c r="C568" s="14"/>
+      <c r="J568" s="17"/>
+    </row>
+    <row r="569" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="14"/>
+      <c r="C569" s="14"/>
+      <c r="J569" s="17"/>
+    </row>
+    <row r="570" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="14"/>
+      <c r="C570" s="14"/>
+      <c r="J570" s="17"/>
+    </row>
+    <row r="571" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="J571" s="17"/>
+    </row>
+    <row r="572" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="14"/>
+      <c r="C572" s="14"/>
+      <c r="J572" s="17"/>
+    </row>
+    <row r="573" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="14"/>
+      <c r="C573" s="14"/>
+      <c r="J573" s="17"/>
+    </row>
+    <row r="574" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="14"/>
+      <c r="C574" s="14"/>
+      <c r="J574" s="17"/>
+    </row>
+    <row r="575" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="14"/>
+      <c r="C575" s="14"/>
+      <c r="J575" s="17"/>
+    </row>
+    <row r="576" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="J576" s="17"/>
+    </row>
+    <row r="577" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="14"/>
+      <c r="C577" s="14"/>
+      <c r="J577" s="17"/>
+    </row>
+    <row r="578" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="14"/>
+      <c r="C578" s="14"/>
+      <c r="J578" s="17"/>
+    </row>
+    <row r="579" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="J579" s="17"/>
+    </row>
+    <row r="580" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="14"/>
+      <c r="C580" s="14"/>
+      <c r="J580" s="17"/>
+    </row>
+    <row r="581" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="14"/>
+      <c r="C581" s="14"/>
+      <c r="J581" s="17"/>
+    </row>
+    <row r="582" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="14"/>
+      <c r="C582" s="14"/>
+      <c r="J582" s="17"/>
+    </row>
+    <row r="583" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+      <c r="J583" s="17"/>
+    </row>
+    <row r="584" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="14"/>
+      <c r="C584" s="14"/>
+      <c r="J584" s="17"/>
+    </row>
+    <row r="585" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="14"/>
+      <c r="C585" s="14"/>
+      <c r="J585" s="17"/>
+    </row>
+    <row r="586" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="14"/>
+      <c r="C586" s="14"/>
+      <c r="J586" s="17"/>
+    </row>
+    <row r="587" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="14"/>
+      <c r="C587" s="14"/>
+      <c r="J587" s="17"/>
+    </row>
+    <row r="588" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="14"/>
+      <c r="C588" s="14"/>
+      <c r="J588" s="17"/>
+    </row>
+    <row r="589" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="14"/>
+      <c r="C589" s="14"/>
+      <c r="J589" s="17"/>
+    </row>
+    <row r="590" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="14"/>
+      <c r="C590" s="14"/>
+      <c r="J590" s="17"/>
+    </row>
+    <row r="591" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="14"/>
+      <c r="C591" s="14"/>
+      <c r="J591" s="17"/>
+    </row>
+    <row r="592" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="14"/>
+      <c r="C592" s="14"/>
+      <c r="J592" s="17"/>
+    </row>
+    <row r="593" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="14"/>
+      <c r="C593" s="14"/>
+      <c r="J593" s="17"/>
+    </row>
+    <row r="594" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="J594" s="17"/>
+    </row>
+    <row r="595" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="14"/>
+      <c r="C595" s="14"/>
+      <c r="J595" s="17"/>
+    </row>
+    <row r="596" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="14"/>
+      <c r="C596" s="14"/>
+      <c r="J596" s="17"/>
+    </row>
+    <row r="597" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="14"/>
+      <c r="C597" s="14"/>
+      <c r="J597" s="17"/>
+    </row>
+    <row r="598" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="14"/>
+      <c r="C598" s="14"/>
+      <c r="J598" s="17"/>
+    </row>
+    <row r="599" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="14"/>
+      <c r="C599" s="14"/>
+      <c r="J599" s="17"/>
+    </row>
+    <row r="600" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="14"/>
+      <c r="C600" s="14"/>
+      <c r="J600" s="17"/>
+    </row>
+    <row r="601" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="14"/>
+      <c r="C601" s="14"/>
+      <c r="J601" s="17"/>
+    </row>
+    <row r="602" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="J602" s="17"/>
+    </row>
+    <row r="603" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="J603" s="17"/>
+    </row>
+    <row r="604" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="14"/>
+      <c r="C604" s="14"/>
+      <c r="J604" s="17"/>
+    </row>
+    <row r="605" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="14"/>
+      <c r="C605" s="14"/>
+      <c r="J605" s="17"/>
+    </row>
+    <row r="606" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="J606" s="17"/>
+    </row>
+    <row r="607" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="14"/>
+      <c r="C607" s="14"/>
+      <c r="J607" s="17"/>
+    </row>
+    <row r="608" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="14"/>
+      <c r="C608" s="14"/>
+      <c r="J608" s="17"/>
+    </row>
+    <row r="609" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="14"/>
+      <c r="C609" s="14"/>
+      <c r="J609" s="17"/>
+    </row>
+    <row r="610" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="14"/>
+      <c r="C610" s="14"/>
+      <c r="J610" s="17"/>
+    </row>
+    <row r="611" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="14"/>
+      <c r="C611" s="14"/>
+      <c r="J611" s="17"/>
+    </row>
+    <row r="612" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="14"/>
+      <c r="C612" s="14"/>
+      <c r="J612" s="17"/>
+    </row>
+    <row r="613" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="14"/>
+      <c r="C613" s="14"/>
+      <c r="J613" s="17"/>
+    </row>
+    <row r="614" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="14"/>
+      <c r="C614" s="14"/>
+      <c r="J614" s="17"/>
+    </row>
+    <row r="615" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="14"/>
+      <c r="C615" s="14"/>
+      <c r="J615" s="17"/>
+    </row>
+    <row r="616" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="14"/>
+      <c r="C616" s="14"/>
+      <c r="J616" s="17"/>
+    </row>
+    <row r="617" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="14"/>
+      <c r="C617" s="14"/>
+      <c r="J617" s="17"/>
+    </row>
+    <row r="618" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="14"/>
+      <c r="C618" s="14"/>
+      <c r="J618" s="17"/>
+    </row>
+    <row r="619" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="J619" s="17"/>
+    </row>
+    <row r="620" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="14"/>
+      <c r="C620" s="14"/>
+      <c r="J620" s="17"/>
+    </row>
+    <row r="621" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="J621" s="17"/>
+    </row>
+    <row r="622" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="14"/>
+      <c r="C622" s="14"/>
+      <c r="J622" s="17"/>
+    </row>
+    <row r="623" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="J623" s="17"/>
+    </row>
+    <row r="624" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="14"/>
+      <c r="C624" s="14"/>
+      <c r="J624" s="17"/>
+    </row>
+    <row r="625" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="J625" s="17"/>
+    </row>
+    <row r="626" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="14"/>
+      <c r="C626" s="14"/>
+      <c r="J626" s="17"/>
+    </row>
+    <row r="627" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="J627" s="17"/>
+    </row>
+    <row r="628" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="14"/>
+      <c r="C628" s="14"/>
+      <c r="J628" s="17"/>
+    </row>
+    <row r="629" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="14"/>
+      <c r="C629" s="14"/>
+      <c r="J629" s="17"/>
+    </row>
+    <row r="630" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="14"/>
+      <c r="C630" s="14"/>
+      <c r="J630" s="17"/>
+    </row>
+    <row r="631" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="J631" s="17"/>
+    </row>
+    <row r="632" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="14"/>
+      <c r="C632" s="14"/>
+      <c r="J632" s="17"/>
+    </row>
+    <row r="633" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="14"/>
+      <c r="C633" s="14"/>
+      <c r="J633" s="17"/>
+    </row>
+    <row r="634" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="14"/>
+      <c r="C634" s="14"/>
+      <c r="J634" s="17"/>
+    </row>
+    <row r="635" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="14"/>
+      <c r="C635" s="14"/>
+      <c r="J635" s="17"/>
+    </row>
+    <row r="636" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="14"/>
+      <c r="C636" s="14"/>
+      <c r="J636" s="17"/>
+    </row>
+    <row r="637" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="14"/>
+      <c r="C637" s="14"/>
+      <c r="J637" s="17"/>
+    </row>
+    <row r="638" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="J638" s="17"/>
+    </row>
+    <row r="639" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="14"/>
+      <c r="C639" s="14"/>
+      <c r="J639" s="17"/>
+    </row>
+    <row r="640" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="14"/>
+      <c r="C640" s="14"/>
+      <c r="J640" s="17"/>
+    </row>
+    <row r="641" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="14"/>
+      <c r="C641" s="14"/>
+      <c r="J641" s="17"/>
+    </row>
+    <row r="642" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="14"/>
+      <c r="C642" s="14"/>
+      <c r="J642" s="17"/>
+    </row>
+    <row r="643" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="14"/>
+      <c r="C643" s="14"/>
+      <c r="J643" s="17"/>
+    </row>
+    <row r="644" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="14"/>
+      <c r="C644" s="14"/>
+      <c r="J644" s="17"/>
+    </row>
+    <row r="645" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="14"/>
+      <c r="C645" s="14"/>
+      <c r="J645" s="17"/>
+    </row>
+    <row r="646" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="14"/>
+      <c r="C646" s="14"/>
+      <c r="J646" s="17"/>
+    </row>
+    <row r="647" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="J647" s="17"/>
+    </row>
+    <row r="648" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="14"/>
+      <c r="C648" s="14"/>
+      <c r="J648" s="17"/>
+    </row>
+    <row r="649" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="14"/>
+      <c r="C649" s="14"/>
+      <c r="J649" s="17"/>
+    </row>
+    <row r="650" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="14"/>
+      <c r="C650" s="14"/>
+      <c r="J650" s="17"/>
+    </row>
+    <row r="651" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="14"/>
+      <c r="C651" s="14"/>
+      <c r="J651" s="17"/>
+    </row>
+    <row r="652" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="14"/>
+      <c r="C652" s="14"/>
+      <c r="J652" s="17"/>
+    </row>
+    <row r="653" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="J653" s="17"/>
+    </row>
+    <row r="654" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="14"/>
+      <c r="C654" s="14"/>
+      <c r="J654" s="17"/>
+    </row>
+    <row r="655" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="14"/>
+      <c r="C655" s="14"/>
+      <c r="J655" s="17"/>
+    </row>
+    <row r="656" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="14"/>
+      <c r="C656" s="14"/>
+      <c r="J656" s="17"/>
+    </row>
+    <row r="657" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="14"/>
+      <c r="C657" s="14"/>
+      <c r="J657" s="17"/>
+    </row>
+    <row r="658" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="J658" s="17"/>
+    </row>
+    <row r="659" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="14"/>
+      <c r="C659" s="14"/>
+      <c r="J659" s="17"/>
+    </row>
+    <row r="660" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="14"/>
+      <c r="C660" s="14"/>
+      <c r="J660" s="17"/>
+    </row>
+    <row r="661" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="J661" s="17"/>
+    </row>
+    <row r="662" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="14"/>
+      <c r="C662" s="14"/>
+      <c r="J662" s="17"/>
+    </row>
+    <row r="663" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="J663" s="17"/>
+    </row>
+    <row r="664" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="14"/>
+      <c r="C664" s="14"/>
+      <c r="J664" s="17"/>
+    </row>
+    <row r="665" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="14"/>
+      <c r="C665" s="14"/>
+      <c r="J665" s="17"/>
+    </row>
+    <row r="666" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="J666" s="17"/>
+    </row>
+    <row r="667" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="14"/>
+      <c r="C667" s="14"/>
+      <c r="J667" s="17"/>
+    </row>
+    <row r="668" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="14"/>
+      <c r="C668" s="14"/>
+      <c r="J668" s="17"/>
+    </row>
+    <row r="669" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="J669" s="17"/>
+    </row>
+    <row r="670" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="14"/>
+      <c r="C670" s="14"/>
+      <c r="J670" s="17"/>
+    </row>
+    <row r="671" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="J671" s="17"/>
+    </row>
+    <row r="672" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="14"/>
+      <c r="C672" s="14"/>
+      <c r="J672" s="17"/>
+    </row>
+    <row r="673" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="J673" s="17"/>
+    </row>
+    <row r="674" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="14"/>
+      <c r="C674" s="14"/>
+      <c r="J674" s="17"/>
+    </row>
+    <row r="675" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="14"/>
+      <c r="C675" s="14"/>
+      <c r="J675" s="17"/>
+    </row>
+    <row r="676" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="14"/>
+      <c r="C676" s="14"/>
+      <c r="J676" s="17"/>
+    </row>
+    <row r="677" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="14"/>
+      <c r="C677" s="14"/>
+      <c r="J677" s="17"/>
+    </row>
+    <row r="678" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="J678" s="17"/>
+    </row>
+    <row r="679" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="14"/>
+      <c r="C679" s="14"/>
+      <c r="J679" s="17"/>
+    </row>
+    <row r="680" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="14"/>
+      <c r="C680" s="14"/>
+      <c r="J680" s="17"/>
+    </row>
+    <row r="681" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="14"/>
+      <c r="C681" s="14"/>
+      <c r="J681" s="17"/>
+    </row>
+    <row r="682" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="14"/>
+      <c r="C682" s="14"/>
+      <c r="J682" s="17"/>
+    </row>
+    <row r="683" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="14"/>
+      <c r="C683" s="14"/>
+      <c r="J683" s="17"/>
+    </row>
+    <row r="684" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="14"/>
+      <c r="C684" s="14"/>
+      <c r="J684" s="17"/>
+    </row>
+    <row r="685" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="14"/>
+      <c r="C685" s="14"/>
+      <c r="J685" s="17"/>
+    </row>
+    <row r="686" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="J686" s="17"/>
+    </row>
+    <row r="687" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="14"/>
+      <c r="C687" s="14"/>
+      <c r="J687" s="17"/>
+    </row>
+    <row r="688" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="14"/>
+      <c r="C688" s="14"/>
+      <c r="J688" s="17"/>
+    </row>
+    <row r="689" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="14"/>
+      <c r="C689" s="14"/>
+      <c r="J689" s="17"/>
+    </row>
+    <row r="690" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="14"/>
+      <c r="C690" s="14"/>
+      <c r="J690" s="17"/>
+    </row>
+    <row r="691" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="14"/>
+      <c r="C691" s="14"/>
+      <c r="J691" s="17"/>
+    </row>
+    <row r="692" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="14"/>
+      <c r="C692" s="14"/>
+      <c r="J692" s="17"/>
+    </row>
+    <row r="693" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="14"/>
+      <c r="C693" s="14"/>
+      <c r="J693" s="17"/>
+    </row>
+    <row r="694" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="14"/>
+      <c r="C694" s="14"/>
+      <c r="J694" s="17"/>
+    </row>
+    <row r="695" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="14"/>
+      <c r="C695" s="14"/>
+      <c r="J695" s="17"/>
+    </row>
+    <row r="696" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="14"/>
+      <c r="C696" s="14"/>
+      <c r="J696" s="17"/>
+    </row>
+    <row r="697" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="14"/>
+      <c r="C697" s="14"/>
+      <c r="J697" s="17"/>
+    </row>
+    <row r="698" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="14"/>
+      <c r="C698" s="14"/>
+      <c r="J698" s="17"/>
+    </row>
+    <row r="699" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="14"/>
+      <c r="C699" s="14"/>
+      <c r="J699" s="17"/>
+    </row>
+    <row r="700" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="14"/>
+      <c r="C700" s="14"/>
+      <c r="J700" s="17"/>
+    </row>
+    <row r="701" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="J701" s="17"/>
+    </row>
+    <row r="702" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="14"/>
+      <c r="C702" s="14"/>
+      <c r="J702" s="17"/>
+    </row>
+    <row r="703" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="14"/>
+      <c r="C703" s="14"/>
+      <c r="J703" s="17"/>
+    </row>
+    <row r="704" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="J704" s="17"/>
+    </row>
+    <row r="705" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="14"/>
+      <c r="C705" s="14"/>
+      <c r="J705" s="17"/>
+    </row>
+    <row r="706" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="14"/>
+      <c r="C706" s="14"/>
+      <c r="J706" s="17"/>
+    </row>
+    <row r="707" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="14"/>
+      <c r="C707" s="14"/>
+      <c r="J707" s="17"/>
+    </row>
+    <row r="708" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="14"/>
+      <c r="C708" s="14"/>
+      <c r="J708" s="17"/>
+    </row>
+    <row r="709" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="14"/>
+      <c r="C709" s="14"/>
+      <c r="J709" s="17"/>
+    </row>
+    <row r="710" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="14"/>
+      <c r="C710" s="14"/>
+      <c r="J710" s="17"/>
+    </row>
+    <row r="711" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="14"/>
+      <c r="C711" s="14"/>
+      <c r="J711" s="17"/>
+    </row>
+    <row r="712" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="14"/>
+      <c r="C712" s="14"/>
+      <c r="J712" s="17"/>
+    </row>
+    <row r="713" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="14"/>
+      <c r="C713" s="14"/>
+      <c r="J713" s="17"/>
+    </row>
+    <row r="714" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="14"/>
+      <c r="C714" s="14"/>
+      <c r="J714" s="17"/>
+    </row>
+    <row r="715" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="14"/>
+      <c r="C715" s="14"/>
+      <c r="J715" s="17"/>
+    </row>
+    <row r="716" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="14"/>
+      <c r="C716" s="14"/>
+      <c r="J716" s="17"/>
+    </row>
+    <row r="717" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="J717" s="17"/>
+    </row>
+    <row r="718" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="14"/>
+      <c r="C718" s="14"/>
+      <c r="J718" s="17"/>
+    </row>
+    <row r="719" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="J719" s="17"/>
+    </row>
+    <row r="720" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="14"/>
+      <c r="C720" s="14"/>
+      <c r="J720" s="17"/>
+    </row>
+    <row r="721" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="14"/>
+      <c r="C721" s="14"/>
+      <c r="J721" s="17"/>
+    </row>
+    <row r="722" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="14"/>
+      <c r="C722" s="14"/>
+      <c r="J722" s="17"/>
+    </row>
+    <row r="723" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="14"/>
+      <c r="C723" s="14"/>
+      <c r="J723" s="17"/>
+    </row>
+    <row r="724" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="14"/>
+      <c r="C724" s="14"/>
+      <c r="J724" s="17"/>
+    </row>
+    <row r="725" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="J725" s="17"/>
+    </row>
+    <row r="726" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="14"/>
+      <c r="C726" s="14"/>
+      <c r="J726" s="17"/>
+    </row>
+    <row r="727" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="14"/>
+      <c r="C727" s="14"/>
+      <c r="J727" s="17"/>
+    </row>
+    <row r="728" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="14"/>
+      <c r="C728" s="14"/>
+      <c r="J728" s="17"/>
+    </row>
+    <row r="729" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="14"/>
+      <c r="C729" s="14"/>
+      <c r="J729" s="17"/>
+    </row>
+    <row r="730" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="14"/>
+      <c r="C730" s="14"/>
+      <c r="J730" s="17"/>
+    </row>
+    <row r="731" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="14"/>
+      <c r="C731" s="14"/>
+      <c r="J731" s="17"/>
+    </row>
+    <row r="732" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="14"/>
+      <c r="C732" s="14"/>
+      <c r="J732" s="17"/>
+    </row>
+    <row r="733" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="14"/>
+      <c r="C733" s="14"/>
+      <c r="J733" s="17"/>
+    </row>
+    <row r="734" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="J734" s="17"/>
+    </row>
+    <row r="735" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="14"/>
+      <c r="C735" s="14"/>
+      <c r="J735" s="17"/>
+    </row>
+    <row r="736" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="14"/>
+      <c r="C736" s="14"/>
+      <c r="J736" s="17"/>
+    </row>
+    <row r="737" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="14"/>
+      <c r="C737" s="14"/>
+      <c r="J737" s="17"/>
+    </row>
+    <row r="738" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="14"/>
+      <c r="C738" s="14"/>
+      <c r="J738" s="17"/>
+    </row>
+    <row r="739" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="14"/>
+      <c r="C739" s="14"/>
+      <c r="J739" s="17"/>
+    </row>
+    <row r="740" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="14"/>
+      <c r="C740" s="14"/>
+      <c r="J740" s="17"/>
+    </row>
+    <row r="741" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="J741" s="17"/>
+    </row>
+    <row r="742" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="14"/>
+      <c r="C742" s="14"/>
+      <c r="J742" s="17"/>
+    </row>
+    <row r="743" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="14"/>
+      <c r="C743" s="14"/>
+      <c r="J743" s="17"/>
+    </row>
+    <row r="744" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="14"/>
+      <c r="C744" s="14"/>
+      <c r="J744" s="17"/>
+    </row>
+    <row r="745" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="14"/>
+      <c r="C745" s="14"/>
+      <c r="J745" s="17"/>
+    </row>
+    <row r="746" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="14"/>
+      <c r="C746" s="14"/>
+      <c r="J746" s="17"/>
+    </row>
+    <row r="747" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="14"/>
+      <c r="C747" s="14"/>
+      <c r="J747" s="17"/>
+    </row>
+    <row r="748" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="14"/>
+      <c r="C748" s="14"/>
+      <c r="J748" s="17"/>
+    </row>
+    <row r="749" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="J749" s="17"/>
+    </row>
+    <row r="750" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="14"/>
+      <c r="C750" s="14"/>
+      <c r="J750" s="17"/>
+    </row>
+    <row r="751" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="14"/>
+      <c r="C751" s="14"/>
+      <c r="J751" s="17"/>
+    </row>
+    <row r="752" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="14"/>
+      <c r="C752" s="14"/>
+      <c r="J752" s="17"/>
+    </row>
+    <row r="753" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="14"/>
+      <c r="C753" s="14"/>
+      <c r="J753" s="17"/>
+    </row>
+    <row r="754" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="14"/>
+      <c r="C754" s="14"/>
+      <c r="J754" s="17"/>
+    </row>
+    <row r="755" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="14"/>
+      <c r="C755" s="14"/>
+      <c r="J755" s="17"/>
+    </row>
+    <row r="756" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="14"/>
+      <c r="C756" s="14"/>
+      <c r="J756" s="17"/>
+    </row>
+    <row r="757" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="14"/>
+      <c r="C757" s="14"/>
+      <c r="J757" s="17"/>
+    </row>
+    <row r="758" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="J758" s="17"/>
+    </row>
+    <row r="759" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="14"/>
+      <c r="C759" s="14"/>
+      <c r="J759" s="17"/>
+    </row>
+    <row r="760" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="J760" s="17"/>
+    </row>
+    <row r="761" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="14"/>
+      <c r="C761" s="14"/>
+      <c r="J761" s="17"/>
+    </row>
+    <row r="762" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="14"/>
+      <c r="C762" s="14"/>
+      <c r="J762" s="17"/>
+    </row>
+    <row r="763" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="14"/>
+      <c r="C763" s="14"/>
+      <c r="J763" s="17"/>
+    </row>
+    <row r="764" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="14"/>
+      <c r="C764" s="14"/>
+      <c r="J764" s="17"/>
+    </row>
+    <row r="765" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="J765" s="17"/>
+    </row>
+    <row r="766" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="14"/>
+      <c r="C766" s="14"/>
+      <c r="J766" s="17"/>
+    </row>
+    <row r="767" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="14"/>
+      <c r="C767" s="14"/>
+      <c r="J767" s="17"/>
+    </row>
+    <row r="768" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="J768" s="17"/>
+    </row>
+    <row r="769" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="14"/>
+      <c r="C769" s="14"/>
+      <c r="J769" s="17"/>
+    </row>
+    <row r="770" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="14"/>
+      <c r="C770" s="14"/>
+      <c r="J770" s="17"/>
+    </row>
+    <row r="771" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="14"/>
+      <c r="C771" s="14"/>
+      <c r="J771" s="17"/>
+    </row>
+    <row r="772" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="14"/>
+      <c r="C772" s="14"/>
+      <c r="J772" s="17"/>
+    </row>
+    <row r="773" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="14"/>
+      <c r="C773" s="14"/>
+      <c r="J773" s="17"/>
+    </row>
+    <row r="774" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="14"/>
+      <c r="C774" s="14"/>
+      <c r="J774" s="17"/>
+    </row>
+    <row r="775" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="14"/>
+      <c r="C775" s="14"/>
+      <c r="J775" s="17"/>
+    </row>
+    <row r="776" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="14"/>
+      <c r="C776" s="14"/>
+      <c r="J776" s="17"/>
+    </row>
+    <row r="777" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
+      <c r="J777" s="17"/>
+    </row>
+    <row r="778" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="14"/>
+      <c r="C778" s="14"/>
+      <c r="J778" s="17"/>
+    </row>
+    <row r="779" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="J779" s="17"/>
+    </row>
+    <row r="780" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="14"/>
+      <c r="C780" s="14"/>
+      <c r="J780" s="17"/>
+    </row>
+    <row r="781" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="14"/>
+      <c r="C781" s="14"/>
+      <c r="J781" s="17"/>
+    </row>
+    <row r="782" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="14"/>
+      <c r="C782" s="14"/>
+      <c r="J782" s="17"/>
+    </row>
+    <row r="783" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="14"/>
+      <c r="C783" s="14"/>
+      <c r="J783" s="17"/>
+    </row>
+    <row r="784" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="14"/>
+      <c r="C784" s="14"/>
+      <c r="J784" s="17"/>
+    </row>
+    <row r="785" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="14"/>
+      <c r="C785" s="14"/>
+      <c r="J785" s="17"/>
+    </row>
+    <row r="786" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="14"/>
+      <c r="C786" s="14"/>
+      <c r="J786" s="17"/>
+    </row>
+    <row r="787" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="14"/>
+      <c r="C787" s="14"/>
+      <c r="J787" s="17"/>
+    </row>
+    <row r="788" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="14"/>
+      <c r="C788" s="14"/>
+      <c r="J788" s="17"/>
+    </row>
+    <row r="789" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="14"/>
+      <c r="C789" s="14"/>
+      <c r="J789" s="17"/>
+    </row>
+    <row r="790" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="14"/>
+      <c r="C790" s="14"/>
+      <c r="J790" s="17"/>
+    </row>
+    <row r="791" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="J791" s="17"/>
+    </row>
+    <row r="792" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="14"/>
+      <c r="C792" s="14"/>
+      <c r="J792" s="17"/>
+    </row>
+    <row r="793" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="14"/>
+      <c r="C793" s="14"/>
+      <c r="J793" s="17"/>
+    </row>
+    <row r="794" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="14"/>
+      <c r="C794" s="14"/>
+      <c r="J794" s="17"/>
+    </row>
+    <row r="795" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="14"/>
+      <c r="C795" s="14"/>
+      <c r="J795" s="17"/>
+    </row>
+    <row r="796" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="14"/>
+      <c r="C796" s="14"/>
+      <c r="J796" s="17"/>
+    </row>
+    <row r="797" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="14"/>
+      <c r="C797" s="14"/>
+      <c r="J797" s="17"/>
+    </row>
+    <row r="798" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="J798" s="17"/>
+    </row>
+    <row r="799" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="14"/>
+      <c r="C799" s="14"/>
+      <c r="J799" s="17"/>
+    </row>
+    <row r="800" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="J800" s="17"/>
+    </row>
+    <row r="801" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="14"/>
+      <c r="C801" s="14"/>
+      <c r="J801" s="17"/>
+    </row>
+    <row r="802" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="14"/>
+      <c r="C802" s="14"/>
+      <c r="J802" s="17"/>
+    </row>
+    <row r="803" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="14"/>
+      <c r="C803" s="14"/>
+      <c r="J803" s="17"/>
+    </row>
+    <row r="804" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="14"/>
+      <c r="C804" s="14"/>
+      <c r="J804" s="17"/>
+    </row>
+    <row r="805" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="14"/>
+      <c r="C805" s="14"/>
+      <c r="J805" s="17"/>
+    </row>
+    <row r="806" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="14"/>
+      <c r="C806" s="14"/>
+      <c r="J806" s="17"/>
+    </row>
+    <row r="807" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="14"/>
+      <c r="C807" s="14"/>
+      <c r="J807" s="17"/>
+    </row>
+    <row r="808" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="14"/>
+      <c r="C808" s="14"/>
+      <c r="J808" s="17"/>
+    </row>
+    <row r="809" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="14"/>
+      <c r="C809" s="14"/>
+      <c r="J809" s="17"/>
+    </row>
+    <row r="810" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="14"/>
+      <c r="C810" s="14"/>
+      <c r="J810" s="17"/>
+    </row>
+    <row r="811" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="14"/>
+      <c r="C811" s="14"/>
+      <c r="J811" s="17"/>
+    </row>
+    <row r="812" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="14"/>
+      <c r="C812" s="14"/>
+      <c r="J812" s="17"/>
+    </row>
+    <row r="813" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="14"/>
+      <c r="C813" s="14"/>
+      <c r="J813" s="17"/>
+    </row>
+    <row r="814" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="14"/>
+      <c r="C814" s="14"/>
+      <c r="J814" s="17"/>
+    </row>
+    <row r="815" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="14"/>
+      <c r="C815" s="14"/>
+      <c r="J815" s="17"/>
+    </row>
+    <row r="816" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="14"/>
+      <c r="C816" s="14"/>
+      <c r="J816" s="17"/>
+    </row>
+    <row r="817" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="J817" s="17"/>
+    </row>
+    <row r="818" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="14"/>
+      <c r="C818" s="14"/>
+      <c r="J818" s="17"/>
+    </row>
+    <row r="819" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="14"/>
+      <c r="C819" s="14"/>
+      <c r="J819" s="17"/>
+    </row>
+    <row r="820" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="14"/>
+      <c r="C820" s="14"/>
+      <c r="J820" s="17"/>
+    </row>
+    <row r="821" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="14"/>
+      <c r="C821" s="14"/>
+      <c r="J821" s="17"/>
+    </row>
+    <row r="822" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="14"/>
+      <c r="C822" s="14"/>
+      <c r="J822" s="17"/>
+    </row>
+    <row r="823" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="14"/>
+      <c r="C823" s="14"/>
+      <c r="J823" s="17"/>
+    </row>
+    <row r="824" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="14"/>
+      <c r="C824" s="14"/>
+      <c r="J824" s="17"/>
+    </row>
+    <row r="825" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="14"/>
+      <c r="C825" s="14"/>
+      <c r="J825" s="17"/>
+    </row>
+    <row r="826" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="14"/>
+      <c r="C826" s="14"/>
+      <c r="J826" s="17"/>
+    </row>
+    <row r="827" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="14"/>
+      <c r="C827" s="14"/>
+      <c r="J827" s="17"/>
+    </row>
+    <row r="828" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="14"/>
+      <c r="C828" s="14"/>
+      <c r="J828" s="17"/>
+    </row>
+    <row r="829" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="14"/>
+      <c r="C829" s="14"/>
+      <c r="J829" s="17"/>
+    </row>
+    <row r="830" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="14"/>
+      <c r="C830" s="14"/>
+      <c r="J830" s="17"/>
+    </row>
+    <row r="831" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="14"/>
+      <c r="C831" s="14"/>
+      <c r="J831" s="17"/>
+    </row>
+    <row r="832" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="14"/>
+      <c r="C832" s="14"/>
+      <c r="J832" s="17"/>
+    </row>
+    <row r="833" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="14"/>
+      <c r="C833" s="14"/>
+      <c r="J833" s="17"/>
+    </row>
+    <row r="834" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="14"/>
+      <c r="C834" s="14"/>
+      <c r="J834" s="17"/>
+    </row>
+    <row r="835" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="14"/>
+      <c r="C835" s="14"/>
+      <c r="J835" s="17"/>
+    </row>
+    <row r="836" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="14"/>
+      <c r="C836" s="14"/>
+      <c r="J836" s="17"/>
+    </row>
+    <row r="837" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="14"/>
+      <c r="C837" s="14"/>
+      <c r="J837" s="17"/>
+    </row>
+    <row r="838" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="14"/>
+      <c r="C838" s="14"/>
+      <c r="J838" s="17"/>
+    </row>
+    <row r="839" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="14"/>
+      <c r="C839" s="14"/>
+      <c r="J839" s="17"/>
+    </row>
+    <row r="840" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="14"/>
+      <c r="C840" s="14"/>
+      <c r="J840" s="17"/>
+    </row>
+    <row r="841" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="14"/>
+      <c r="C841" s="14"/>
+      <c r="J841" s="17"/>
+    </row>
+    <row r="842" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="14"/>
+      <c r="C842" s="14"/>
+      <c r="J842" s="17"/>
+    </row>
+    <row r="843" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="14"/>
+      <c r="C843" s="14"/>
+      <c r="J843" s="17"/>
+    </row>
+    <row r="844" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="14"/>
+      <c r="C844" s="14"/>
+      <c r="J844" s="17"/>
+    </row>
+    <row r="845" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="14"/>
+      <c r="C845" s="14"/>
+      <c r="J845" s="17"/>
+    </row>
+    <row r="846" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="14"/>
+      <c r="C846" s="14"/>
+      <c r="J846" s="17"/>
+    </row>
+    <row r="847" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="14"/>
+      <c r="C847" s="14"/>
+      <c r="J847" s="17"/>
+    </row>
+    <row r="848" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="14"/>
+      <c r="C848" s="14"/>
+      <c r="J848" s="17"/>
+    </row>
+    <row r="849" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="14"/>
+      <c r="C849" s="14"/>
+      <c r="J849" s="17"/>
+    </row>
+    <row r="850" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="14"/>
+      <c r="C850" s="14"/>
+      <c r="J850" s="17"/>
+    </row>
+    <row r="851" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="14"/>
+      <c r="C851" s="14"/>
+      <c r="J851" s="17"/>
+    </row>
+    <row r="852" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="14"/>
+      <c r="C852" s="14"/>
+      <c r="J852" s="17"/>
+    </row>
+    <row r="853" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="14"/>
+      <c r="C853" s="14"/>
+      <c r="J853" s="17"/>
+    </row>
+    <row r="854" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="14"/>
+      <c r="C854" s="14"/>
+      <c r="J854" s="17"/>
+    </row>
+    <row r="855" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="14"/>
+      <c r="C855" s="14"/>
+      <c r="J855" s="17"/>
+    </row>
+    <row r="856" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="14"/>
+      <c r="C856" s="14"/>
+      <c r="J856" s="17"/>
+    </row>
+    <row r="857" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="14"/>
+      <c r="C857" s="14"/>
+      <c r="J857" s="17"/>
+    </row>
+    <row r="858" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="14"/>
+      <c r="C858" s="14"/>
+      <c r="J858" s="17"/>
+    </row>
+    <row r="859" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="14"/>
+      <c r="C859" s="14"/>
+      <c r="J859" s="17"/>
+    </row>
+    <row r="860" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="14"/>
+      <c r="C860" s="14"/>
+      <c r="J860" s="17"/>
+    </row>
+    <row r="861" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="14"/>
+      <c r="C861" s="14"/>
+      <c r="J861" s="17"/>
+    </row>
+    <row r="862" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="14"/>
+      <c r="C862" s="14"/>
+      <c r="J862" s="17"/>
+    </row>
+    <row r="863" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="14"/>
+      <c r="C863" s="14"/>
+      <c r="J863" s="17"/>
+    </row>
+    <row r="864" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="14"/>
+      <c r="C864" s="14"/>
+      <c r="J864" s="17"/>
+    </row>
+    <row r="865" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="14"/>
+      <c r="C865" s="14"/>
+      <c r="J865" s="17"/>
+    </row>
+    <row r="866" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="14"/>
+      <c r="C866" s="14"/>
+      <c r="J866" s="17"/>
+    </row>
+    <row r="867" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="14"/>
+      <c r="C867" s="14"/>
+      <c r="J867" s="17"/>
+    </row>
+    <row r="868" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="14"/>
+      <c r="C868" s="14"/>
+      <c r="J868" s="17"/>
+    </row>
+    <row r="869" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="14"/>
+      <c r="C869" s="14"/>
+      <c r="J869" s="17"/>
+    </row>
+    <row r="870" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="14"/>
+      <c r="C870" s="14"/>
+      <c r="J870" s="17"/>
+    </row>
+    <row r="871" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="14"/>
+      <c r="C871" s="14"/>
+      <c r="J871" s="17"/>
+    </row>
+    <row r="872" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="14"/>
+      <c r="C872" s="14"/>
+      <c r="J872" s="17"/>
+    </row>
+    <row r="873" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="14"/>
+      <c r="C873" s="14"/>
+      <c r="J873" s="17"/>
+    </row>
+    <row r="874" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="14"/>
+      <c r="C874" s="14"/>
+      <c r="J874" s="17"/>
+    </row>
+    <row r="875" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="14"/>
+      <c r="C875" s="14"/>
+      <c r="J875" s="17"/>
+    </row>
+    <row r="876" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="14"/>
+      <c r="C876" s="14"/>
+      <c r="J876" s="17"/>
+    </row>
+    <row r="877" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="14"/>
+      <c r="C877" s="14"/>
+      <c r="J877" s="17"/>
+    </row>
+    <row r="878" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="14"/>
+      <c r="C878" s="14"/>
+      <c r="J878" s="17"/>
+    </row>
+    <row r="879" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="14"/>
+      <c r="C879" s="14"/>
+      <c r="J879" s="17"/>
+    </row>
+    <row r="880" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="14"/>
+      <c r="C880" s="14"/>
+      <c r="J880" s="17"/>
+    </row>
+    <row r="881" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="14"/>
+      <c r="C881" s="14"/>
+      <c r="J881" s="17"/>
+    </row>
+    <row r="882" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="14"/>
+      <c r="C882" s="14"/>
+      <c r="J882" s="17"/>
+    </row>
+    <row r="883" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="14"/>
+      <c r="C883" s="14"/>
+      <c r="J883" s="17"/>
+    </row>
+    <row r="884" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="14"/>
+      <c r="C884" s="14"/>
+      <c r="J884" s="17"/>
+    </row>
+    <row r="885" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="14"/>
+      <c r="C885" s="14"/>
+      <c r="J885" s="17"/>
+    </row>
+    <row r="886" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="14"/>
+      <c r="C886" s="14"/>
+      <c r="J886" s="17"/>
+    </row>
+    <row r="887" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="14"/>
+      <c r="C887" s="14"/>
+      <c r="J887" s="17"/>
+    </row>
+    <row r="888" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="14"/>
+      <c r="C888" s="14"/>
+      <c r="J888" s="17"/>
+    </row>
+    <row r="889" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="14"/>
+      <c r="C889" s="14"/>
+      <c r="J889" s="17"/>
+    </row>
+    <row r="890" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="14"/>
+      <c r="C890" s="14"/>
+      <c r="J890" s="17"/>
+    </row>
+    <row r="891" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="14"/>
+      <c r="C891" s="14"/>
+      <c r="J891" s="17"/>
+    </row>
+    <row r="892" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="14"/>
+      <c r="C892" s="14"/>
+      <c r="J892" s="17"/>
+    </row>
+    <row r="893" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="14"/>
+      <c r="C893" s="14"/>
+      <c r="J893" s="17"/>
+    </row>
+    <row r="894" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="14"/>
+      <c r="C894" s="14"/>
+      <c r="J894" s="17"/>
+    </row>
+    <row r="895" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="14"/>
+      <c r="C895" s="14"/>
+      <c r="J895" s="17"/>
+    </row>
+    <row r="896" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="14"/>
+      <c r="C896" s="14"/>
+      <c r="J896" s="17"/>
+    </row>
+    <row r="897" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="14"/>
+      <c r="C897" s="14"/>
+      <c r="J897" s="17"/>
+    </row>
+    <row r="898" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="14"/>
+      <c r="C898" s="14"/>
+      <c r="J898" s="17"/>
+    </row>
+    <row r="899" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="14"/>
+      <c r="C899" s="14"/>
+      <c r="J899" s="17"/>
+    </row>
+    <row r="900" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="14"/>
+      <c r="C900" s="14"/>
+      <c r="J900" s="17"/>
+    </row>
+    <row r="901" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="14"/>
+      <c r="C901" s="14"/>
+      <c r="J901" s="17"/>
+    </row>
+    <row r="902" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="14"/>
+      <c r="C902" s="14"/>
+      <c r="J902" s="17"/>
+    </row>
+    <row r="903" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="14"/>
+      <c r="C903" s="14"/>
+      <c r="J903" s="17"/>
+    </row>
+    <row r="904" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="14"/>
+      <c r="C904" s="14"/>
+      <c r="J904" s="17"/>
+    </row>
+    <row r="905" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="14"/>
+      <c r="C905" s="14"/>
+      <c r="J905" s="17"/>
+    </row>
+    <row r="906" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="14"/>
+      <c r="C906" s="14"/>
+      <c r="J906" s="17"/>
+    </row>
+    <row r="907" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="14"/>
+      <c r="C907" s="14"/>
+      <c r="J907" s="17"/>
+    </row>
+    <row r="908" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="14"/>
+      <c r="C908" s="14"/>
+      <c r="J908" s="17"/>
+    </row>
+    <row r="909" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="14"/>
+      <c r="C909" s="14"/>
+      <c r="J909" s="17"/>
+    </row>
+    <row r="910" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="14"/>
+      <c r="C910" s="14"/>
+      <c r="J910" s="17"/>
+    </row>
+    <row r="911" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="14"/>
+      <c r="C911" s="14"/>
+      <c r="J911" s="17"/>
+    </row>
+    <row r="912" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="14"/>
+      <c r="C912" s="14"/>
+      <c r="J912" s="17"/>
+    </row>
+    <row r="913" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="14"/>
+      <c r="C913" s="14"/>
+      <c r="J913" s="17"/>
+    </row>
+    <row r="914" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="14"/>
+      <c r="C914" s="14"/>
+      <c r="J914" s="17"/>
+    </row>
+    <row r="915" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="14"/>
+      <c r="C915" s="14"/>
+      <c r="J915" s="17"/>
+    </row>
+    <row r="916" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="14"/>
+      <c r="C916" s="14"/>
+      <c r="J916" s="17"/>
+    </row>
+    <row r="917" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="14"/>
+      <c r="C917" s="14"/>
+      <c r="J917" s="17"/>
+    </row>
+    <row r="918" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="14"/>
+      <c r="C918" s="14"/>
+      <c r="J918" s="17"/>
+    </row>
+    <row r="919" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="14"/>
+      <c r="C919" s="14"/>
+      <c r="J919" s="17"/>
+    </row>
+    <row r="920" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="14"/>
+      <c r="C920" s="14"/>
+      <c r="J920" s="17"/>
+    </row>
+    <row r="921" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="14"/>
+      <c r="C921" s="14"/>
+      <c r="J921" s="17"/>
+    </row>
+    <row r="922" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="14"/>
+      <c r="C922" s="14"/>
+      <c r="J922" s="17"/>
+    </row>
+    <row r="923" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="14"/>
+      <c r="C923" s="14"/>
+      <c r="J923" s="17"/>
+    </row>
+    <row r="924" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="14"/>
+      <c r="C924" s="14"/>
+      <c r="J924" s="17"/>
+    </row>
+    <row r="925" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="14"/>
+      <c r="C925" s="14"/>
+      <c r="J925" s="17"/>
+    </row>
+    <row r="926" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="14"/>
+      <c r="C926" s="14"/>
+      <c r="J926" s="17"/>
+    </row>
+    <row r="927" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="14"/>
+      <c r="C927" s="14"/>
+      <c r="J927" s="17"/>
+    </row>
+    <row r="928" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="14"/>
+      <c r="C928" s="14"/>
+      <c r="J928" s="17"/>
+    </row>
+    <row r="929" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="14"/>
+      <c r="C929" s="14"/>
+      <c r="J929" s="17"/>
+    </row>
+    <row r="930" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="14"/>
+      <c r="C930" s="14"/>
+      <c r="J930" s="17"/>
+    </row>
+    <row r="931" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="14"/>
+      <c r="C931" s="14"/>
+      <c r="J931" s="17"/>
+    </row>
+    <row r="932" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="14"/>
+      <c r="C932" s="14"/>
+      <c r="J932" s="17"/>
+    </row>
+    <row r="933" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="14"/>
+      <c r="C933" s="14"/>
+      <c r="J933" s="17"/>
+    </row>
+    <row r="934" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="14"/>
+      <c r="C934" s="14"/>
+      <c r="J934" s="17"/>
+    </row>
+    <row r="935" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="14"/>
+      <c r="C935" s="14"/>
+      <c r="J935" s="17"/>
+    </row>
+    <row r="936" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="14"/>
+      <c r="C936" s="14"/>
+      <c r="J936" s="17"/>
+    </row>
+    <row r="937" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="14"/>
+      <c r="C937" s="14"/>
+      <c r="J937" s="17"/>
+    </row>
+    <row r="938" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="14"/>
+      <c r="C938" s="14"/>
+      <c r="J938" s="17"/>
+    </row>
+    <row r="939" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="14"/>
+      <c r="C939" s="14"/>
+      <c r="J939" s="17"/>
+    </row>
+    <row r="940" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="14"/>
+      <c r="C940" s="14"/>
+      <c r="J940" s="17"/>
+    </row>
+    <row r="941" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="14"/>
+      <c r="C941" s="14"/>
+      <c r="J941" s="17"/>
+    </row>
+    <row r="942" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="14"/>
+      <c r="C942" s="14"/>
+      <c r="J942" s="17"/>
+    </row>
+    <row r="943" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="14"/>
+      <c r="C943" s="14"/>
+      <c r="J943" s="17"/>
+    </row>
+    <row r="944" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="14"/>
+      <c r="C944" s="14"/>
+      <c r="J944" s="17"/>
+    </row>
+    <row r="945" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="14"/>
+      <c r="C945" s="14"/>
+      <c r="J945" s="17"/>
+    </row>
+    <row r="946" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="14"/>
+      <c r="C946" s="14"/>
+      <c r="J946" s="17"/>
+    </row>
+    <row r="947" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="14"/>
+      <c r="C947" s="14"/>
+      <c r="J947" s="17"/>
+    </row>
+    <row r="948" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="14"/>
+      <c r="C948" s="14"/>
+      <c r="J948" s="17"/>
+    </row>
+    <row r="949" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="14"/>
+      <c r="C949" s="14"/>
+      <c r="J949" s="17"/>
+    </row>
+    <row r="950" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="14"/>
+      <c r="C950" s="14"/>
+      <c r="J950" s="17"/>
+    </row>
+    <row r="951" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="14"/>
+      <c r="C951" s="14"/>
+      <c r="J951" s="17"/>
+    </row>
+    <row r="952" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="14"/>
+      <c r="C952" s="14"/>
+      <c r="J952" s="17"/>
+    </row>
+    <row r="953" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="14"/>
+      <c r="C953" s="14"/>
+      <c r="J953" s="17"/>
+    </row>
+    <row r="954" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="14"/>
+      <c r="C954" s="14"/>
+      <c r="J954" s="17"/>
+    </row>
+    <row r="955" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="14"/>
+      <c r="C955" s="14"/>
+      <c r="J955" s="17"/>
+    </row>
+    <row r="956" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="14"/>
+      <c r="C956" s="14"/>
+      <c r="J956" s="17"/>
+    </row>
+    <row r="957" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="14"/>
+      <c r="C957" s="14"/>
+      <c r="J957" s="17"/>
+    </row>
+    <row r="958" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="14"/>
+      <c r="C958" s="14"/>
+      <c r="J958" s="17"/>
+    </row>
+    <row r="959" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="14"/>
+      <c r="C959" s="14"/>
+      <c r="J959" s="17"/>
+    </row>
+    <row r="960" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="14"/>
+      <c r="C960" s="14"/>
+      <c r="J960" s="17"/>
+    </row>
+    <row r="961" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="14"/>
+      <c r="C961" s="14"/>
+      <c r="J961" s="17"/>
+    </row>
+    <row r="962" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="14"/>
+      <c r="C962" s="14"/>
+      <c r="J962" s="17"/>
+    </row>
+    <row r="963" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="14"/>
+      <c r="C963" s="14"/>
+      <c r="J963" s="17"/>
+    </row>
+    <row r="964" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="14"/>
+      <c r="C964" s="14"/>
+      <c r="J964" s="17"/>
+    </row>
+    <row r="965" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="14"/>
+      <c r="C965" s="14"/>
+      <c r="J965" s="17"/>
+    </row>
+    <row r="966" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="14"/>
+      <c r="C966" s="14"/>
+      <c r="J966" s="17"/>
+    </row>
+    <row r="967" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="14"/>
+      <c r="C967" s="14"/>
+      <c r="J967" s="17"/>
+    </row>
+    <row r="968" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="14"/>
+      <c r="C968" s="14"/>
+      <c r="J968" s="17"/>
+    </row>
+    <row r="969" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="14"/>
+      <c r="C969" s="14"/>
+      <c r="J969" s="17"/>
+    </row>
+    <row r="970" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="14"/>
+      <c r="C970" s="14"/>
+      <c r="J970" s="17"/>
+    </row>
+    <row r="971" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="14"/>
+      <c r="C971" s="14"/>
+      <c r="J971" s="17"/>
+    </row>
+    <row r="972" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="14"/>
+      <c r="C972" s="14"/>
+      <c r="J972" s="17"/>
+    </row>
+    <row r="973" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="14"/>
+      <c r="C973" s="14"/>
+      <c r="J973" s="17"/>
+    </row>
+    <row r="974" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="14"/>
+      <c r="C974" s="14"/>
+      <c r="J974" s="17"/>
+    </row>
+    <row r="975" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="14"/>
+      <c r="C975" s="14"/>
+      <c r="J975" s="17"/>
+    </row>
+    <row r="976" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="14"/>
+      <c r="C976" s="14"/>
+      <c r="J976" s="17"/>
+    </row>
+    <row r="977" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="14"/>
+      <c r="C977" s="14"/>
+      <c r="J977" s="17"/>
+    </row>
+    <row r="978" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="14"/>
+      <c r="C978" s="14"/>
+      <c r="J978" s="17"/>
+    </row>
+    <row r="979" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="14"/>
+      <c r="C979" s="14"/>
+      <c r="J979" s="17"/>
+    </row>
+    <row r="980" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="14"/>
+      <c r="C980" s="14"/>
+      <c r="J980" s="17"/>
+    </row>
+    <row r="981" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="14"/>
+      <c r="C981" s="14"/>
+      <c r="J981" s="17"/>
+    </row>
+    <row r="982" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="14"/>
+      <c r="C982" s="14"/>
+      <c r="J982" s="17"/>
+    </row>
+    <row r="983" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="14"/>
+      <c r="C983" s="14"/>
+      <c r="J983" s="17"/>
+    </row>
+    <row r="984" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="14"/>
+      <c r="C984" s="14"/>
+      <c r="J984" s="17"/>
+    </row>
+    <row r="985" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="14"/>
+      <c r="C985" s="14"/>
+      <c r="J985" s="17"/>
+    </row>
+    <row r="986" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="14"/>
+      <c r="C986" s="14"/>
+      <c r="J986" s="17"/>
+    </row>
+    <row r="987" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="14"/>
+      <c r="C987" s="14"/>
+      <c r="J987" s="17"/>
+    </row>
+    <row r="988" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="14"/>
+      <c r="C988" s="14"/>
+      <c r="J988" s="17"/>
+    </row>
+    <row r="989" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B989" s="14"/>
+      <c r="C989" s="14"/>
+      <c r="J989" s="17"/>
+    </row>
+    <row r="990" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B990" s="14"/>
+      <c r="C990" s="14"/>
+      <c r="J990" s="17"/>
+    </row>
+    <row r="991" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B991" s="14"/>
+      <c r="C991" s="14"/>
+      <c r="J991" s="17"/>
+    </row>
+    <row r="992" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B992" s="14"/>
+      <c r="C992" s="14"/>
+      <c r="J992" s="17"/>
+    </row>
+    <row r="993" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B993" s="14"/>
+      <c r="C993" s="14"/>
+      <c r="J993" s="17"/>
+    </row>
+    <row r="994" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B994" s="14"/>
+      <c r="C994" s="14"/>
+      <c r="J994" s="17"/>
+    </row>
+    <row r="995" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B995" s="14"/>
+      <c r="C995" s="14"/>
+      <c r="J995" s="17"/>
+    </row>
+    <row r="996" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B996" s="14"/>
+      <c r="C996" s="14"/>
+      <c r="J996" s="17"/>
+    </row>
+    <row r="997" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B997" s="14"/>
+      <c r="C997" s="14"/>
+      <c r="J997" s="17"/>
+    </row>
+    <row r="998" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B998" s="14"/>
+      <c r="C998" s="14"/>
+      <c r="J998" s="17"/>
+    </row>
+    <row r="999" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B999" s="14"/>
+      <c r="C999" s="14"/>
+      <c r="J999" s="17"/>
+    </row>
+    <row r="1000" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1000" s="14"/>
+      <c r="C1000" s="14"/>
+      <c r="J1000" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-90 TSP.xlsx
+++ b/CH-90 TSP.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36157416-A1E9-49AC-A75E-3444934ADFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84A6D9-EFE2-4F1B-9EF3-D59BF5EB8BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_nDist">EDA!$N$5:$N$29</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -180,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +218,13 @@
       <color theme="1"/>
       <name val="Corbel"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -425,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,6 +491,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,6 +865,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="885" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{872F2251-69AD-4BEC-BF58-BDCC9AEDA7FD}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
@@ -6278,7 +6314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70842E-8ADC-4673-8DA3-6F4EDDA9AD81}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -12089,4 +12125,5588 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B036C69-E4F5-4E86-9559-A77D8A625C77}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>107</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10">
+        <v>113</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10">
+        <v>113</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10">
+        <v>98</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="23" t="str" cm="1">
+        <f t="array" ref="N10:O33">_xlfn.LET(
+    _xlpm.p, "A" &amp;
+        _xlfn._xlws.SORT(
+            _xlfn.REDUCE(
+                "",
+                ROW(1:4),
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+                    _xlfn.TOCOL(REPLACE(_xlpm.a, _xlfn.SEQUENCE(, _xlpm.v), , MID("BCDE", _xlpm.v, 1)))
+                )
+            )
+        ) &amp; "A",
+    _xlfn.HSTACK(
+        _xlpm.p,
+        _xlfn.BYROW(
+            _xlfn.XLOOKUP(
+                MID(_xlpm.p, {1,2,3,4,5}, 2),
+                _xlfn.TOCOL(B3:B7 &amp; C2:G2),
+                _xlfn.TOCOL(C3:G7)
+            ),
+            _xleta.SUM
+        )
+    )
+)</f>
+        <v>ABCDEA</v>
+      </c>
+      <c r="O10">
+        <v>92</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10">
+        <v>98</v>
+      </c>
+      <c r="N11" t="str">
+        <v>ABCEDA</v>
+      </c>
+      <c r="O11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="10">
+        <v>84</v>
+      </c>
+      <c r="N12" t="str">
+        <v>ABDCEA</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10">
+        <v>96</v>
+      </c>
+      <c r="N13" t="str">
+        <v>ABDECA</v>
+      </c>
+      <c r="O13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10">
+        <v>105</v>
+      </c>
+      <c r="N14" t="str">
+        <v>ABECDA</v>
+      </c>
+      <c r="O14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="J15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="N15" t="str">
+        <v>ABEDCA</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="10">
+        <v>104</v>
+      </c>
+      <c r="N16" t="str">
+        <v>ACBDEA</v>
+      </c>
+      <c r="O16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="10">
+        <v>89</v>
+      </c>
+      <c r="N17" t="str">
+        <v>ACBEDA</v>
+      </c>
+      <c r="O17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="J18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10">
+        <v>77</v>
+      </c>
+      <c r="N18" t="str">
+        <v>ACDBEA</v>
+      </c>
+      <c r="O18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="J19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10">
+        <v>103</v>
+      </c>
+      <c r="N19" t="str">
+        <v>ACDEBA</v>
+      </c>
+      <c r="O19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="10">
+        <v>85</v>
+      </c>
+      <c r="N20" t="str">
+        <v>ACEBDA</v>
+      </c>
+      <c r="O20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="J21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="10">
+        <v>79</v>
+      </c>
+      <c r="N21" t="str">
+        <v>ACEDBA</v>
+      </c>
+      <c r="O21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="J22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="10">
+        <v>109</v>
+      </c>
+      <c r="N22" t="str">
+        <v>ADBCEA</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="J23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="10">
+        <v>95</v>
+      </c>
+      <c r="N23" t="str">
+        <v>ADBECA</v>
+      </c>
+      <c r="O23">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="J24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="10">
+        <v>85</v>
+      </c>
+      <c r="N24" t="str">
+        <v>ADCBEA</v>
+      </c>
+      <c r="O24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="10">
+        <v>122</v>
+      </c>
+      <c r="N25" t="str">
+        <v>ADCEBA</v>
+      </c>
+      <c r="O25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="J26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="16">
+        <v>94</v>
+      </c>
+      <c r="N26" t="str">
+        <v>ADEBCA</v>
+      </c>
+      <c r="O26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="J27" s="17"/>
+      <c r="N27" t="str">
+        <v>ADECBA</v>
+      </c>
+      <c r="O27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="J28" s="17"/>
+      <c r="N28" t="str">
+        <v>AEBCDA</v>
+      </c>
+      <c r="O28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="J29" s="17"/>
+      <c r="N29" t="str">
+        <v>AEBDCA</v>
+      </c>
+      <c r="O29">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="J30" s="17"/>
+      <c r="N30" t="str">
+        <v>AECBDA</v>
+      </c>
+      <c r="O30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="J31" s="17"/>
+      <c r="N31" t="str">
+        <v>AECDBA</v>
+      </c>
+      <c r="O31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="J32" s="17"/>
+      <c r="N32" t="str">
+        <v>AEDBCA</v>
+      </c>
+      <c r="O32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="J33" s="17"/>
+      <c r="N33" t="str">
+        <v>AEDCBA</v>
+      </c>
+      <c r="O33">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="J79" s="17"/>
+    </row>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="J80" s="17"/>
+    </row>
+    <row r="81" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="J103" s="17"/>
+    </row>
+    <row r="104" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="J146" s="17"/>
+    </row>
+    <row r="147" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="J148" s="17"/>
+    </row>
+    <row r="149" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="J151" s="17"/>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="J152" s="17"/>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="J154" s="17"/>
+    </row>
+    <row r="155" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="J155" s="17"/>
+    </row>
+    <row r="156" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="J157" s="17"/>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="J158" s="17"/>
+    </row>
+    <row r="159" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="J159" s="17"/>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="J160" s="17"/>
+    </row>
+    <row r="161" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="J161" s="17"/>
+    </row>
+    <row r="162" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="J162" s="17"/>
+    </row>
+    <row r="163" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="J163" s="17"/>
+    </row>
+    <row r="164" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="J165" s="17"/>
+    </row>
+    <row r="166" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="J167" s="17"/>
+    </row>
+    <row r="168" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="J168" s="17"/>
+    </row>
+    <row r="169" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="J170" s="17"/>
+    </row>
+    <row r="171" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="J171" s="17"/>
+    </row>
+    <row r="172" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="J172" s="17"/>
+    </row>
+    <row r="173" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="J173" s="17"/>
+    </row>
+    <row r="174" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="J174" s="17"/>
+    </row>
+    <row r="175" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="J175" s="17"/>
+    </row>
+    <row r="176" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="J176" s="17"/>
+    </row>
+    <row r="177" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="J178" s="17"/>
+    </row>
+    <row r="179" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="J179" s="17"/>
+    </row>
+    <row r="180" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="J180" s="17"/>
+    </row>
+    <row r="181" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="J181" s="17"/>
+    </row>
+    <row r="182" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="J182" s="17"/>
+    </row>
+    <row r="183" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="J184" s="17"/>
+    </row>
+    <row r="185" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="J188" s="17"/>
+    </row>
+    <row r="189" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="J189" s="17"/>
+    </row>
+    <row r="190" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="J190" s="17"/>
+    </row>
+    <row r="191" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="J191" s="17"/>
+    </row>
+    <row r="192" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="J192" s="17"/>
+    </row>
+    <row r="193" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="J193" s="17"/>
+    </row>
+    <row r="194" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="J194" s="17"/>
+    </row>
+    <row r="195" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="J195" s="17"/>
+    </row>
+    <row r="196" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="J196" s="17"/>
+    </row>
+    <row r="197" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="J198" s="17"/>
+    </row>
+    <row r="199" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="J199" s="17"/>
+    </row>
+    <row r="200" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="J200" s="17"/>
+    </row>
+    <row r="201" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="J201" s="17"/>
+    </row>
+    <row r="202" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="J202" s="17"/>
+    </row>
+    <row r="203" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="J203" s="17"/>
+    </row>
+    <row r="204" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="J204" s="17"/>
+    </row>
+    <row r="205" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="J205" s="17"/>
+    </row>
+    <row r="206" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="J206" s="17"/>
+    </row>
+    <row r="207" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="J207" s="17"/>
+    </row>
+    <row r="208" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="J208" s="17"/>
+    </row>
+    <row r="209" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="J209" s="17"/>
+    </row>
+    <row r="210" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="J210" s="17"/>
+    </row>
+    <row r="211" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="J211" s="17"/>
+    </row>
+    <row r="212" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="J212" s="17"/>
+    </row>
+    <row r="213" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="J213" s="17"/>
+    </row>
+    <row r="214" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="J214" s="17"/>
+    </row>
+    <row r="215" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="J215" s="17"/>
+    </row>
+    <row r="216" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="J216" s="17"/>
+    </row>
+    <row r="217" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="J217" s="17"/>
+    </row>
+    <row r="218" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="J218" s="17"/>
+    </row>
+    <row r="219" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="J219" s="17"/>
+    </row>
+    <row r="220" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="J220" s="17"/>
+    </row>
+    <row r="221" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="J222" s="17"/>
+    </row>
+    <row r="223" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="J223" s="17"/>
+    </row>
+    <row r="224" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="J224" s="17"/>
+    </row>
+    <row r="225" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="J225" s="17"/>
+    </row>
+    <row r="226" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="J226" s="17"/>
+    </row>
+    <row r="227" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="J227" s="17"/>
+    </row>
+    <row r="228" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="J228" s="17"/>
+    </row>
+    <row r="229" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="J229" s="17"/>
+    </row>
+    <row r="230" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="J230" s="17"/>
+    </row>
+    <row r="231" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="J231" s="17"/>
+    </row>
+    <row r="232" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="J232" s="17"/>
+    </row>
+    <row r="233" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="J233" s="17"/>
+    </row>
+    <row r="234" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="J234" s="17"/>
+    </row>
+    <row r="235" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="J235" s="17"/>
+    </row>
+    <row r="236" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="J236" s="17"/>
+    </row>
+    <row r="237" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="J237" s="17"/>
+    </row>
+    <row r="238" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="J238" s="17"/>
+    </row>
+    <row r="239" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="J239" s="17"/>
+    </row>
+    <row r="240" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="J240" s="17"/>
+    </row>
+    <row r="241" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="J241" s="17"/>
+    </row>
+    <row r="242" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="J242" s="17"/>
+    </row>
+    <row r="243" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="J243" s="17"/>
+    </row>
+    <row r="244" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="J244" s="17"/>
+    </row>
+    <row r="245" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="J245" s="17"/>
+    </row>
+    <row r="246" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="J246" s="17"/>
+    </row>
+    <row r="247" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="J247" s="17"/>
+    </row>
+    <row r="248" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="J248" s="17"/>
+    </row>
+    <row r="249" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="J249" s="17"/>
+    </row>
+    <row r="250" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="J250" s="17"/>
+    </row>
+    <row r="251" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="J251" s="17"/>
+    </row>
+    <row r="252" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="J252" s="17"/>
+    </row>
+    <row r="253" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="J253" s="17"/>
+    </row>
+    <row r="254" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="J254" s="17"/>
+    </row>
+    <row r="255" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="J255" s="17"/>
+    </row>
+    <row r="256" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="J256" s="17"/>
+    </row>
+    <row r="257" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="J257" s="17"/>
+    </row>
+    <row r="258" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="J258" s="17"/>
+    </row>
+    <row r="259" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="J259" s="17"/>
+    </row>
+    <row r="260" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="J260" s="17"/>
+    </row>
+    <row r="261" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="J261" s="17"/>
+    </row>
+    <row r="262" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="J262" s="17"/>
+    </row>
+    <row r="263" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="J263" s="17"/>
+    </row>
+    <row r="264" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="J264" s="17"/>
+    </row>
+    <row r="265" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="J265" s="17"/>
+    </row>
+    <row r="266" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="J266" s="17"/>
+    </row>
+    <row r="267" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="J267" s="17"/>
+    </row>
+    <row r="268" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="J268" s="17"/>
+    </row>
+    <row r="269" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="J269" s="17"/>
+    </row>
+    <row r="270" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="J270" s="17"/>
+    </row>
+    <row r="271" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="J271" s="17"/>
+    </row>
+    <row r="272" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="J272" s="17"/>
+    </row>
+    <row r="273" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="J273" s="17"/>
+    </row>
+    <row r="274" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="J274" s="17"/>
+    </row>
+    <row r="275" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="J275" s="17"/>
+    </row>
+    <row r="276" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="J276" s="17"/>
+    </row>
+    <row r="277" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="J277" s="17"/>
+    </row>
+    <row r="278" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="J278" s="17"/>
+    </row>
+    <row r="279" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="J279" s="17"/>
+    </row>
+    <row r="280" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="J280" s="17"/>
+    </row>
+    <row r="281" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="J281" s="17"/>
+    </row>
+    <row r="282" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="J282" s="17"/>
+    </row>
+    <row r="283" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="J283" s="17"/>
+    </row>
+    <row r="284" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="J284" s="17"/>
+    </row>
+    <row r="285" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="J285" s="17"/>
+    </row>
+    <row r="286" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="J286" s="17"/>
+    </row>
+    <row r="287" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="J287" s="17"/>
+    </row>
+    <row r="288" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="J288" s="17"/>
+    </row>
+    <row r="289" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="J289" s="17"/>
+    </row>
+    <row r="290" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="J290" s="17"/>
+    </row>
+    <row r="291" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="J291" s="17"/>
+    </row>
+    <row r="292" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="J292" s="17"/>
+    </row>
+    <row r="293" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="J293" s="17"/>
+    </row>
+    <row r="294" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="J294" s="17"/>
+    </row>
+    <row r="295" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="J295" s="17"/>
+    </row>
+    <row r="296" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="J296" s="17"/>
+    </row>
+    <row r="297" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="J297" s="17"/>
+    </row>
+    <row r="298" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="J298" s="17"/>
+    </row>
+    <row r="299" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="J299" s="17"/>
+    </row>
+    <row r="300" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="J300" s="17"/>
+    </row>
+    <row r="301" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="J301" s="17"/>
+    </row>
+    <row r="302" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="J302" s="17"/>
+    </row>
+    <row r="303" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="J303" s="17"/>
+    </row>
+    <row r="304" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="J304" s="17"/>
+    </row>
+    <row r="305" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="J305" s="17"/>
+    </row>
+    <row r="306" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="J306" s="17"/>
+    </row>
+    <row r="307" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="J307" s="17"/>
+    </row>
+    <row r="308" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="J308" s="17"/>
+    </row>
+    <row r="309" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="J309" s="17"/>
+    </row>
+    <row r="310" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="J310" s="17"/>
+    </row>
+    <row r="311" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="J311" s="17"/>
+    </row>
+    <row r="312" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="J312" s="17"/>
+    </row>
+    <row r="313" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="J313" s="17"/>
+    </row>
+    <row r="314" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="J314" s="17"/>
+    </row>
+    <row r="315" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="J315" s="17"/>
+    </row>
+    <row r="316" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="J316" s="17"/>
+    </row>
+    <row r="317" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="J317" s="17"/>
+    </row>
+    <row r="318" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="J318" s="17"/>
+    </row>
+    <row r="319" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="J319" s="17"/>
+    </row>
+    <row r="320" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="J320" s="17"/>
+    </row>
+    <row r="321" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="J321" s="17"/>
+    </row>
+    <row r="322" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="J322" s="17"/>
+    </row>
+    <row r="323" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="J323" s="17"/>
+    </row>
+    <row r="324" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="J324" s="17"/>
+    </row>
+    <row r="325" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="J325" s="17"/>
+    </row>
+    <row r="326" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="J326" s="17"/>
+    </row>
+    <row r="327" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="J327" s="17"/>
+    </row>
+    <row r="328" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="J328" s="17"/>
+    </row>
+    <row r="329" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="J329" s="17"/>
+    </row>
+    <row r="330" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="J330" s="17"/>
+    </row>
+    <row r="331" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="J331" s="17"/>
+    </row>
+    <row r="332" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="J332" s="17"/>
+    </row>
+    <row r="333" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="J333" s="17"/>
+    </row>
+    <row r="334" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="J334" s="17"/>
+    </row>
+    <row r="335" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="J335" s="17"/>
+    </row>
+    <row r="336" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="J336" s="17"/>
+    </row>
+    <row r="337" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="J337" s="17"/>
+    </row>
+    <row r="338" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="J338" s="17"/>
+    </row>
+    <row r="339" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="J339" s="17"/>
+    </row>
+    <row r="340" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="J340" s="17"/>
+    </row>
+    <row r="341" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="J341" s="17"/>
+    </row>
+    <row r="342" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="J342" s="17"/>
+    </row>
+    <row r="343" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="J343" s="17"/>
+    </row>
+    <row r="344" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="J344" s="17"/>
+    </row>
+    <row r="345" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="J345" s="17"/>
+    </row>
+    <row r="346" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="J346" s="17"/>
+    </row>
+    <row r="347" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
+      <c r="J347" s="17"/>
+    </row>
+    <row r="348" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="J348" s="17"/>
+    </row>
+    <row r="349" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="J349" s="17"/>
+    </row>
+    <row r="350" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
+      <c r="J350" s="17"/>
+    </row>
+    <row r="351" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="J351" s="17"/>
+    </row>
+    <row r="352" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="J352" s="17"/>
+    </row>
+    <row r="353" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="J353" s="17"/>
+    </row>
+    <row r="354" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="J354" s="17"/>
+    </row>
+    <row r="355" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
+      <c r="J355" s="17"/>
+    </row>
+    <row r="356" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="J356" s="17"/>
+    </row>
+    <row r="357" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="J357" s="17"/>
+    </row>
+    <row r="358" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="J358" s="17"/>
+    </row>
+    <row r="359" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="J359" s="17"/>
+    </row>
+    <row r="360" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="J360" s="17"/>
+    </row>
+    <row r="361" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="J361" s="17"/>
+    </row>
+    <row r="362" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
+      <c r="J362" s="17"/>
+    </row>
+    <row r="363" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="J363" s="17"/>
+    </row>
+    <row r="364" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="J364" s="17"/>
+    </row>
+    <row r="365" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
+      <c r="J365" s="17"/>
+    </row>
+    <row r="366" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="J366" s="17"/>
+    </row>
+    <row r="367" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
+      <c r="J367" s="17"/>
+    </row>
+    <row r="368" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="J368" s="17"/>
+    </row>
+    <row r="369" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="J369" s="17"/>
+    </row>
+    <row r="370" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="J370" s="17"/>
+    </row>
+    <row r="371" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
+      <c r="J371" s="17"/>
+    </row>
+    <row r="372" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
+      <c r="J372" s="17"/>
+    </row>
+    <row r="373" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
+      <c r="J373" s="17"/>
+    </row>
+    <row r="374" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
+      <c r="J374" s="17"/>
+    </row>
+    <row r="375" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="J375" s="17"/>
+    </row>
+    <row r="376" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="J376" s="17"/>
+    </row>
+    <row r="377" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
+      <c r="J377" s="17"/>
+    </row>
+    <row r="378" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
+      <c r="J378" s="17"/>
+    </row>
+    <row r="379" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
+      <c r="J379" s="17"/>
+    </row>
+    <row r="380" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="J380" s="17"/>
+    </row>
+    <row r="381" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="J381" s="17"/>
+    </row>
+    <row r="382" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="J382" s="17"/>
+    </row>
+    <row r="383" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="J383" s="17"/>
+    </row>
+    <row r="384" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
+      <c r="J384" s="17"/>
+    </row>
+    <row r="385" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="J385" s="17"/>
+    </row>
+    <row r="386" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="14"/>
+      <c r="C386" s="14"/>
+      <c r="J386" s="17"/>
+    </row>
+    <row r="387" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
+      <c r="J387" s="17"/>
+    </row>
+    <row r="388" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="14"/>
+      <c r="C388" s="14"/>
+      <c r="J388" s="17"/>
+    </row>
+    <row r="389" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
+      <c r="J389" s="17"/>
+    </row>
+    <row r="390" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
+      <c r="J390" s="17"/>
+    </row>
+    <row r="391" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
+      <c r="J391" s="17"/>
+    </row>
+    <row r="392" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
+      <c r="J392" s="17"/>
+    </row>
+    <row r="393" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
+      <c r="J393" s="17"/>
+    </row>
+    <row r="394" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+      <c r="J394" s="17"/>
+    </row>
+    <row r="395" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
+      <c r="J395" s="17"/>
+    </row>
+    <row r="396" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
+      <c r="J396" s="17"/>
+    </row>
+    <row r="397" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="14"/>
+      <c r="C397" s="14"/>
+      <c r="J397" s="17"/>
+    </row>
+    <row r="398" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
+      <c r="J398" s="17"/>
+    </row>
+    <row r="399" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
+      <c r="J399" s="17"/>
+    </row>
+    <row r="400" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="14"/>
+      <c r="C400" s="14"/>
+      <c r="J400" s="17"/>
+    </row>
+    <row r="401" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
+      <c r="J401" s="17"/>
+    </row>
+    <row r="402" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="14"/>
+      <c r="C402" s="14"/>
+      <c r="J402" s="17"/>
+    </row>
+    <row r="403" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
+      <c r="J403" s="17"/>
+    </row>
+    <row r="404" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
+      <c r="J404" s="17"/>
+    </row>
+    <row r="405" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
+      <c r="J405" s="17"/>
+    </row>
+    <row r="406" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
+      <c r="J406" s="17"/>
+    </row>
+    <row r="407" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
+      <c r="J407" s="17"/>
+    </row>
+    <row r="408" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
+      <c r="J408" s="17"/>
+    </row>
+    <row r="409" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="14"/>
+      <c r="C409" s="14"/>
+      <c r="J409" s="17"/>
+    </row>
+    <row r="410" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="14"/>
+      <c r="C410" s="14"/>
+      <c r="J410" s="17"/>
+    </row>
+    <row r="411" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
+      <c r="J411" s="17"/>
+    </row>
+    <row r="412" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="14"/>
+      <c r="C412" s="14"/>
+      <c r="J412" s="17"/>
+    </row>
+    <row r="413" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
+      <c r="J413" s="17"/>
+    </row>
+    <row r="414" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="14"/>
+      <c r="C414" s="14"/>
+      <c r="J414" s="17"/>
+    </row>
+    <row r="415" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+      <c r="J415" s="17"/>
+    </row>
+    <row r="416" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
+      <c r="J416" s="17"/>
+    </row>
+    <row r="417" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="14"/>
+      <c r="C417" s="14"/>
+      <c r="J417" s="17"/>
+    </row>
+    <row r="418" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
+      <c r="J418" s="17"/>
+    </row>
+    <row r="419" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="14"/>
+      <c r="C419" s="14"/>
+      <c r="J419" s="17"/>
+    </row>
+    <row r="420" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="14"/>
+      <c r="C420" s="14"/>
+      <c r="J420" s="17"/>
+    </row>
+    <row r="421" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="14"/>
+      <c r="C421" s="14"/>
+      <c r="J421" s="17"/>
+    </row>
+    <row r="422" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
+      <c r="J422" s="17"/>
+    </row>
+    <row r="423" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="J423" s="17"/>
+    </row>
+    <row r="424" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="14"/>
+      <c r="C424" s="14"/>
+      <c r="J424" s="17"/>
+    </row>
+    <row r="425" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="14"/>
+      <c r="C425" s="14"/>
+      <c r="J425" s="17"/>
+    </row>
+    <row r="426" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
+      <c r="J426" s="17"/>
+    </row>
+    <row r="427" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
+      <c r="J427" s="17"/>
+    </row>
+    <row r="428" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
+      <c r="J428" s="17"/>
+    </row>
+    <row r="429" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
+      <c r="J429" s="17"/>
+    </row>
+    <row r="430" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="14"/>
+      <c r="C430" s="14"/>
+      <c r="J430" s="17"/>
+    </row>
+    <row r="431" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="14"/>
+      <c r="C431" s="14"/>
+      <c r="J431" s="17"/>
+    </row>
+    <row r="432" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="J432" s="17"/>
+    </row>
+    <row r="433" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="J433" s="17"/>
+    </row>
+    <row r="434" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="J434" s="17"/>
+    </row>
+    <row r="435" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="J435" s="17"/>
+    </row>
+    <row r="436" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="J436" s="17"/>
+    </row>
+    <row r="437" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
+      <c r="J437" s="17"/>
+    </row>
+    <row r="438" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
+      <c r="J438" s="17"/>
+    </row>
+    <row r="439" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="14"/>
+      <c r="C439" s="14"/>
+      <c r="J439" s="17"/>
+    </row>
+    <row r="440" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="J440" s="17"/>
+    </row>
+    <row r="441" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
+      <c r="J441" s="17"/>
+    </row>
+    <row r="442" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="J442" s="17"/>
+    </row>
+    <row r="443" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="J443" s="17"/>
+    </row>
+    <row r="444" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
+      <c r="J444" s="17"/>
+    </row>
+    <row r="445" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="J445" s="17"/>
+    </row>
+    <row r="446" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="J446" s="17"/>
+    </row>
+    <row r="447" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="J447" s="17"/>
+    </row>
+    <row r="448" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="J448" s="17"/>
+    </row>
+    <row r="449" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="J449" s="17"/>
+    </row>
+    <row r="450" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="J450" s="17"/>
+    </row>
+    <row r="451" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="J451" s="17"/>
+    </row>
+    <row r="452" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="J452" s="17"/>
+    </row>
+    <row r="453" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="J453" s="17"/>
+    </row>
+    <row r="454" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="J454" s="17"/>
+    </row>
+    <row r="455" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="J455" s="17"/>
+    </row>
+    <row r="456" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
+      <c r="J456" s="17"/>
+    </row>
+    <row r="457" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="J457" s="17"/>
+    </row>
+    <row r="458" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="J458" s="17"/>
+    </row>
+    <row r="459" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="J459" s="17"/>
+    </row>
+    <row r="460" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
+      <c r="J460" s="17"/>
+    </row>
+    <row r="461" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="J461" s="17"/>
+    </row>
+    <row r="462" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="J462" s="17"/>
+    </row>
+    <row r="463" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="J463" s="17"/>
+    </row>
+    <row r="464" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
+      <c r="J464" s="17"/>
+    </row>
+    <row r="465" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="J465" s="17"/>
+    </row>
+    <row r="466" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="J466" s="17"/>
+    </row>
+    <row r="467" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="J467" s="17"/>
+    </row>
+    <row r="468" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="J468" s="17"/>
+    </row>
+    <row r="469" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="J469" s="17"/>
+    </row>
+    <row r="470" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
+      <c r="J470" s="17"/>
+    </row>
+    <row r="471" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="J471" s="17"/>
+    </row>
+    <row r="472" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
+      <c r="J472" s="17"/>
+    </row>
+    <row r="473" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
+      <c r="J473" s="17"/>
+    </row>
+    <row r="474" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
+      <c r="J474" s="17"/>
+    </row>
+    <row r="475" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
+      <c r="J475" s="17"/>
+    </row>
+    <row r="476" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="J476" s="17"/>
+    </row>
+    <row r="477" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
+      <c r="J477" s="17"/>
+    </row>
+    <row r="478" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
+      <c r="J478" s="17"/>
+    </row>
+    <row r="479" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
+      <c r="J479" s="17"/>
+    </row>
+    <row r="480" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
+      <c r="J480" s="17"/>
+    </row>
+    <row r="481" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
+      <c r="J481" s="17"/>
+    </row>
+    <row r="482" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="14"/>
+      <c r="C482" s="14"/>
+      <c r="J482" s="17"/>
+    </row>
+    <row r="483" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
+      <c r="J483" s="17"/>
+    </row>
+    <row r="484" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
+      <c r="J484" s="17"/>
+    </row>
+    <row r="485" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="14"/>
+      <c r="C485" s="14"/>
+      <c r="J485" s="17"/>
+    </row>
+    <row r="486" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="14"/>
+      <c r="C486" s="14"/>
+      <c r="J486" s="17"/>
+    </row>
+    <row r="487" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="14"/>
+      <c r="C487" s="14"/>
+      <c r="J487" s="17"/>
+    </row>
+    <row r="488" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="14"/>
+      <c r="C488" s="14"/>
+      <c r="J488" s="17"/>
+    </row>
+    <row r="489" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="14"/>
+      <c r="C489" s="14"/>
+      <c r="J489" s="17"/>
+    </row>
+    <row r="490" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="J490" s="17"/>
+    </row>
+    <row r="491" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="14"/>
+      <c r="C491" s="14"/>
+      <c r="J491" s="17"/>
+    </row>
+    <row r="492" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="J492" s="17"/>
+    </row>
+    <row r="493" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="14"/>
+      <c r="C493" s="14"/>
+      <c r="J493" s="17"/>
+    </row>
+    <row r="494" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="14"/>
+      <c r="C494" s="14"/>
+      <c r="J494" s="17"/>
+    </row>
+    <row r="495" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="J495" s="17"/>
+    </row>
+    <row r="496" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="14"/>
+      <c r="C496" s="14"/>
+      <c r="J496" s="17"/>
+    </row>
+    <row r="497" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="14"/>
+      <c r="C497" s="14"/>
+      <c r="J497" s="17"/>
+    </row>
+    <row r="498" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="J498" s="17"/>
+    </row>
+    <row r="499" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="14"/>
+      <c r="C499" s="14"/>
+      <c r="J499" s="17"/>
+    </row>
+    <row r="500" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="14"/>
+      <c r="C500" s="14"/>
+      <c r="J500" s="17"/>
+    </row>
+    <row r="501" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="14"/>
+      <c r="C501" s="14"/>
+      <c r="J501" s="17"/>
+    </row>
+    <row r="502" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="J502" s="17"/>
+    </row>
+    <row r="503" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="14"/>
+      <c r="C503" s="14"/>
+      <c r="J503" s="17"/>
+    </row>
+    <row r="504" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="14"/>
+      <c r="C504" s="14"/>
+      <c r="J504" s="17"/>
+    </row>
+    <row r="505" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="14"/>
+      <c r="C505" s="14"/>
+      <c r="J505" s="17"/>
+    </row>
+    <row r="506" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="14"/>
+      <c r="C506" s="14"/>
+      <c r="J506" s="17"/>
+    </row>
+    <row r="507" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="14"/>
+      <c r="C507" s="14"/>
+      <c r="J507" s="17"/>
+    </row>
+    <row r="508" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="14"/>
+      <c r="C508" s="14"/>
+      <c r="J508" s="17"/>
+    </row>
+    <row r="509" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="14"/>
+      <c r="C509" s="14"/>
+      <c r="J509" s="17"/>
+    </row>
+    <row r="510" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="J510" s="17"/>
+    </row>
+    <row r="511" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="14"/>
+      <c r="C511" s="14"/>
+      <c r="J511" s="17"/>
+    </row>
+    <row r="512" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="14"/>
+      <c r="C512" s="14"/>
+      <c r="J512" s="17"/>
+    </row>
+    <row r="513" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="14"/>
+      <c r="C513" s="14"/>
+      <c r="J513" s="17"/>
+    </row>
+    <row r="514" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="14"/>
+      <c r="C514" s="14"/>
+      <c r="J514" s="17"/>
+    </row>
+    <row r="515" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="J515" s="17"/>
+    </row>
+    <row r="516" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="14"/>
+      <c r="C516" s="14"/>
+      <c r="J516" s="17"/>
+    </row>
+    <row r="517" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="14"/>
+      <c r="C517" s="14"/>
+      <c r="J517" s="17"/>
+    </row>
+    <row r="518" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="J518" s="17"/>
+    </row>
+    <row r="519" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="14"/>
+      <c r="C519" s="14"/>
+      <c r="J519" s="17"/>
+    </row>
+    <row r="520" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="14"/>
+      <c r="C520" s="14"/>
+      <c r="J520" s="17"/>
+    </row>
+    <row r="521" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="J521" s="17"/>
+    </row>
+    <row r="522" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="14"/>
+      <c r="C522" s="14"/>
+      <c r="J522" s="17"/>
+    </row>
+    <row r="523" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="14"/>
+      <c r="C523" s="14"/>
+      <c r="J523" s="17"/>
+    </row>
+    <row r="524" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="14"/>
+      <c r="C524" s="14"/>
+      <c r="J524" s="17"/>
+    </row>
+    <row r="525" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="14"/>
+      <c r="C525" s="14"/>
+      <c r="J525" s="17"/>
+    </row>
+    <row r="526" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="14"/>
+      <c r="C526" s="14"/>
+      <c r="J526" s="17"/>
+    </row>
+    <row r="527" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="14"/>
+      <c r="C527" s="14"/>
+      <c r="J527" s="17"/>
+    </row>
+    <row r="528" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="14"/>
+      <c r="C528" s="14"/>
+      <c r="J528" s="17"/>
+    </row>
+    <row r="529" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="14"/>
+      <c r="C529" s="14"/>
+      <c r="J529" s="17"/>
+    </row>
+    <row r="530" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="14"/>
+      <c r="C530" s="14"/>
+      <c r="J530" s="17"/>
+    </row>
+    <row r="531" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="14"/>
+      <c r="C531" s="14"/>
+      <c r="J531" s="17"/>
+    </row>
+    <row r="532" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="J532" s="17"/>
+    </row>
+    <row r="533" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+      <c r="J533" s="17"/>
+    </row>
+    <row r="534" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+      <c r="J534" s="17"/>
+    </row>
+    <row r="535" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+      <c r="J535" s="17"/>
+    </row>
+    <row r="536" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="14"/>
+      <c r="C536" s="14"/>
+      <c r="J536" s="17"/>
+    </row>
+    <row r="537" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="14"/>
+      <c r="C537" s="14"/>
+      <c r="J537" s="17"/>
+    </row>
+    <row r="538" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
+      <c r="J538" s="17"/>
+    </row>
+    <row r="539" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="14"/>
+      <c r="C539" s="14"/>
+      <c r="J539" s="17"/>
+    </row>
+    <row r="540" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="14"/>
+      <c r="C540" s="14"/>
+      <c r="J540" s="17"/>
+    </row>
+    <row r="541" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="14"/>
+      <c r="C541" s="14"/>
+      <c r="J541" s="17"/>
+    </row>
+    <row r="542" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="J542" s="17"/>
+    </row>
+    <row r="543" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="J543" s="17"/>
+    </row>
+    <row r="544" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="14"/>
+      <c r="C544" s="14"/>
+      <c r="J544" s="17"/>
+    </row>
+    <row r="545" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="J545" s="17"/>
+    </row>
+    <row r="546" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="14"/>
+      <c r="C546" s="14"/>
+      <c r="J546" s="17"/>
+    </row>
+    <row r="547" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="J547" s="17"/>
+    </row>
+    <row r="548" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="14"/>
+      <c r="C548" s="14"/>
+      <c r="J548" s="17"/>
+    </row>
+    <row r="549" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="J549" s="17"/>
+    </row>
+    <row r="550" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="14"/>
+      <c r="C550" s="14"/>
+      <c r="J550" s="17"/>
+    </row>
+    <row r="551" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="J551" s="17"/>
+    </row>
+    <row r="552" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
+      <c r="J552" s="17"/>
+    </row>
+    <row r="553" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="14"/>
+      <c r="C553" s="14"/>
+      <c r="J553" s="17"/>
+    </row>
+    <row r="554" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="J554" s="17"/>
+    </row>
+    <row r="555" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="14"/>
+      <c r="C555" s="14"/>
+      <c r="J555" s="17"/>
+    </row>
+    <row r="556" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="J556" s="17"/>
+    </row>
+    <row r="557" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="J557" s="17"/>
+    </row>
+    <row r="558" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="14"/>
+      <c r="C558" s="14"/>
+      <c r="J558" s="17"/>
+    </row>
+    <row r="559" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="14"/>
+      <c r="C559" s="14"/>
+      <c r="J559" s="17"/>
+    </row>
+    <row r="560" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="14"/>
+      <c r="C560" s="14"/>
+      <c r="J560" s="17"/>
+    </row>
+    <row r="561" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="J561" s="17"/>
+    </row>
+    <row r="562" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="14"/>
+      <c r="C562" s="14"/>
+      <c r="J562" s="17"/>
+    </row>
+    <row r="563" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="14"/>
+      <c r="C563" s="14"/>
+      <c r="J563" s="17"/>
+    </row>
+    <row r="564" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="14"/>
+      <c r="C564" s="14"/>
+      <c r="J564" s="17"/>
+    </row>
+    <row r="565" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="14"/>
+      <c r="C565" s="14"/>
+      <c r="J565" s="17"/>
+    </row>
+    <row r="566" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="14"/>
+      <c r="C566" s="14"/>
+      <c r="J566" s="17"/>
+    </row>
+    <row r="567" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="14"/>
+      <c r="C567" s="14"/>
+      <c r="J567" s="17"/>
+    </row>
+    <row r="568" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="14"/>
+      <c r="C568" s="14"/>
+      <c r="J568" s="17"/>
+    </row>
+    <row r="569" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="14"/>
+      <c r="C569" s="14"/>
+      <c r="J569" s="17"/>
+    </row>
+    <row r="570" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="14"/>
+      <c r="C570" s="14"/>
+      <c r="J570" s="17"/>
+    </row>
+    <row r="571" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="J571" s="17"/>
+    </row>
+    <row r="572" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="14"/>
+      <c r="C572" s="14"/>
+      <c r="J572" s="17"/>
+    </row>
+    <row r="573" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="14"/>
+      <c r="C573" s="14"/>
+      <c r="J573" s="17"/>
+    </row>
+    <row r="574" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="14"/>
+      <c r="C574" s="14"/>
+      <c r="J574" s="17"/>
+    </row>
+    <row r="575" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="14"/>
+      <c r="C575" s="14"/>
+      <c r="J575" s="17"/>
+    </row>
+    <row r="576" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="J576" s="17"/>
+    </row>
+    <row r="577" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="14"/>
+      <c r="C577" s="14"/>
+      <c r="J577" s="17"/>
+    </row>
+    <row r="578" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="14"/>
+      <c r="C578" s="14"/>
+      <c r="J578" s="17"/>
+    </row>
+    <row r="579" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="J579" s="17"/>
+    </row>
+    <row r="580" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="14"/>
+      <c r="C580" s="14"/>
+      <c r="J580" s="17"/>
+    </row>
+    <row r="581" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="14"/>
+      <c r="C581" s="14"/>
+      <c r="J581" s="17"/>
+    </row>
+    <row r="582" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="14"/>
+      <c r="C582" s="14"/>
+      <c r="J582" s="17"/>
+    </row>
+    <row r="583" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+      <c r="J583" s="17"/>
+    </row>
+    <row r="584" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="14"/>
+      <c r="C584" s="14"/>
+      <c r="J584" s="17"/>
+    </row>
+    <row r="585" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="14"/>
+      <c r="C585" s="14"/>
+      <c r="J585" s="17"/>
+    </row>
+    <row r="586" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="14"/>
+      <c r="C586" s="14"/>
+      <c r="J586" s="17"/>
+    </row>
+    <row r="587" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="14"/>
+      <c r="C587" s="14"/>
+      <c r="J587" s="17"/>
+    </row>
+    <row r="588" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="14"/>
+      <c r="C588" s="14"/>
+      <c r="J588" s="17"/>
+    </row>
+    <row r="589" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="14"/>
+      <c r="C589" s="14"/>
+      <c r="J589" s="17"/>
+    </row>
+    <row r="590" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="14"/>
+      <c r="C590" s="14"/>
+      <c r="J590" s="17"/>
+    </row>
+    <row r="591" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="14"/>
+      <c r="C591" s="14"/>
+      <c r="J591" s="17"/>
+    </row>
+    <row r="592" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="14"/>
+      <c r="C592" s="14"/>
+      <c r="J592" s="17"/>
+    </row>
+    <row r="593" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="14"/>
+      <c r="C593" s="14"/>
+      <c r="J593" s="17"/>
+    </row>
+    <row r="594" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="J594" s="17"/>
+    </row>
+    <row r="595" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="14"/>
+      <c r="C595" s="14"/>
+      <c r="J595" s="17"/>
+    </row>
+    <row r="596" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="14"/>
+      <c r="C596" s="14"/>
+      <c r="J596" s="17"/>
+    </row>
+    <row r="597" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="14"/>
+      <c r="C597" s="14"/>
+      <c r="J597" s="17"/>
+    </row>
+    <row r="598" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="14"/>
+      <c r="C598" s="14"/>
+      <c r="J598" s="17"/>
+    </row>
+    <row r="599" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="14"/>
+      <c r="C599" s="14"/>
+      <c r="J599" s="17"/>
+    </row>
+    <row r="600" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="14"/>
+      <c r="C600" s="14"/>
+      <c r="J600" s="17"/>
+    </row>
+    <row r="601" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="14"/>
+      <c r="C601" s="14"/>
+      <c r="J601" s="17"/>
+    </row>
+    <row r="602" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="J602" s="17"/>
+    </row>
+    <row r="603" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="J603" s="17"/>
+    </row>
+    <row r="604" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="14"/>
+      <c r="C604" s="14"/>
+      <c r="J604" s="17"/>
+    </row>
+    <row r="605" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="14"/>
+      <c r="C605" s="14"/>
+      <c r="J605" s="17"/>
+    </row>
+    <row r="606" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="J606" s="17"/>
+    </row>
+    <row r="607" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="14"/>
+      <c r="C607" s="14"/>
+      <c r="J607" s="17"/>
+    </row>
+    <row r="608" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="14"/>
+      <c r="C608" s="14"/>
+      <c r="J608" s="17"/>
+    </row>
+    <row r="609" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="14"/>
+      <c r="C609" s="14"/>
+      <c r="J609" s="17"/>
+    </row>
+    <row r="610" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="14"/>
+      <c r="C610" s="14"/>
+      <c r="J610" s="17"/>
+    </row>
+    <row r="611" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="14"/>
+      <c r="C611" s="14"/>
+      <c r="J611" s="17"/>
+    </row>
+    <row r="612" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="14"/>
+      <c r="C612" s="14"/>
+      <c r="J612" s="17"/>
+    </row>
+    <row r="613" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="14"/>
+      <c r="C613" s="14"/>
+      <c r="J613" s="17"/>
+    </row>
+    <row r="614" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="14"/>
+      <c r="C614" s="14"/>
+      <c r="J614" s="17"/>
+    </row>
+    <row r="615" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="14"/>
+      <c r="C615" s="14"/>
+      <c r="J615" s="17"/>
+    </row>
+    <row r="616" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="14"/>
+      <c r="C616" s="14"/>
+      <c r="J616" s="17"/>
+    </row>
+    <row r="617" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="14"/>
+      <c r="C617" s="14"/>
+      <c r="J617" s="17"/>
+    </row>
+    <row r="618" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="14"/>
+      <c r="C618" s="14"/>
+      <c r="J618" s="17"/>
+    </row>
+    <row r="619" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="J619" s="17"/>
+    </row>
+    <row r="620" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="14"/>
+      <c r="C620" s="14"/>
+      <c r="J620" s="17"/>
+    </row>
+    <row r="621" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="J621" s="17"/>
+    </row>
+    <row r="622" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="14"/>
+      <c r="C622" s="14"/>
+      <c r="J622" s="17"/>
+    </row>
+    <row r="623" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="J623" s="17"/>
+    </row>
+    <row r="624" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="14"/>
+      <c r="C624" s="14"/>
+      <c r="J624" s="17"/>
+    </row>
+    <row r="625" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="J625" s="17"/>
+    </row>
+    <row r="626" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="14"/>
+      <c r="C626" s="14"/>
+      <c r="J626" s="17"/>
+    </row>
+    <row r="627" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="J627" s="17"/>
+    </row>
+    <row r="628" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="14"/>
+      <c r="C628" s="14"/>
+      <c r="J628" s="17"/>
+    </row>
+    <row r="629" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="14"/>
+      <c r="C629" s="14"/>
+      <c r="J629" s="17"/>
+    </row>
+    <row r="630" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="14"/>
+      <c r="C630" s="14"/>
+      <c r="J630" s="17"/>
+    </row>
+    <row r="631" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="J631" s="17"/>
+    </row>
+    <row r="632" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="14"/>
+      <c r="C632" s="14"/>
+      <c r="J632" s="17"/>
+    </row>
+    <row r="633" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="14"/>
+      <c r="C633" s="14"/>
+      <c r="J633" s="17"/>
+    </row>
+    <row r="634" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="14"/>
+      <c r="C634" s="14"/>
+      <c r="J634" s="17"/>
+    </row>
+    <row r="635" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="14"/>
+      <c r="C635" s="14"/>
+      <c r="J635" s="17"/>
+    </row>
+    <row r="636" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="14"/>
+      <c r="C636" s="14"/>
+      <c r="J636" s="17"/>
+    </row>
+    <row r="637" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="14"/>
+      <c r="C637" s="14"/>
+      <c r="J637" s="17"/>
+    </row>
+    <row r="638" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="J638" s="17"/>
+    </row>
+    <row r="639" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="14"/>
+      <c r="C639" s="14"/>
+      <c r="J639" s="17"/>
+    </row>
+    <row r="640" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="14"/>
+      <c r="C640" s="14"/>
+      <c r="J640" s="17"/>
+    </row>
+    <row r="641" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="14"/>
+      <c r="C641" s="14"/>
+      <c r="J641" s="17"/>
+    </row>
+    <row r="642" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="14"/>
+      <c r="C642" s="14"/>
+      <c r="J642" s="17"/>
+    </row>
+    <row r="643" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="14"/>
+      <c r="C643" s="14"/>
+      <c r="J643" s="17"/>
+    </row>
+    <row r="644" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="14"/>
+      <c r="C644" s="14"/>
+      <c r="J644" s="17"/>
+    </row>
+    <row r="645" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="14"/>
+      <c r="C645" s="14"/>
+      <c r="J645" s="17"/>
+    </row>
+    <row r="646" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="14"/>
+      <c r="C646" s="14"/>
+      <c r="J646" s="17"/>
+    </row>
+    <row r="647" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="J647" s="17"/>
+    </row>
+    <row r="648" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="14"/>
+      <c r="C648" s="14"/>
+      <c r="J648" s="17"/>
+    </row>
+    <row r="649" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="14"/>
+      <c r="C649" s="14"/>
+      <c r="J649" s="17"/>
+    </row>
+    <row r="650" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="14"/>
+      <c r="C650" s="14"/>
+      <c r="J650" s="17"/>
+    </row>
+    <row r="651" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="14"/>
+      <c r="C651" s="14"/>
+      <c r="J651" s="17"/>
+    </row>
+    <row r="652" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="14"/>
+      <c r="C652" s="14"/>
+      <c r="J652" s="17"/>
+    </row>
+    <row r="653" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="J653" s="17"/>
+    </row>
+    <row r="654" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="14"/>
+      <c r="C654" s="14"/>
+      <c r="J654" s="17"/>
+    </row>
+    <row r="655" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="14"/>
+      <c r="C655" s="14"/>
+      <c r="J655" s="17"/>
+    </row>
+    <row r="656" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="14"/>
+      <c r="C656" s="14"/>
+      <c r="J656" s="17"/>
+    </row>
+    <row r="657" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="14"/>
+      <c r="C657" s="14"/>
+      <c r="J657" s="17"/>
+    </row>
+    <row r="658" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="J658" s="17"/>
+    </row>
+    <row r="659" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="14"/>
+      <c r="C659" s="14"/>
+      <c r="J659" s="17"/>
+    </row>
+    <row r="660" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="14"/>
+      <c r="C660" s="14"/>
+      <c r="J660" s="17"/>
+    </row>
+    <row r="661" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="J661" s="17"/>
+    </row>
+    <row r="662" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="14"/>
+      <c r="C662" s="14"/>
+      <c r="J662" s="17"/>
+    </row>
+    <row r="663" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="J663" s="17"/>
+    </row>
+    <row r="664" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="14"/>
+      <c r="C664" s="14"/>
+      <c r="J664" s="17"/>
+    </row>
+    <row r="665" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="14"/>
+      <c r="C665" s="14"/>
+      <c r="J665" s="17"/>
+    </row>
+    <row r="666" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="J666" s="17"/>
+    </row>
+    <row r="667" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="14"/>
+      <c r="C667" s="14"/>
+      <c r="J667" s="17"/>
+    </row>
+    <row r="668" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="14"/>
+      <c r="C668" s="14"/>
+      <c r="J668" s="17"/>
+    </row>
+    <row r="669" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="J669" s="17"/>
+    </row>
+    <row r="670" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="14"/>
+      <c r="C670" s="14"/>
+      <c r="J670" s="17"/>
+    </row>
+    <row r="671" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="J671" s="17"/>
+    </row>
+    <row r="672" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="14"/>
+      <c r="C672" s="14"/>
+      <c r="J672" s="17"/>
+    </row>
+    <row r="673" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="J673" s="17"/>
+    </row>
+    <row r="674" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="14"/>
+      <c r="C674" s="14"/>
+      <c r="J674" s="17"/>
+    </row>
+    <row r="675" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="14"/>
+      <c r="C675" s="14"/>
+      <c r="J675" s="17"/>
+    </row>
+    <row r="676" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="14"/>
+      <c r="C676" s="14"/>
+      <c r="J676" s="17"/>
+    </row>
+    <row r="677" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="14"/>
+      <c r="C677" s="14"/>
+      <c r="J677" s="17"/>
+    </row>
+    <row r="678" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="J678" s="17"/>
+    </row>
+    <row r="679" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="14"/>
+      <c r="C679" s="14"/>
+      <c r="J679" s="17"/>
+    </row>
+    <row r="680" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="14"/>
+      <c r="C680" s="14"/>
+      <c r="J680" s="17"/>
+    </row>
+    <row r="681" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="14"/>
+      <c r="C681" s="14"/>
+      <c r="J681" s="17"/>
+    </row>
+    <row r="682" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="14"/>
+      <c r="C682" s="14"/>
+      <c r="J682" s="17"/>
+    </row>
+    <row r="683" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="14"/>
+      <c r="C683" s="14"/>
+      <c r="J683" s="17"/>
+    </row>
+    <row r="684" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="14"/>
+      <c r="C684" s="14"/>
+      <c r="J684" s="17"/>
+    </row>
+    <row r="685" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="14"/>
+      <c r="C685" s="14"/>
+      <c r="J685" s="17"/>
+    </row>
+    <row r="686" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="J686" s="17"/>
+    </row>
+    <row r="687" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="14"/>
+      <c r="C687" s="14"/>
+      <c r="J687" s="17"/>
+    </row>
+    <row r="688" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="14"/>
+      <c r="C688" s="14"/>
+      <c r="J688" s="17"/>
+    </row>
+    <row r="689" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="14"/>
+      <c r="C689" s="14"/>
+      <c r="J689" s="17"/>
+    </row>
+    <row r="690" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="14"/>
+      <c r="C690" s="14"/>
+      <c r="J690" s="17"/>
+    </row>
+    <row r="691" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="14"/>
+      <c r="C691" s="14"/>
+      <c r="J691" s="17"/>
+    </row>
+    <row r="692" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="14"/>
+      <c r="C692" s="14"/>
+      <c r="J692" s="17"/>
+    </row>
+    <row r="693" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="14"/>
+      <c r="C693" s="14"/>
+      <c r="J693" s="17"/>
+    </row>
+    <row r="694" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="14"/>
+      <c r="C694" s="14"/>
+      <c r="J694" s="17"/>
+    </row>
+    <row r="695" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="14"/>
+      <c r="C695" s="14"/>
+      <c r="J695" s="17"/>
+    </row>
+    <row r="696" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="14"/>
+      <c r="C696" s="14"/>
+      <c r="J696" s="17"/>
+    </row>
+    <row r="697" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="14"/>
+      <c r="C697" s="14"/>
+      <c r="J697" s="17"/>
+    </row>
+    <row r="698" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="14"/>
+      <c r="C698" s="14"/>
+      <c r="J698" s="17"/>
+    </row>
+    <row r="699" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="14"/>
+      <c r="C699" s="14"/>
+      <c r="J699" s="17"/>
+    </row>
+    <row r="700" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="14"/>
+      <c r="C700" s="14"/>
+      <c r="J700" s="17"/>
+    </row>
+    <row r="701" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="J701" s="17"/>
+    </row>
+    <row r="702" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="14"/>
+      <c r="C702" s="14"/>
+      <c r="J702" s="17"/>
+    </row>
+    <row r="703" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="14"/>
+      <c r="C703" s="14"/>
+      <c r="J703" s="17"/>
+    </row>
+    <row r="704" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="J704" s="17"/>
+    </row>
+    <row r="705" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="14"/>
+      <c r="C705" s="14"/>
+      <c r="J705" s="17"/>
+    </row>
+    <row r="706" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="14"/>
+      <c r="C706" s="14"/>
+      <c r="J706" s="17"/>
+    </row>
+    <row r="707" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="14"/>
+      <c r="C707" s="14"/>
+      <c r="J707" s="17"/>
+    </row>
+    <row r="708" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="14"/>
+      <c r="C708" s="14"/>
+      <c r="J708" s="17"/>
+    </row>
+    <row r="709" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="14"/>
+      <c r="C709" s="14"/>
+      <c r="J709" s="17"/>
+    </row>
+    <row r="710" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="14"/>
+      <c r="C710" s="14"/>
+      <c r="J710" s="17"/>
+    </row>
+    <row r="711" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="14"/>
+      <c r="C711" s="14"/>
+      <c r="J711" s="17"/>
+    </row>
+    <row r="712" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="14"/>
+      <c r="C712" s="14"/>
+      <c r="J712" s="17"/>
+    </row>
+    <row r="713" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="14"/>
+      <c r="C713" s="14"/>
+      <c r="J713" s="17"/>
+    </row>
+    <row r="714" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="14"/>
+      <c r="C714" s="14"/>
+      <c r="J714" s="17"/>
+    </row>
+    <row r="715" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="14"/>
+      <c r="C715" s="14"/>
+      <c r="J715" s="17"/>
+    </row>
+    <row r="716" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="14"/>
+      <c r="C716" s="14"/>
+      <c r="J716" s="17"/>
+    </row>
+    <row r="717" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="J717" s="17"/>
+    </row>
+    <row r="718" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="14"/>
+      <c r="C718" s="14"/>
+      <c r="J718" s="17"/>
+    </row>
+    <row r="719" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="J719" s="17"/>
+    </row>
+    <row r="720" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="14"/>
+      <c r="C720" s="14"/>
+      <c r="J720" s="17"/>
+    </row>
+    <row r="721" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="14"/>
+      <c r="C721" s="14"/>
+      <c r="J721" s="17"/>
+    </row>
+    <row r="722" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="14"/>
+      <c r="C722" s="14"/>
+      <c r="J722" s="17"/>
+    </row>
+    <row r="723" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="14"/>
+      <c r="C723" s="14"/>
+      <c r="J723" s="17"/>
+    </row>
+    <row r="724" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="14"/>
+      <c r="C724" s="14"/>
+      <c r="J724" s="17"/>
+    </row>
+    <row r="725" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="J725" s="17"/>
+    </row>
+    <row r="726" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="14"/>
+      <c r="C726" s="14"/>
+      <c r="J726" s="17"/>
+    </row>
+    <row r="727" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="14"/>
+      <c r="C727" s="14"/>
+      <c r="J727" s="17"/>
+    </row>
+    <row r="728" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="14"/>
+      <c r="C728" s="14"/>
+      <c r="J728" s="17"/>
+    </row>
+    <row r="729" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="14"/>
+      <c r="C729" s="14"/>
+      <c r="J729" s="17"/>
+    </row>
+    <row r="730" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="14"/>
+      <c r="C730" s="14"/>
+      <c r="J730" s="17"/>
+    </row>
+    <row r="731" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="14"/>
+      <c r="C731" s="14"/>
+      <c r="J731" s="17"/>
+    </row>
+    <row r="732" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="14"/>
+      <c r="C732" s="14"/>
+      <c r="J732" s="17"/>
+    </row>
+    <row r="733" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="14"/>
+      <c r="C733" s="14"/>
+      <c r="J733" s="17"/>
+    </row>
+    <row r="734" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="J734" s="17"/>
+    </row>
+    <row r="735" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="14"/>
+      <c r="C735" s="14"/>
+      <c r="J735" s="17"/>
+    </row>
+    <row r="736" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="14"/>
+      <c r="C736" s="14"/>
+      <c r="J736" s="17"/>
+    </row>
+    <row r="737" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="14"/>
+      <c r="C737" s="14"/>
+      <c r="J737" s="17"/>
+    </row>
+    <row r="738" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="14"/>
+      <c r="C738" s="14"/>
+      <c r="J738" s="17"/>
+    </row>
+    <row r="739" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="14"/>
+      <c r="C739" s="14"/>
+      <c r="J739" s="17"/>
+    </row>
+    <row r="740" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="14"/>
+      <c r="C740" s="14"/>
+      <c r="J740" s="17"/>
+    </row>
+    <row r="741" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="J741" s="17"/>
+    </row>
+    <row r="742" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="14"/>
+      <c r="C742" s="14"/>
+      <c r="J742" s="17"/>
+    </row>
+    <row r="743" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="14"/>
+      <c r="C743" s="14"/>
+      <c r="J743" s="17"/>
+    </row>
+    <row r="744" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="14"/>
+      <c r="C744" s="14"/>
+      <c r="J744" s="17"/>
+    </row>
+    <row r="745" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="14"/>
+      <c r="C745" s="14"/>
+      <c r="J745" s="17"/>
+    </row>
+    <row r="746" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="14"/>
+      <c r="C746" s="14"/>
+      <c r="J746" s="17"/>
+    </row>
+    <row r="747" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="14"/>
+      <c r="C747" s="14"/>
+      <c r="J747" s="17"/>
+    </row>
+    <row r="748" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="14"/>
+      <c r="C748" s="14"/>
+      <c r="J748" s="17"/>
+    </row>
+    <row r="749" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="J749" s="17"/>
+    </row>
+    <row r="750" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="14"/>
+      <c r="C750" s="14"/>
+      <c r="J750" s="17"/>
+    </row>
+    <row r="751" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="14"/>
+      <c r="C751" s="14"/>
+      <c r="J751" s="17"/>
+    </row>
+    <row r="752" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="14"/>
+      <c r="C752" s="14"/>
+      <c r="J752" s="17"/>
+    </row>
+    <row r="753" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="14"/>
+      <c r="C753" s="14"/>
+      <c r="J753" s="17"/>
+    </row>
+    <row r="754" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="14"/>
+      <c r="C754" s="14"/>
+      <c r="J754" s="17"/>
+    </row>
+    <row r="755" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="14"/>
+      <c r="C755" s="14"/>
+      <c r="J755" s="17"/>
+    </row>
+    <row r="756" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="14"/>
+      <c r="C756" s="14"/>
+      <c r="J756" s="17"/>
+    </row>
+    <row r="757" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="14"/>
+      <c r="C757" s="14"/>
+      <c r="J757" s="17"/>
+    </row>
+    <row r="758" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="J758" s="17"/>
+    </row>
+    <row r="759" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="14"/>
+      <c r="C759" s="14"/>
+      <c r="J759" s="17"/>
+    </row>
+    <row r="760" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="J760" s="17"/>
+    </row>
+    <row r="761" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="14"/>
+      <c r="C761" s="14"/>
+      <c r="J761" s="17"/>
+    </row>
+    <row r="762" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="14"/>
+      <c r="C762" s="14"/>
+      <c r="J762" s="17"/>
+    </row>
+    <row r="763" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="14"/>
+      <c r="C763" s="14"/>
+      <c r="J763" s="17"/>
+    </row>
+    <row r="764" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="14"/>
+      <c r="C764" s="14"/>
+      <c r="J764" s="17"/>
+    </row>
+    <row r="765" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="J765" s="17"/>
+    </row>
+    <row r="766" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="14"/>
+      <c r="C766" s="14"/>
+      <c r="J766" s="17"/>
+    </row>
+    <row r="767" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="14"/>
+      <c r="C767" s="14"/>
+      <c r="J767" s="17"/>
+    </row>
+    <row r="768" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="J768" s="17"/>
+    </row>
+    <row r="769" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="14"/>
+      <c r="C769" s="14"/>
+      <c r="J769" s="17"/>
+    </row>
+    <row r="770" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="14"/>
+      <c r="C770" s="14"/>
+      <c r="J770" s="17"/>
+    </row>
+    <row r="771" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="14"/>
+      <c r="C771" s="14"/>
+      <c r="J771" s="17"/>
+    </row>
+    <row r="772" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="14"/>
+      <c r="C772" s="14"/>
+      <c r="J772" s="17"/>
+    </row>
+    <row r="773" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="14"/>
+      <c r="C773" s="14"/>
+      <c r="J773" s="17"/>
+    </row>
+    <row r="774" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="14"/>
+      <c r="C774" s="14"/>
+      <c r="J774" s="17"/>
+    </row>
+    <row r="775" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="14"/>
+      <c r="C775" s="14"/>
+      <c r="J775" s="17"/>
+    </row>
+    <row r="776" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="14"/>
+      <c r="C776" s="14"/>
+      <c r="J776" s="17"/>
+    </row>
+    <row r="777" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
+      <c r="J777" s="17"/>
+    </row>
+    <row r="778" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="14"/>
+      <c r="C778" s="14"/>
+      <c r="J778" s="17"/>
+    </row>
+    <row r="779" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="J779" s="17"/>
+    </row>
+    <row r="780" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="14"/>
+      <c r="C780" s="14"/>
+      <c r="J780" s="17"/>
+    </row>
+    <row r="781" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="14"/>
+      <c r="C781" s="14"/>
+      <c r="J781" s="17"/>
+    </row>
+    <row r="782" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="14"/>
+      <c r="C782" s="14"/>
+      <c r="J782" s="17"/>
+    </row>
+    <row r="783" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="14"/>
+      <c r="C783" s="14"/>
+      <c r="J783" s="17"/>
+    </row>
+    <row r="784" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="14"/>
+      <c r="C784" s="14"/>
+      <c r="J784" s="17"/>
+    </row>
+    <row r="785" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="14"/>
+      <c r="C785" s="14"/>
+      <c r="J785" s="17"/>
+    </row>
+    <row r="786" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="14"/>
+      <c r="C786" s="14"/>
+      <c r="J786" s="17"/>
+    </row>
+    <row r="787" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="14"/>
+      <c r="C787" s="14"/>
+      <c r="J787" s="17"/>
+    </row>
+    <row r="788" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="14"/>
+      <c r="C788" s="14"/>
+      <c r="J788" s="17"/>
+    </row>
+    <row r="789" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="14"/>
+      <c r="C789" s="14"/>
+      <c r="J789" s="17"/>
+    </row>
+    <row r="790" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="14"/>
+      <c r="C790" s="14"/>
+      <c r="J790" s="17"/>
+    </row>
+    <row r="791" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="J791" s="17"/>
+    </row>
+    <row r="792" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="14"/>
+      <c r="C792" s="14"/>
+      <c r="J792" s="17"/>
+    </row>
+    <row r="793" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="14"/>
+      <c r="C793" s="14"/>
+      <c r="J793" s="17"/>
+    </row>
+    <row r="794" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="14"/>
+      <c r="C794" s="14"/>
+      <c r="J794" s="17"/>
+    </row>
+    <row r="795" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="14"/>
+      <c r="C795" s="14"/>
+      <c r="J795" s="17"/>
+    </row>
+    <row r="796" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="14"/>
+      <c r="C796" s="14"/>
+      <c r="J796" s="17"/>
+    </row>
+    <row r="797" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="14"/>
+      <c r="C797" s="14"/>
+      <c r="J797" s="17"/>
+    </row>
+    <row r="798" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="J798" s="17"/>
+    </row>
+    <row r="799" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="14"/>
+      <c r="C799" s="14"/>
+      <c r="J799" s="17"/>
+    </row>
+    <row r="800" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="J800" s="17"/>
+    </row>
+    <row r="801" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="14"/>
+      <c r="C801" s="14"/>
+      <c r="J801" s="17"/>
+    </row>
+    <row r="802" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="14"/>
+      <c r="C802" s="14"/>
+      <c r="J802" s="17"/>
+    </row>
+    <row r="803" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="14"/>
+      <c r="C803" s="14"/>
+      <c r="J803" s="17"/>
+    </row>
+    <row r="804" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="14"/>
+      <c r="C804" s="14"/>
+      <c r="J804" s="17"/>
+    </row>
+    <row r="805" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="14"/>
+      <c r="C805" s="14"/>
+      <c r="J805" s="17"/>
+    </row>
+    <row r="806" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="14"/>
+      <c r="C806" s="14"/>
+      <c r="J806" s="17"/>
+    </row>
+    <row r="807" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="14"/>
+      <c r="C807" s="14"/>
+      <c r="J807" s="17"/>
+    </row>
+    <row r="808" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="14"/>
+      <c r="C808" s="14"/>
+      <c r="J808" s="17"/>
+    </row>
+    <row r="809" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="14"/>
+      <c r="C809" s="14"/>
+      <c r="J809" s="17"/>
+    </row>
+    <row r="810" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="14"/>
+      <c r="C810" s="14"/>
+      <c r="J810" s="17"/>
+    </row>
+    <row r="811" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="14"/>
+      <c r="C811" s="14"/>
+      <c r="J811" s="17"/>
+    </row>
+    <row r="812" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="14"/>
+      <c r="C812" s="14"/>
+      <c r="J812" s="17"/>
+    </row>
+    <row r="813" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="14"/>
+      <c r="C813" s="14"/>
+      <c r="J813" s="17"/>
+    </row>
+    <row r="814" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="14"/>
+      <c r="C814" s="14"/>
+      <c r="J814" s="17"/>
+    </row>
+    <row r="815" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="14"/>
+      <c r="C815" s="14"/>
+      <c r="J815" s="17"/>
+    </row>
+    <row r="816" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="14"/>
+      <c r="C816" s="14"/>
+      <c r="J816" s="17"/>
+    </row>
+    <row r="817" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="J817" s="17"/>
+    </row>
+    <row r="818" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="14"/>
+      <c r="C818" s="14"/>
+      <c r="J818" s="17"/>
+    </row>
+    <row r="819" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="14"/>
+      <c r="C819" s="14"/>
+      <c r="J819" s="17"/>
+    </row>
+    <row r="820" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="14"/>
+      <c r="C820" s="14"/>
+      <c r="J820" s="17"/>
+    </row>
+    <row r="821" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="14"/>
+      <c r="C821" s="14"/>
+      <c r="J821" s="17"/>
+    </row>
+    <row r="822" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="14"/>
+      <c r="C822" s="14"/>
+      <c r="J822" s="17"/>
+    </row>
+    <row r="823" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="14"/>
+      <c r="C823" s="14"/>
+      <c r="J823" s="17"/>
+    </row>
+    <row r="824" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="14"/>
+      <c r="C824" s="14"/>
+      <c r="J824" s="17"/>
+    </row>
+    <row r="825" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="14"/>
+      <c r="C825" s="14"/>
+      <c r="J825" s="17"/>
+    </row>
+    <row r="826" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="14"/>
+      <c r="C826" s="14"/>
+      <c r="J826" s="17"/>
+    </row>
+    <row r="827" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="14"/>
+      <c r="C827" s="14"/>
+      <c r="J827" s="17"/>
+    </row>
+    <row r="828" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="14"/>
+      <c r="C828" s="14"/>
+      <c r="J828" s="17"/>
+    </row>
+    <row r="829" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="14"/>
+      <c r="C829" s="14"/>
+      <c r="J829" s="17"/>
+    </row>
+    <row r="830" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="14"/>
+      <c r="C830" s="14"/>
+      <c r="J830" s="17"/>
+    </row>
+    <row r="831" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="14"/>
+      <c r="C831" s="14"/>
+      <c r="J831" s="17"/>
+    </row>
+    <row r="832" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="14"/>
+      <c r="C832" s="14"/>
+      <c r="J832" s="17"/>
+    </row>
+    <row r="833" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="14"/>
+      <c r="C833" s="14"/>
+      <c r="J833" s="17"/>
+    </row>
+    <row r="834" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="14"/>
+      <c r="C834" s="14"/>
+      <c r="J834" s="17"/>
+    </row>
+    <row r="835" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="14"/>
+      <c r="C835" s="14"/>
+      <c r="J835" s="17"/>
+    </row>
+    <row r="836" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="14"/>
+      <c r="C836" s="14"/>
+      <c r="J836" s="17"/>
+    </row>
+    <row r="837" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="14"/>
+      <c r="C837" s="14"/>
+      <c r="J837" s="17"/>
+    </row>
+    <row r="838" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="14"/>
+      <c r="C838" s="14"/>
+      <c r="J838" s="17"/>
+    </row>
+    <row r="839" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="14"/>
+      <c r="C839" s="14"/>
+      <c r="J839" s="17"/>
+    </row>
+    <row r="840" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="14"/>
+      <c r="C840" s="14"/>
+      <c r="J840" s="17"/>
+    </row>
+    <row r="841" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="14"/>
+      <c r="C841" s="14"/>
+      <c r="J841" s="17"/>
+    </row>
+    <row r="842" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="14"/>
+      <c r="C842" s="14"/>
+      <c r="J842" s="17"/>
+    </row>
+    <row r="843" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="14"/>
+      <c r="C843" s="14"/>
+      <c r="J843" s="17"/>
+    </row>
+    <row r="844" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="14"/>
+      <c r="C844" s="14"/>
+      <c r="J844" s="17"/>
+    </row>
+    <row r="845" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="14"/>
+      <c r="C845" s="14"/>
+      <c r="J845" s="17"/>
+    </row>
+    <row r="846" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="14"/>
+      <c r="C846" s="14"/>
+      <c r="J846" s="17"/>
+    </row>
+    <row r="847" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="14"/>
+      <c r="C847" s="14"/>
+      <c r="J847" s="17"/>
+    </row>
+    <row r="848" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="14"/>
+      <c r="C848" s="14"/>
+      <c r="J848" s="17"/>
+    </row>
+    <row r="849" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="14"/>
+      <c r="C849" s="14"/>
+      <c r="J849" s="17"/>
+    </row>
+    <row r="850" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="14"/>
+      <c r="C850" s="14"/>
+      <c r="J850" s="17"/>
+    </row>
+    <row r="851" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="14"/>
+      <c r="C851" s="14"/>
+      <c r="J851" s="17"/>
+    </row>
+    <row r="852" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="14"/>
+      <c r="C852" s="14"/>
+      <c r="J852" s="17"/>
+    </row>
+    <row r="853" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="14"/>
+      <c r="C853" s="14"/>
+      <c r="J853" s="17"/>
+    </row>
+    <row r="854" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="14"/>
+      <c r="C854" s="14"/>
+      <c r="J854" s="17"/>
+    </row>
+    <row r="855" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="14"/>
+      <c r="C855" s="14"/>
+      <c r="J855" s="17"/>
+    </row>
+    <row r="856" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="14"/>
+      <c r="C856" s="14"/>
+      <c r="J856" s="17"/>
+    </row>
+    <row r="857" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="14"/>
+      <c r="C857" s="14"/>
+      <c r="J857" s="17"/>
+    </row>
+    <row r="858" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="14"/>
+      <c r="C858" s="14"/>
+      <c r="J858" s="17"/>
+    </row>
+    <row r="859" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="14"/>
+      <c r="C859" s="14"/>
+      <c r="J859" s="17"/>
+    </row>
+    <row r="860" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="14"/>
+      <c r="C860" s="14"/>
+      <c r="J860" s="17"/>
+    </row>
+    <row r="861" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="14"/>
+      <c r="C861" s="14"/>
+      <c r="J861" s="17"/>
+    </row>
+    <row r="862" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="14"/>
+      <c r="C862" s="14"/>
+      <c r="J862" s="17"/>
+    </row>
+    <row r="863" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="14"/>
+      <c r="C863" s="14"/>
+      <c r="J863" s="17"/>
+    </row>
+    <row r="864" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="14"/>
+      <c r="C864" s="14"/>
+      <c r="J864" s="17"/>
+    </row>
+    <row r="865" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="14"/>
+      <c r="C865" s="14"/>
+      <c r="J865" s="17"/>
+    </row>
+    <row r="866" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="14"/>
+      <c r="C866" s="14"/>
+      <c r="J866" s="17"/>
+    </row>
+    <row r="867" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="14"/>
+      <c r="C867" s="14"/>
+      <c r="J867" s="17"/>
+    </row>
+    <row r="868" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="14"/>
+      <c r="C868" s="14"/>
+      <c r="J868" s="17"/>
+    </row>
+    <row r="869" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="14"/>
+      <c r="C869" s="14"/>
+      <c r="J869" s="17"/>
+    </row>
+    <row r="870" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="14"/>
+      <c r="C870" s="14"/>
+      <c r="J870" s="17"/>
+    </row>
+    <row r="871" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="14"/>
+      <c r="C871" s="14"/>
+      <c r="J871" s="17"/>
+    </row>
+    <row r="872" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="14"/>
+      <c r="C872" s="14"/>
+      <c r="J872" s="17"/>
+    </row>
+    <row r="873" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="14"/>
+      <c r="C873" s="14"/>
+      <c r="J873" s="17"/>
+    </row>
+    <row r="874" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="14"/>
+      <c r="C874" s="14"/>
+      <c r="J874" s="17"/>
+    </row>
+    <row r="875" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="14"/>
+      <c r="C875" s="14"/>
+      <c r="J875" s="17"/>
+    </row>
+    <row r="876" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="14"/>
+      <c r="C876" s="14"/>
+      <c r="J876" s="17"/>
+    </row>
+    <row r="877" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="14"/>
+      <c r="C877" s="14"/>
+      <c r="J877" s="17"/>
+    </row>
+    <row r="878" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="14"/>
+      <c r="C878" s="14"/>
+      <c r="J878" s="17"/>
+    </row>
+    <row r="879" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="14"/>
+      <c r="C879" s="14"/>
+      <c r="J879" s="17"/>
+    </row>
+    <row r="880" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="14"/>
+      <c r="C880" s="14"/>
+      <c r="J880" s="17"/>
+    </row>
+    <row r="881" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="14"/>
+      <c r="C881" s="14"/>
+      <c r="J881" s="17"/>
+    </row>
+    <row r="882" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="14"/>
+      <c r="C882" s="14"/>
+      <c r="J882" s="17"/>
+    </row>
+    <row r="883" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="14"/>
+      <c r="C883" s="14"/>
+      <c r="J883" s="17"/>
+    </row>
+    <row r="884" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="14"/>
+      <c r="C884" s="14"/>
+      <c r="J884" s="17"/>
+    </row>
+    <row r="885" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="14"/>
+      <c r="C885" s="14"/>
+      <c r="J885" s="17"/>
+    </row>
+    <row r="886" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="14"/>
+      <c r="C886" s="14"/>
+      <c r="J886" s="17"/>
+    </row>
+    <row r="887" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="14"/>
+      <c r="C887" s="14"/>
+      <c r="J887" s="17"/>
+    </row>
+    <row r="888" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="14"/>
+      <c r="C888" s="14"/>
+      <c r="J888" s="17"/>
+    </row>
+    <row r="889" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="14"/>
+      <c r="C889" s="14"/>
+      <c r="J889" s="17"/>
+    </row>
+    <row r="890" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="14"/>
+      <c r="C890" s="14"/>
+      <c r="J890" s="17"/>
+    </row>
+    <row r="891" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="14"/>
+      <c r="C891" s="14"/>
+      <c r="J891" s="17"/>
+    </row>
+    <row r="892" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="14"/>
+      <c r="C892" s="14"/>
+      <c r="J892" s="17"/>
+    </row>
+    <row r="893" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="14"/>
+      <c r="C893" s="14"/>
+      <c r="J893" s="17"/>
+    </row>
+    <row r="894" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="14"/>
+      <c r="C894" s="14"/>
+      <c r="J894" s="17"/>
+    </row>
+    <row r="895" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="14"/>
+      <c r="C895" s="14"/>
+      <c r="J895" s="17"/>
+    </row>
+    <row r="896" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="14"/>
+      <c r="C896" s="14"/>
+      <c r="J896" s="17"/>
+    </row>
+    <row r="897" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="14"/>
+      <c r="C897" s="14"/>
+      <c r="J897" s="17"/>
+    </row>
+    <row r="898" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="14"/>
+      <c r="C898" s="14"/>
+      <c r="J898" s="17"/>
+    </row>
+    <row r="899" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="14"/>
+      <c r="C899" s="14"/>
+      <c r="J899" s="17"/>
+    </row>
+    <row r="900" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="14"/>
+      <c r="C900" s="14"/>
+      <c r="J900" s="17"/>
+    </row>
+    <row r="901" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="14"/>
+      <c r="C901" s="14"/>
+      <c r="J901" s="17"/>
+    </row>
+    <row r="902" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="14"/>
+      <c r="C902" s="14"/>
+      <c r="J902" s="17"/>
+    </row>
+    <row r="903" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="14"/>
+      <c r="C903" s="14"/>
+      <c r="J903" s="17"/>
+    </row>
+    <row r="904" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="14"/>
+      <c r="C904" s="14"/>
+      <c r="J904" s="17"/>
+    </row>
+    <row r="905" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="14"/>
+      <c r="C905" s="14"/>
+      <c r="J905" s="17"/>
+    </row>
+    <row r="906" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="14"/>
+      <c r="C906" s="14"/>
+      <c r="J906" s="17"/>
+    </row>
+    <row r="907" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="14"/>
+      <c r="C907" s="14"/>
+      <c r="J907" s="17"/>
+    </row>
+    <row r="908" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="14"/>
+      <c r="C908" s="14"/>
+      <c r="J908" s="17"/>
+    </row>
+    <row r="909" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="14"/>
+      <c r="C909" s="14"/>
+      <c r="J909" s="17"/>
+    </row>
+    <row r="910" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="14"/>
+      <c r="C910" s="14"/>
+      <c r="J910" s="17"/>
+    </row>
+    <row r="911" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="14"/>
+      <c r="C911" s="14"/>
+      <c r="J911" s="17"/>
+    </row>
+    <row r="912" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="14"/>
+      <c r="C912" s="14"/>
+      <c r="J912" s="17"/>
+    </row>
+    <row r="913" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="14"/>
+      <c r="C913" s="14"/>
+      <c r="J913" s="17"/>
+    </row>
+    <row r="914" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="14"/>
+      <c r="C914" s="14"/>
+      <c r="J914" s="17"/>
+    </row>
+    <row r="915" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="14"/>
+      <c r="C915" s="14"/>
+      <c r="J915" s="17"/>
+    </row>
+    <row r="916" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="14"/>
+      <c r="C916" s="14"/>
+      <c r="J916" s="17"/>
+    </row>
+    <row r="917" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="14"/>
+      <c r="C917" s="14"/>
+      <c r="J917" s="17"/>
+    </row>
+    <row r="918" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="14"/>
+      <c r="C918" s="14"/>
+      <c r="J918" s="17"/>
+    </row>
+    <row r="919" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="14"/>
+      <c r="C919" s="14"/>
+      <c r="J919" s="17"/>
+    </row>
+    <row r="920" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="14"/>
+      <c r="C920" s="14"/>
+      <c r="J920" s="17"/>
+    </row>
+    <row r="921" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="14"/>
+      <c r="C921" s="14"/>
+      <c r="J921" s="17"/>
+    </row>
+    <row r="922" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="14"/>
+      <c r="C922" s="14"/>
+      <c r="J922" s="17"/>
+    </row>
+    <row r="923" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="14"/>
+      <c r="C923" s="14"/>
+      <c r="J923" s="17"/>
+    </row>
+    <row r="924" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="14"/>
+      <c r="C924" s="14"/>
+      <c r="J924" s="17"/>
+    </row>
+    <row r="925" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="14"/>
+      <c r="C925" s="14"/>
+      <c r="J925" s="17"/>
+    </row>
+    <row r="926" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="14"/>
+      <c r="C926" s="14"/>
+      <c r="J926" s="17"/>
+    </row>
+    <row r="927" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="14"/>
+      <c r="C927" s="14"/>
+      <c r="J927" s="17"/>
+    </row>
+    <row r="928" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="14"/>
+      <c r="C928" s="14"/>
+      <c r="J928" s="17"/>
+    </row>
+    <row r="929" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="14"/>
+      <c r="C929" s="14"/>
+      <c r="J929" s="17"/>
+    </row>
+    <row r="930" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="14"/>
+      <c r="C930" s="14"/>
+      <c r="J930" s="17"/>
+    </row>
+    <row r="931" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="14"/>
+      <c r="C931" s="14"/>
+      <c r="J931" s="17"/>
+    </row>
+    <row r="932" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="14"/>
+      <c r="C932" s="14"/>
+      <c r="J932" s="17"/>
+    </row>
+    <row r="933" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="14"/>
+      <c r="C933" s="14"/>
+      <c r="J933" s="17"/>
+    </row>
+    <row r="934" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="14"/>
+      <c r="C934" s="14"/>
+      <c r="J934" s="17"/>
+    </row>
+    <row r="935" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="14"/>
+      <c r="C935" s="14"/>
+      <c r="J935" s="17"/>
+    </row>
+    <row r="936" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="14"/>
+      <c r="C936" s="14"/>
+      <c r="J936" s="17"/>
+    </row>
+    <row r="937" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="14"/>
+      <c r="C937" s="14"/>
+      <c r="J937" s="17"/>
+    </row>
+    <row r="938" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="14"/>
+      <c r="C938" s="14"/>
+      <c r="J938" s="17"/>
+    </row>
+    <row r="939" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="14"/>
+      <c r="C939" s="14"/>
+      <c r="J939" s="17"/>
+    </row>
+    <row r="940" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="14"/>
+      <c r="C940" s="14"/>
+      <c r="J940" s="17"/>
+    </row>
+    <row r="941" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="14"/>
+      <c r="C941" s="14"/>
+      <c r="J941" s="17"/>
+    </row>
+    <row r="942" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="14"/>
+      <c r="C942" s="14"/>
+      <c r="J942" s="17"/>
+    </row>
+    <row r="943" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="14"/>
+      <c r="C943" s="14"/>
+      <c r="J943" s="17"/>
+    </row>
+    <row r="944" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="14"/>
+      <c r="C944" s="14"/>
+      <c r="J944" s="17"/>
+    </row>
+    <row r="945" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="14"/>
+      <c r="C945" s="14"/>
+      <c r="J945" s="17"/>
+    </row>
+    <row r="946" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="14"/>
+      <c r="C946" s="14"/>
+      <c r="J946" s="17"/>
+    </row>
+    <row r="947" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="14"/>
+      <c r="C947" s="14"/>
+      <c r="J947" s="17"/>
+    </row>
+    <row r="948" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="14"/>
+      <c r="C948" s="14"/>
+      <c r="J948" s="17"/>
+    </row>
+    <row r="949" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="14"/>
+      <c r="C949" s="14"/>
+      <c r="J949" s="17"/>
+    </row>
+    <row r="950" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="14"/>
+      <c r="C950" s="14"/>
+      <c r="J950" s="17"/>
+    </row>
+    <row r="951" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="14"/>
+      <c r="C951" s="14"/>
+      <c r="J951" s="17"/>
+    </row>
+    <row r="952" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="14"/>
+      <c r="C952" s="14"/>
+      <c r="J952" s="17"/>
+    </row>
+    <row r="953" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="14"/>
+      <c r="C953" s="14"/>
+      <c r="J953" s="17"/>
+    </row>
+    <row r="954" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="14"/>
+      <c r="C954" s="14"/>
+      <c r="J954" s="17"/>
+    </row>
+    <row r="955" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="14"/>
+      <c r="C955" s="14"/>
+      <c r="J955" s="17"/>
+    </row>
+    <row r="956" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="14"/>
+      <c r="C956" s="14"/>
+      <c r="J956" s="17"/>
+    </row>
+    <row r="957" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="14"/>
+      <c r="C957" s="14"/>
+      <c r="J957" s="17"/>
+    </row>
+    <row r="958" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="14"/>
+      <c r="C958" s="14"/>
+      <c r="J958" s="17"/>
+    </row>
+    <row r="959" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="14"/>
+      <c r="C959" s="14"/>
+      <c r="J959" s="17"/>
+    </row>
+    <row r="960" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="14"/>
+      <c r="C960" s="14"/>
+      <c r="J960" s="17"/>
+    </row>
+    <row r="961" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="14"/>
+      <c r="C961" s="14"/>
+      <c r="J961" s="17"/>
+    </row>
+    <row r="962" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="14"/>
+      <c r="C962" s="14"/>
+      <c r="J962" s="17"/>
+    </row>
+    <row r="963" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="14"/>
+      <c r="C963" s="14"/>
+      <c r="J963" s="17"/>
+    </row>
+    <row r="964" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="14"/>
+      <c r="C964" s="14"/>
+      <c r="J964" s="17"/>
+    </row>
+    <row r="965" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="14"/>
+      <c r="C965" s="14"/>
+      <c r="J965" s="17"/>
+    </row>
+    <row r="966" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="14"/>
+      <c r="C966" s="14"/>
+      <c r="J966" s="17"/>
+    </row>
+    <row r="967" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="14"/>
+      <c r="C967" s="14"/>
+      <c r="J967" s="17"/>
+    </row>
+    <row r="968" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="14"/>
+      <c r="C968" s="14"/>
+      <c r="J968" s="17"/>
+    </row>
+    <row r="969" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="14"/>
+      <c r="C969" s="14"/>
+      <c r="J969" s="17"/>
+    </row>
+    <row r="970" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="14"/>
+      <c r="C970" s="14"/>
+      <c r="J970" s="17"/>
+    </row>
+    <row r="971" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="14"/>
+      <c r="C971" s="14"/>
+      <c r="J971" s="17"/>
+    </row>
+    <row r="972" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="14"/>
+      <c r="C972" s="14"/>
+      <c r="J972" s="17"/>
+    </row>
+    <row r="973" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="14"/>
+      <c r="C973" s="14"/>
+      <c r="J973" s="17"/>
+    </row>
+    <row r="974" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="14"/>
+      <c r="C974" s="14"/>
+      <c r="J974" s="17"/>
+    </row>
+    <row r="975" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="14"/>
+      <c r="C975" s="14"/>
+      <c r="J975" s="17"/>
+    </row>
+    <row r="976" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="14"/>
+      <c r="C976" s="14"/>
+      <c r="J976" s="17"/>
+    </row>
+    <row r="977" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="14"/>
+      <c r="C977" s="14"/>
+      <c r="J977" s="17"/>
+    </row>
+    <row r="978" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="14"/>
+      <c r="C978" s="14"/>
+      <c r="J978" s="17"/>
+    </row>
+    <row r="979" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="14"/>
+      <c r="C979" s="14"/>
+      <c r="J979" s="17"/>
+    </row>
+    <row r="980" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="14"/>
+      <c r="C980" s="14"/>
+      <c r="J980" s="17"/>
+    </row>
+    <row r="981" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="14"/>
+      <c r="C981" s="14"/>
+      <c r="J981" s="17"/>
+    </row>
+    <row r="982" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="14"/>
+      <c r="C982" s="14"/>
+      <c r="J982" s="17"/>
+    </row>
+    <row r="983" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="14"/>
+      <c r="C983" s="14"/>
+      <c r="J983" s="17"/>
+    </row>
+    <row r="984" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="14"/>
+      <c r="C984" s="14"/>
+      <c r="J984" s="17"/>
+    </row>
+    <row r="985" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="14"/>
+      <c r="C985" s="14"/>
+      <c r="J985" s="17"/>
+    </row>
+    <row r="986" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="14"/>
+      <c r="C986" s="14"/>
+      <c r="J986" s="17"/>
+    </row>
+    <row r="987" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="14"/>
+      <c r="C987" s="14"/>
+      <c r="J987" s="17"/>
+    </row>
+    <row r="988" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="14"/>
+      <c r="C988" s="14"/>
+      <c r="J988" s="17"/>
+    </row>
+    <row r="989" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B989" s="14"/>
+      <c r="C989" s="14"/>
+      <c r="J989" s="17"/>
+    </row>
+    <row r="990" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B990" s="14"/>
+      <c r="C990" s="14"/>
+      <c r="J990" s="17"/>
+    </row>
+    <row r="991" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B991" s="14"/>
+      <c r="C991" s="14"/>
+      <c r="J991" s="17"/>
+    </row>
+    <row r="992" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B992" s="14"/>
+      <c r="C992" s="14"/>
+      <c r="J992" s="17"/>
+    </row>
+    <row r="993" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B993" s="14"/>
+      <c r="C993" s="14"/>
+      <c r="J993" s="17"/>
+    </row>
+    <row r="994" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B994" s="14"/>
+      <c r="C994" s="14"/>
+      <c r="J994" s="17"/>
+    </row>
+    <row r="995" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B995" s="14"/>
+      <c r="C995" s="14"/>
+      <c r="J995" s="17"/>
+    </row>
+    <row r="996" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B996" s="14"/>
+      <c r="C996" s="14"/>
+      <c r="J996" s="17"/>
+    </row>
+    <row r="997" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B997" s="14"/>
+      <c r="C997" s="14"/>
+      <c r="J997" s="17"/>
+    </row>
+    <row r="998" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B998" s="14"/>
+      <c r="C998" s="14"/>
+      <c r="J998" s="17"/>
+    </row>
+    <row r="999" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B999" s="14"/>
+      <c r="C999" s="14"/>
+      <c r="J999" s="17"/>
+    </row>
+    <row r="1000" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1000" s="14"/>
+      <c r="C1000" s="14"/>
+      <c r="J1000" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-90 TSP.xlsx
+++ b/CH-90 TSP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84A6D9-EFE2-4F1B-9EF3-D59BF5EB8BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD2FFD-90E1-47C5-9DA7-DDD410072136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_nDist">EDA!$N$5:$N$29</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -482,6 +483,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,7 +493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +868,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="885" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="842" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -883,6 +884,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -913,20 +917,20 @@
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -6331,20 +6335,20 @@
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -12131,7 +12135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B036C69-E4F5-4E86-9559-A77D8A625C77}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -12148,20 +12152,20 @@
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -12482,7 +12486,7 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="23" t="str" cm="1">
+      <c r="N10" s="18" t="str" cm="1">
         <f t="array" ref="N10:O33">_xlfn.LET(
     _xlpm.p, "A" &amp;
         _xlfn._xlws.SORT(
@@ -17709,4 +17713,5508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8150A3D-3119-46A7-87F6-EC49F0EA2662}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>107</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10">
+        <v>113</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10">
+        <v>113</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10">
+        <v>98</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10">
+        <v>98</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11:N34">_xlfn.MAP(
+    J3:J26,
+    _xlfn.LAMBDA(_xlpm.p,
+        _xlfn.LET(
+            _xlpm.m, MID(_xlpm.p, _xlfn.SEQUENCE(LEN(_xlpm.p)), 1),
+            SUM(
+                _xlfn.MAP(
+                    _xlfn.DROP(_xlpm.m, -1),
+                    _xlfn.DROP(_xlpm.m, 1),
+                    _xlfn.LAMBDA(_xlpm.a,_xlpm.b, SUM((B3:B7 = _xlpm.a) * (C2:G2 = _xlpm.b) * C3:G7))
+                )
+            )
+        )
+    )
+)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="10">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10">
+        <v>96</v>
+      </c>
+      <c r="N13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10">
+        <v>105</v>
+      </c>
+      <c r="N14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="J15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="10">
+        <v>104</v>
+      </c>
+      <c r="N16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="10">
+        <v>89</v>
+      </c>
+      <c r="N17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="J18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10">
+        <v>77</v>
+      </c>
+      <c r="N18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="J19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10">
+        <v>103</v>
+      </c>
+      <c r="N19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="10">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="J21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="10">
+        <v>79</v>
+      </c>
+      <c r="N21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="J22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="10">
+        <v>109</v>
+      </c>
+      <c r="N22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="J23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="10">
+        <v>95</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="J24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="10">
+        <v>85</v>
+      </c>
+      <c r="N24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="10">
+        <v>122</v>
+      </c>
+      <c r="N25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="J26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="16">
+        <v>94</v>
+      </c>
+      <c r="N26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="J27" s="17"/>
+      <c r="N27">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="J28" s="17"/>
+      <c r="N28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="J29" s="17"/>
+      <c r="N29">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="J30" s="17"/>
+      <c r="N30">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="J31" s="17"/>
+      <c r="N31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="J32" s="17"/>
+      <c r="N32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="J33" s="17"/>
+      <c r="N33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="J34" s="17"/>
+      <c r="N34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="J79" s="17"/>
+    </row>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="J80" s="17"/>
+    </row>
+    <row r="81" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="J103" s="17"/>
+    </row>
+    <row r="104" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="J146" s="17"/>
+    </row>
+    <row r="147" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="J148" s="17"/>
+    </row>
+    <row r="149" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="J151" s="17"/>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="J152" s="17"/>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="J154" s="17"/>
+    </row>
+    <row r="155" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="J155" s="17"/>
+    </row>
+    <row r="156" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="J157" s="17"/>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="J158" s="17"/>
+    </row>
+    <row r="159" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="J159" s="17"/>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="J160" s="17"/>
+    </row>
+    <row r="161" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="J161" s="17"/>
+    </row>
+    <row r="162" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="J162" s="17"/>
+    </row>
+    <row r="163" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="J163" s="17"/>
+    </row>
+    <row r="164" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="J165" s="17"/>
+    </row>
+    <row r="166" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="J167" s="17"/>
+    </row>
+    <row r="168" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="J168" s="17"/>
+    </row>
+    <row r="169" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="J170" s="17"/>
+    </row>
+    <row r="171" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="J171" s="17"/>
+    </row>
+    <row r="172" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="J172" s="17"/>
+    </row>
+    <row r="173" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="J173" s="17"/>
+    </row>
+    <row r="174" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="J174" s="17"/>
+    </row>
+    <row r="175" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="J175" s="17"/>
+    </row>
+    <row r="176" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="J176" s="17"/>
+    </row>
+    <row r="177" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="J178" s="17"/>
+    </row>
+    <row r="179" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="J179" s="17"/>
+    </row>
+    <row r="180" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="J180" s="17"/>
+    </row>
+    <row r="181" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="J181" s="17"/>
+    </row>
+    <row r="182" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="J182" s="17"/>
+    </row>
+    <row r="183" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="J184" s="17"/>
+    </row>
+    <row r="185" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="J188" s="17"/>
+    </row>
+    <row r="189" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="J189" s="17"/>
+    </row>
+    <row r="190" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="J190" s="17"/>
+    </row>
+    <row r="191" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="J191" s="17"/>
+    </row>
+    <row r="192" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="J192" s="17"/>
+    </row>
+    <row r="193" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="J193" s="17"/>
+    </row>
+    <row r="194" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="J194" s="17"/>
+    </row>
+    <row r="195" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="J195" s="17"/>
+    </row>
+    <row r="196" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="J196" s="17"/>
+    </row>
+    <row r="197" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="J198" s="17"/>
+    </row>
+    <row r="199" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="J199" s="17"/>
+    </row>
+    <row r="200" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="J200" s="17"/>
+    </row>
+    <row r="201" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="J201" s="17"/>
+    </row>
+    <row r="202" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="J202" s="17"/>
+    </row>
+    <row r="203" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="J203" s="17"/>
+    </row>
+    <row r="204" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="J204" s="17"/>
+    </row>
+    <row r="205" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="J205" s="17"/>
+    </row>
+    <row r="206" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="J206" s="17"/>
+    </row>
+    <row r="207" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="J207" s="17"/>
+    </row>
+    <row r="208" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="J208" s="17"/>
+    </row>
+    <row r="209" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="J209" s="17"/>
+    </row>
+    <row r="210" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="J210" s="17"/>
+    </row>
+    <row r="211" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="J211" s="17"/>
+    </row>
+    <row r="212" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="J212" s="17"/>
+    </row>
+    <row r="213" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="J213" s="17"/>
+    </row>
+    <row r="214" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="J214" s="17"/>
+    </row>
+    <row r="215" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="J215" s="17"/>
+    </row>
+    <row r="216" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="J216" s="17"/>
+    </row>
+    <row r="217" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="J217" s="17"/>
+    </row>
+    <row r="218" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="J218" s="17"/>
+    </row>
+    <row r="219" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="J219" s="17"/>
+    </row>
+    <row r="220" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="J220" s="17"/>
+    </row>
+    <row r="221" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="J222" s="17"/>
+    </row>
+    <row r="223" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="J223" s="17"/>
+    </row>
+    <row r="224" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="J224" s="17"/>
+    </row>
+    <row r="225" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="J225" s="17"/>
+    </row>
+    <row r="226" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="J226" s="17"/>
+    </row>
+    <row r="227" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="J227" s="17"/>
+    </row>
+    <row r="228" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="J228" s="17"/>
+    </row>
+    <row r="229" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="J229" s="17"/>
+    </row>
+    <row r="230" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="J230" s="17"/>
+    </row>
+    <row r="231" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="J231" s="17"/>
+    </row>
+    <row r="232" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="J232" s="17"/>
+    </row>
+    <row r="233" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="J233" s="17"/>
+    </row>
+    <row r="234" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="J234" s="17"/>
+    </row>
+    <row r="235" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="J235" s="17"/>
+    </row>
+    <row r="236" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="J236" s="17"/>
+    </row>
+    <row r="237" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="J237" s="17"/>
+    </row>
+    <row r="238" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="J238" s="17"/>
+    </row>
+    <row r="239" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="J239" s="17"/>
+    </row>
+    <row r="240" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="J240" s="17"/>
+    </row>
+    <row r="241" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="J241" s="17"/>
+    </row>
+    <row r="242" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="J242" s="17"/>
+    </row>
+    <row r="243" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="J243" s="17"/>
+    </row>
+    <row r="244" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="J244" s="17"/>
+    </row>
+    <row r="245" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="J245" s="17"/>
+    </row>
+    <row r="246" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="J246" s="17"/>
+    </row>
+    <row r="247" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="J247" s="17"/>
+    </row>
+    <row r="248" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="J248" s="17"/>
+    </row>
+    <row r="249" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="J249" s="17"/>
+    </row>
+    <row r="250" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="J250" s="17"/>
+    </row>
+    <row r="251" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="J251" s="17"/>
+    </row>
+    <row r="252" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="J252" s="17"/>
+    </row>
+    <row r="253" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="J253" s="17"/>
+    </row>
+    <row r="254" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="J254" s="17"/>
+    </row>
+    <row r="255" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="J255" s="17"/>
+    </row>
+    <row r="256" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="J256" s="17"/>
+    </row>
+    <row r="257" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="J257" s="17"/>
+    </row>
+    <row r="258" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="J258" s="17"/>
+    </row>
+    <row r="259" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="J259" s="17"/>
+    </row>
+    <row r="260" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="J260" s="17"/>
+    </row>
+    <row r="261" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="J261" s="17"/>
+    </row>
+    <row r="262" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="J262" s="17"/>
+    </row>
+    <row r="263" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="J263" s="17"/>
+    </row>
+    <row r="264" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="J264" s="17"/>
+    </row>
+    <row r="265" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="J265" s="17"/>
+    </row>
+    <row r="266" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="J266" s="17"/>
+    </row>
+    <row r="267" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="J267" s="17"/>
+    </row>
+    <row r="268" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="J268" s="17"/>
+    </row>
+    <row r="269" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="J269" s="17"/>
+    </row>
+    <row r="270" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="J270" s="17"/>
+    </row>
+    <row r="271" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="J271" s="17"/>
+    </row>
+    <row r="272" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="J272" s="17"/>
+    </row>
+    <row r="273" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="J273" s="17"/>
+    </row>
+    <row r="274" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="J274" s="17"/>
+    </row>
+    <row r="275" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="J275" s="17"/>
+    </row>
+    <row r="276" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="J276" s="17"/>
+    </row>
+    <row r="277" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="J277" s="17"/>
+    </row>
+    <row r="278" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="J278" s="17"/>
+    </row>
+    <row r="279" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="J279" s="17"/>
+    </row>
+    <row r="280" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="J280" s="17"/>
+    </row>
+    <row r="281" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="J281" s="17"/>
+    </row>
+    <row r="282" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="J282" s="17"/>
+    </row>
+    <row r="283" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="J283" s="17"/>
+    </row>
+    <row r="284" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="J284" s="17"/>
+    </row>
+    <row r="285" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="J285" s="17"/>
+    </row>
+    <row r="286" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="J286" s="17"/>
+    </row>
+    <row r="287" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="J287" s="17"/>
+    </row>
+    <row r="288" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="J288" s="17"/>
+    </row>
+    <row r="289" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="J289" s="17"/>
+    </row>
+    <row r="290" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="J290" s="17"/>
+    </row>
+    <row r="291" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="J291" s="17"/>
+    </row>
+    <row r="292" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="J292" s="17"/>
+    </row>
+    <row r="293" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="J293" s="17"/>
+    </row>
+    <row r="294" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="J294" s="17"/>
+    </row>
+    <row r="295" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="J295" s="17"/>
+    </row>
+    <row r="296" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="J296" s="17"/>
+    </row>
+    <row r="297" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="J297" s="17"/>
+    </row>
+    <row r="298" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="J298" s="17"/>
+    </row>
+    <row r="299" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="J299" s="17"/>
+    </row>
+    <row r="300" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="J300" s="17"/>
+    </row>
+    <row r="301" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="J301" s="17"/>
+    </row>
+    <row r="302" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="J302" s="17"/>
+    </row>
+    <row r="303" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="J303" s="17"/>
+    </row>
+    <row r="304" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="J304" s="17"/>
+    </row>
+    <row r="305" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="J305" s="17"/>
+    </row>
+    <row r="306" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="J306" s="17"/>
+    </row>
+    <row r="307" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="J307" s="17"/>
+    </row>
+    <row r="308" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="J308" s="17"/>
+    </row>
+    <row r="309" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="J309" s="17"/>
+    </row>
+    <row r="310" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="J310" s="17"/>
+    </row>
+    <row r="311" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="J311" s="17"/>
+    </row>
+    <row r="312" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="J312" s="17"/>
+    </row>
+    <row r="313" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="J313" s="17"/>
+    </row>
+    <row r="314" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="J314" s="17"/>
+    </row>
+    <row r="315" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="J315" s="17"/>
+    </row>
+    <row r="316" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="J316" s="17"/>
+    </row>
+    <row r="317" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="J317" s="17"/>
+    </row>
+    <row r="318" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="J318" s="17"/>
+    </row>
+    <row r="319" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="J319" s="17"/>
+    </row>
+    <row r="320" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="J320" s="17"/>
+    </row>
+    <row r="321" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="J321" s="17"/>
+    </row>
+    <row r="322" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="J322" s="17"/>
+    </row>
+    <row r="323" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="J323" s="17"/>
+    </row>
+    <row r="324" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="J324" s="17"/>
+    </row>
+    <row r="325" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="J325" s="17"/>
+    </row>
+    <row r="326" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="J326" s="17"/>
+    </row>
+    <row r="327" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="J327" s="17"/>
+    </row>
+    <row r="328" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="J328" s="17"/>
+    </row>
+    <row r="329" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="J329" s="17"/>
+    </row>
+    <row r="330" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="J330" s="17"/>
+    </row>
+    <row r="331" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="J331" s="17"/>
+    </row>
+    <row r="332" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="J332" s="17"/>
+    </row>
+    <row r="333" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="J333" s="17"/>
+    </row>
+    <row r="334" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="J334" s="17"/>
+    </row>
+    <row r="335" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="J335" s="17"/>
+    </row>
+    <row r="336" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="J336" s="17"/>
+    </row>
+    <row r="337" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="J337" s="17"/>
+    </row>
+    <row r="338" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="J338" s="17"/>
+    </row>
+    <row r="339" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="J339" s="17"/>
+    </row>
+    <row r="340" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="J340" s="17"/>
+    </row>
+    <row r="341" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="J341" s="17"/>
+    </row>
+    <row r="342" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="J342" s="17"/>
+    </row>
+    <row r="343" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="J343" s="17"/>
+    </row>
+    <row r="344" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="J344" s="17"/>
+    </row>
+    <row r="345" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="J345" s="17"/>
+    </row>
+    <row r="346" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="J346" s="17"/>
+    </row>
+    <row r="347" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
+      <c r="J347" s="17"/>
+    </row>
+    <row r="348" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="J348" s="17"/>
+    </row>
+    <row r="349" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="J349" s="17"/>
+    </row>
+    <row r="350" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
+      <c r="J350" s="17"/>
+    </row>
+    <row r="351" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="J351" s="17"/>
+    </row>
+    <row r="352" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="J352" s="17"/>
+    </row>
+    <row r="353" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="J353" s="17"/>
+    </row>
+    <row r="354" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="J354" s="17"/>
+    </row>
+    <row r="355" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
+      <c r="J355" s="17"/>
+    </row>
+    <row r="356" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="J356" s="17"/>
+    </row>
+    <row r="357" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="J357" s="17"/>
+    </row>
+    <row r="358" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="J358" s="17"/>
+    </row>
+    <row r="359" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="J359" s="17"/>
+    </row>
+    <row r="360" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="J360" s="17"/>
+    </row>
+    <row r="361" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="J361" s="17"/>
+    </row>
+    <row r="362" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
+      <c r="J362" s="17"/>
+    </row>
+    <row r="363" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="J363" s="17"/>
+    </row>
+    <row r="364" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="J364" s="17"/>
+    </row>
+    <row r="365" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
+      <c r="J365" s="17"/>
+    </row>
+    <row r="366" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="J366" s="17"/>
+    </row>
+    <row r="367" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
+      <c r="J367" s="17"/>
+    </row>
+    <row r="368" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="J368" s="17"/>
+    </row>
+    <row r="369" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="J369" s="17"/>
+    </row>
+    <row r="370" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="J370" s="17"/>
+    </row>
+    <row r="371" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
+      <c r="J371" s="17"/>
+    </row>
+    <row r="372" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
+      <c r="J372" s="17"/>
+    </row>
+    <row r="373" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
+      <c r="J373" s="17"/>
+    </row>
+    <row r="374" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
+      <c r="J374" s="17"/>
+    </row>
+    <row r="375" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="J375" s="17"/>
+    </row>
+    <row r="376" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="J376" s="17"/>
+    </row>
+    <row r="377" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
+      <c r="J377" s="17"/>
+    </row>
+    <row r="378" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
+      <c r="J378" s="17"/>
+    </row>
+    <row r="379" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
+      <c r="J379" s="17"/>
+    </row>
+    <row r="380" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="J380" s="17"/>
+    </row>
+    <row r="381" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="J381" s="17"/>
+    </row>
+    <row r="382" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="J382" s="17"/>
+    </row>
+    <row r="383" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="J383" s="17"/>
+    </row>
+    <row r="384" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
+      <c r="J384" s="17"/>
+    </row>
+    <row r="385" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="J385" s="17"/>
+    </row>
+    <row r="386" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="14"/>
+      <c r="C386" s="14"/>
+      <c r="J386" s="17"/>
+    </row>
+    <row r="387" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
+      <c r="J387" s="17"/>
+    </row>
+    <row r="388" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="14"/>
+      <c r="C388" s="14"/>
+      <c r="J388" s="17"/>
+    </row>
+    <row r="389" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
+      <c r="J389" s="17"/>
+    </row>
+    <row r="390" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
+      <c r="J390" s="17"/>
+    </row>
+    <row r="391" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
+      <c r="J391" s="17"/>
+    </row>
+    <row r="392" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
+      <c r="J392" s="17"/>
+    </row>
+    <row r="393" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
+      <c r="J393" s="17"/>
+    </row>
+    <row r="394" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+      <c r="J394" s="17"/>
+    </row>
+    <row r="395" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
+      <c r="J395" s="17"/>
+    </row>
+    <row r="396" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
+      <c r="J396" s="17"/>
+    </row>
+    <row r="397" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="14"/>
+      <c r="C397" s="14"/>
+      <c r="J397" s="17"/>
+    </row>
+    <row r="398" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
+      <c r="J398" s="17"/>
+    </row>
+    <row r="399" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
+      <c r="J399" s="17"/>
+    </row>
+    <row r="400" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="14"/>
+      <c r="C400" s="14"/>
+      <c r="J400" s="17"/>
+    </row>
+    <row r="401" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
+      <c r="J401" s="17"/>
+    </row>
+    <row r="402" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="14"/>
+      <c r="C402" s="14"/>
+      <c r="J402" s="17"/>
+    </row>
+    <row r="403" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
+      <c r="J403" s="17"/>
+    </row>
+    <row r="404" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
+      <c r="J404" s="17"/>
+    </row>
+    <row r="405" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
+      <c r="J405" s="17"/>
+    </row>
+    <row r="406" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
+      <c r="J406" s="17"/>
+    </row>
+    <row r="407" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
+      <c r="J407" s="17"/>
+    </row>
+    <row r="408" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
+      <c r="J408" s="17"/>
+    </row>
+    <row r="409" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="14"/>
+      <c r="C409" s="14"/>
+      <c r="J409" s="17"/>
+    </row>
+    <row r="410" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="14"/>
+      <c r="C410" s="14"/>
+      <c r="J410" s="17"/>
+    </row>
+    <row r="411" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
+      <c r="J411" s="17"/>
+    </row>
+    <row r="412" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="14"/>
+      <c r="C412" s="14"/>
+      <c r="J412" s="17"/>
+    </row>
+    <row r="413" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
+      <c r="J413" s="17"/>
+    </row>
+    <row r="414" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="14"/>
+      <c r="C414" s="14"/>
+      <c r="J414" s="17"/>
+    </row>
+    <row r="415" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+      <c r="J415" s="17"/>
+    </row>
+    <row r="416" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
+      <c r="J416" s="17"/>
+    </row>
+    <row r="417" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="14"/>
+      <c r="C417" s="14"/>
+      <c r="J417" s="17"/>
+    </row>
+    <row r="418" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
+      <c r="J418" s="17"/>
+    </row>
+    <row r="419" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="14"/>
+      <c r="C419" s="14"/>
+      <c r="J419" s="17"/>
+    </row>
+    <row r="420" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="14"/>
+      <c r="C420" s="14"/>
+      <c r="J420" s="17"/>
+    </row>
+    <row r="421" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="14"/>
+      <c r="C421" s="14"/>
+      <c r="J421" s="17"/>
+    </row>
+    <row r="422" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
+      <c r="J422" s="17"/>
+    </row>
+    <row r="423" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="J423" s="17"/>
+    </row>
+    <row r="424" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="14"/>
+      <c r="C424" s="14"/>
+      <c r="J424" s="17"/>
+    </row>
+    <row r="425" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="14"/>
+      <c r="C425" s="14"/>
+      <c r="J425" s="17"/>
+    </row>
+    <row r="426" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
+      <c r="J426" s="17"/>
+    </row>
+    <row r="427" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
+      <c r="J427" s="17"/>
+    </row>
+    <row r="428" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
+      <c r="J428" s="17"/>
+    </row>
+    <row r="429" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
+      <c r="J429" s="17"/>
+    </row>
+    <row r="430" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="14"/>
+      <c r="C430" s="14"/>
+      <c r="J430" s="17"/>
+    </row>
+    <row r="431" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="14"/>
+      <c r="C431" s="14"/>
+      <c r="J431" s="17"/>
+    </row>
+    <row r="432" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="J432" s="17"/>
+    </row>
+    <row r="433" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="J433" s="17"/>
+    </row>
+    <row r="434" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="J434" s="17"/>
+    </row>
+    <row r="435" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="J435" s="17"/>
+    </row>
+    <row r="436" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="J436" s="17"/>
+    </row>
+    <row r="437" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
+      <c r="J437" s="17"/>
+    </row>
+    <row r="438" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
+      <c r="J438" s="17"/>
+    </row>
+    <row r="439" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="14"/>
+      <c r="C439" s="14"/>
+      <c r="J439" s="17"/>
+    </row>
+    <row r="440" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="J440" s="17"/>
+    </row>
+    <row r="441" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
+      <c r="J441" s="17"/>
+    </row>
+    <row r="442" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="J442" s="17"/>
+    </row>
+    <row r="443" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="J443" s="17"/>
+    </row>
+    <row r="444" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
+      <c r="J444" s="17"/>
+    </row>
+    <row r="445" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="J445" s="17"/>
+    </row>
+    <row r="446" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="J446" s="17"/>
+    </row>
+    <row r="447" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="J447" s="17"/>
+    </row>
+    <row r="448" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="J448" s="17"/>
+    </row>
+    <row r="449" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="J449" s="17"/>
+    </row>
+    <row r="450" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="J450" s="17"/>
+    </row>
+    <row r="451" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="J451" s="17"/>
+    </row>
+    <row r="452" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="J452" s="17"/>
+    </row>
+    <row r="453" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="J453" s="17"/>
+    </row>
+    <row r="454" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="J454" s="17"/>
+    </row>
+    <row r="455" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="J455" s="17"/>
+    </row>
+    <row r="456" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
+      <c r="J456" s="17"/>
+    </row>
+    <row r="457" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="J457" s="17"/>
+    </row>
+    <row r="458" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="J458" s="17"/>
+    </row>
+    <row r="459" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="J459" s="17"/>
+    </row>
+    <row r="460" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
+      <c r="J460" s="17"/>
+    </row>
+    <row r="461" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="J461" s="17"/>
+    </row>
+    <row r="462" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="J462" s="17"/>
+    </row>
+    <row r="463" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="J463" s="17"/>
+    </row>
+    <row r="464" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
+      <c r="J464" s="17"/>
+    </row>
+    <row r="465" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="J465" s="17"/>
+    </row>
+    <row r="466" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="J466" s="17"/>
+    </row>
+    <row r="467" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="J467" s="17"/>
+    </row>
+    <row r="468" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="J468" s="17"/>
+    </row>
+    <row r="469" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="J469" s="17"/>
+    </row>
+    <row r="470" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
+      <c r="J470" s="17"/>
+    </row>
+    <row r="471" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="J471" s="17"/>
+    </row>
+    <row r="472" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
+      <c r="J472" s="17"/>
+    </row>
+    <row r="473" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
+      <c r="J473" s="17"/>
+    </row>
+    <row r="474" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
+      <c r="J474" s="17"/>
+    </row>
+    <row r="475" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
+      <c r="J475" s="17"/>
+    </row>
+    <row r="476" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="J476" s="17"/>
+    </row>
+    <row r="477" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
+      <c r="J477" s="17"/>
+    </row>
+    <row r="478" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
+      <c r="J478" s="17"/>
+    </row>
+    <row r="479" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
+      <c r="J479" s="17"/>
+    </row>
+    <row r="480" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
+      <c r="J480" s="17"/>
+    </row>
+    <row r="481" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
+      <c r="J481" s="17"/>
+    </row>
+    <row r="482" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="14"/>
+      <c r="C482" s="14"/>
+      <c r="J482" s="17"/>
+    </row>
+    <row r="483" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
+      <c r="J483" s="17"/>
+    </row>
+    <row r="484" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
+      <c r="J484" s="17"/>
+    </row>
+    <row r="485" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="14"/>
+      <c r="C485" s="14"/>
+      <c r="J485" s="17"/>
+    </row>
+    <row r="486" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="14"/>
+      <c r="C486" s="14"/>
+      <c r="J486" s="17"/>
+    </row>
+    <row r="487" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="14"/>
+      <c r="C487" s="14"/>
+      <c r="J487" s="17"/>
+    </row>
+    <row r="488" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="14"/>
+      <c r="C488" s="14"/>
+      <c r="J488" s="17"/>
+    </row>
+    <row r="489" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="14"/>
+      <c r="C489" s="14"/>
+      <c r="J489" s="17"/>
+    </row>
+    <row r="490" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="J490" s="17"/>
+    </row>
+    <row r="491" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="14"/>
+      <c r="C491" s="14"/>
+      <c r="J491" s="17"/>
+    </row>
+    <row r="492" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="J492" s="17"/>
+    </row>
+    <row r="493" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="14"/>
+      <c r="C493" s="14"/>
+      <c r="J493" s="17"/>
+    </row>
+    <row r="494" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="14"/>
+      <c r="C494" s="14"/>
+      <c r="J494" s="17"/>
+    </row>
+    <row r="495" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="J495" s="17"/>
+    </row>
+    <row r="496" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="14"/>
+      <c r="C496" s="14"/>
+      <c r="J496" s="17"/>
+    </row>
+    <row r="497" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="14"/>
+      <c r="C497" s="14"/>
+      <c r="J497" s="17"/>
+    </row>
+    <row r="498" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="J498" s="17"/>
+    </row>
+    <row r="499" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="14"/>
+      <c r="C499" s="14"/>
+      <c r="J499" s="17"/>
+    </row>
+    <row r="500" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="14"/>
+      <c r="C500" s="14"/>
+      <c r="J500" s="17"/>
+    </row>
+    <row r="501" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="14"/>
+      <c r="C501" s="14"/>
+      <c r="J501" s="17"/>
+    </row>
+    <row r="502" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="J502" s="17"/>
+    </row>
+    <row r="503" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="14"/>
+      <c r="C503" s="14"/>
+      <c r="J503" s="17"/>
+    </row>
+    <row r="504" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="14"/>
+      <c r="C504" s="14"/>
+      <c r="J504" s="17"/>
+    </row>
+    <row r="505" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="14"/>
+      <c r="C505" s="14"/>
+      <c r="J505" s="17"/>
+    </row>
+    <row r="506" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="14"/>
+      <c r="C506" s="14"/>
+      <c r="J506" s="17"/>
+    </row>
+    <row r="507" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="14"/>
+      <c r="C507" s="14"/>
+      <c r="J507" s="17"/>
+    </row>
+    <row r="508" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="14"/>
+      <c r="C508" s="14"/>
+      <c r="J508" s="17"/>
+    </row>
+    <row r="509" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="14"/>
+      <c r="C509" s="14"/>
+      <c r="J509" s="17"/>
+    </row>
+    <row r="510" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="J510" s="17"/>
+    </row>
+    <row r="511" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="14"/>
+      <c r="C511" s="14"/>
+      <c r="J511" s="17"/>
+    </row>
+    <row r="512" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="14"/>
+      <c r="C512" s="14"/>
+      <c r="J512" s="17"/>
+    </row>
+    <row r="513" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="14"/>
+      <c r="C513" s="14"/>
+      <c r="J513" s="17"/>
+    </row>
+    <row r="514" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="14"/>
+      <c r="C514" s="14"/>
+      <c r="J514" s="17"/>
+    </row>
+    <row r="515" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="J515" s="17"/>
+    </row>
+    <row r="516" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="14"/>
+      <c r="C516" s="14"/>
+      <c r="J516" s="17"/>
+    </row>
+    <row r="517" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="14"/>
+      <c r="C517" s="14"/>
+      <c r="J517" s="17"/>
+    </row>
+    <row r="518" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="J518" s="17"/>
+    </row>
+    <row r="519" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="14"/>
+      <c r="C519" s="14"/>
+      <c r="J519" s="17"/>
+    </row>
+    <row r="520" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="14"/>
+      <c r="C520" s="14"/>
+      <c r="J520" s="17"/>
+    </row>
+    <row r="521" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="J521" s="17"/>
+    </row>
+    <row r="522" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="14"/>
+      <c r="C522" s="14"/>
+      <c r="J522" s="17"/>
+    </row>
+    <row r="523" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="14"/>
+      <c r="C523" s="14"/>
+      <c r="J523" s="17"/>
+    </row>
+    <row r="524" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="14"/>
+      <c r="C524" s="14"/>
+      <c r="J524" s="17"/>
+    </row>
+    <row r="525" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="14"/>
+      <c r="C525" s="14"/>
+      <c r="J525" s="17"/>
+    </row>
+    <row r="526" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="14"/>
+      <c r="C526" s="14"/>
+      <c r="J526" s="17"/>
+    </row>
+    <row r="527" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="14"/>
+      <c r="C527" s="14"/>
+      <c r="J527" s="17"/>
+    </row>
+    <row r="528" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="14"/>
+      <c r="C528" s="14"/>
+      <c r="J528" s="17"/>
+    </row>
+    <row r="529" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="14"/>
+      <c r="C529" s="14"/>
+      <c r="J529" s="17"/>
+    </row>
+    <row r="530" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="14"/>
+      <c r="C530" s="14"/>
+      <c r="J530" s="17"/>
+    </row>
+    <row r="531" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="14"/>
+      <c r="C531" s="14"/>
+      <c r="J531" s="17"/>
+    </row>
+    <row r="532" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="J532" s="17"/>
+    </row>
+    <row r="533" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+      <c r="J533" s="17"/>
+    </row>
+    <row r="534" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+      <c r="J534" s="17"/>
+    </row>
+    <row r="535" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+      <c r="J535" s="17"/>
+    </row>
+    <row r="536" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="14"/>
+      <c r="C536" s="14"/>
+      <c r="J536" s="17"/>
+    </row>
+    <row r="537" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="14"/>
+      <c r="C537" s="14"/>
+      <c r="J537" s="17"/>
+    </row>
+    <row r="538" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
+      <c r="J538" s="17"/>
+    </row>
+    <row r="539" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="14"/>
+      <c r="C539" s="14"/>
+      <c r="J539" s="17"/>
+    </row>
+    <row r="540" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="14"/>
+      <c r="C540" s="14"/>
+      <c r="J540" s="17"/>
+    </row>
+    <row r="541" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="14"/>
+      <c r="C541" s="14"/>
+      <c r="J541" s="17"/>
+    </row>
+    <row r="542" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="J542" s="17"/>
+    </row>
+    <row r="543" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="J543" s="17"/>
+    </row>
+    <row r="544" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="14"/>
+      <c r="C544" s="14"/>
+      <c r="J544" s="17"/>
+    </row>
+    <row r="545" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="J545" s="17"/>
+    </row>
+    <row r="546" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="14"/>
+      <c r="C546" s="14"/>
+      <c r="J546" s="17"/>
+    </row>
+    <row r="547" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="J547" s="17"/>
+    </row>
+    <row r="548" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="14"/>
+      <c r="C548" s="14"/>
+      <c r="J548" s="17"/>
+    </row>
+    <row r="549" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="J549" s="17"/>
+    </row>
+    <row r="550" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="14"/>
+      <c r="C550" s="14"/>
+      <c r="J550" s="17"/>
+    </row>
+    <row r="551" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="J551" s="17"/>
+    </row>
+    <row r="552" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
+      <c r="J552" s="17"/>
+    </row>
+    <row r="553" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="14"/>
+      <c r="C553" s="14"/>
+      <c r="J553" s="17"/>
+    </row>
+    <row r="554" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="J554" s="17"/>
+    </row>
+    <row r="555" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="14"/>
+      <c r="C555" s="14"/>
+      <c r="J555" s="17"/>
+    </row>
+    <row r="556" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="J556" s="17"/>
+    </row>
+    <row r="557" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="J557" s="17"/>
+    </row>
+    <row r="558" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="14"/>
+      <c r="C558" s="14"/>
+      <c r="J558" s="17"/>
+    </row>
+    <row r="559" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="14"/>
+      <c r="C559" s="14"/>
+      <c r="J559" s="17"/>
+    </row>
+    <row r="560" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="14"/>
+      <c r="C560" s="14"/>
+      <c r="J560" s="17"/>
+    </row>
+    <row r="561" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="J561" s="17"/>
+    </row>
+    <row r="562" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="14"/>
+      <c r="C562" s="14"/>
+      <c r="J562" s="17"/>
+    </row>
+    <row r="563" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="14"/>
+      <c r="C563" s="14"/>
+      <c r="J563" s="17"/>
+    </row>
+    <row r="564" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="14"/>
+      <c r="C564" s="14"/>
+      <c r="J564" s="17"/>
+    </row>
+    <row r="565" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="14"/>
+      <c r="C565" s="14"/>
+      <c r="J565" s="17"/>
+    </row>
+    <row r="566" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="14"/>
+      <c r="C566" s="14"/>
+      <c r="J566" s="17"/>
+    </row>
+    <row r="567" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="14"/>
+      <c r="C567" s="14"/>
+      <c r="J567" s="17"/>
+    </row>
+    <row r="568" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="14"/>
+      <c r="C568" s="14"/>
+      <c r="J568" s="17"/>
+    </row>
+    <row r="569" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="14"/>
+      <c r="C569" s="14"/>
+      <c r="J569" s="17"/>
+    </row>
+    <row r="570" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="14"/>
+      <c r="C570" s="14"/>
+      <c r="J570" s="17"/>
+    </row>
+    <row r="571" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="J571" s="17"/>
+    </row>
+    <row r="572" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="14"/>
+      <c r="C572" s="14"/>
+      <c r="J572" s="17"/>
+    </row>
+    <row r="573" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="14"/>
+      <c r="C573" s="14"/>
+      <c r="J573" s="17"/>
+    </row>
+    <row r="574" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="14"/>
+      <c r="C574" s="14"/>
+      <c r="J574" s="17"/>
+    </row>
+    <row r="575" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="14"/>
+      <c r="C575" s="14"/>
+      <c r="J575" s="17"/>
+    </row>
+    <row r="576" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="J576" s="17"/>
+    </row>
+    <row r="577" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="14"/>
+      <c r="C577" s="14"/>
+      <c r="J577" s="17"/>
+    </row>
+    <row r="578" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="14"/>
+      <c r="C578" s="14"/>
+      <c r="J578" s="17"/>
+    </row>
+    <row r="579" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="J579" s="17"/>
+    </row>
+    <row r="580" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="14"/>
+      <c r="C580" s="14"/>
+      <c r="J580" s="17"/>
+    </row>
+    <row r="581" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="14"/>
+      <c r="C581" s="14"/>
+      <c r="J581" s="17"/>
+    </row>
+    <row r="582" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="14"/>
+      <c r="C582" s="14"/>
+      <c r="J582" s="17"/>
+    </row>
+    <row r="583" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+      <c r="J583" s="17"/>
+    </row>
+    <row r="584" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="14"/>
+      <c r="C584" s="14"/>
+      <c r="J584" s="17"/>
+    </row>
+    <row r="585" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="14"/>
+      <c r="C585" s="14"/>
+      <c r="J585" s="17"/>
+    </row>
+    <row r="586" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="14"/>
+      <c r="C586" s="14"/>
+      <c r="J586" s="17"/>
+    </row>
+    <row r="587" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="14"/>
+      <c r="C587" s="14"/>
+      <c r="J587" s="17"/>
+    </row>
+    <row r="588" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="14"/>
+      <c r="C588" s="14"/>
+      <c r="J588" s="17"/>
+    </row>
+    <row r="589" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="14"/>
+      <c r="C589" s="14"/>
+      <c r="J589" s="17"/>
+    </row>
+    <row r="590" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="14"/>
+      <c r="C590" s="14"/>
+      <c r="J590" s="17"/>
+    </row>
+    <row r="591" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="14"/>
+      <c r="C591" s="14"/>
+      <c r="J591" s="17"/>
+    </row>
+    <row r="592" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="14"/>
+      <c r="C592" s="14"/>
+      <c r="J592" s="17"/>
+    </row>
+    <row r="593" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="14"/>
+      <c r="C593" s="14"/>
+      <c r="J593" s="17"/>
+    </row>
+    <row r="594" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="J594" s="17"/>
+    </row>
+    <row r="595" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="14"/>
+      <c r="C595" s="14"/>
+      <c r="J595" s="17"/>
+    </row>
+    <row r="596" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="14"/>
+      <c r="C596" s="14"/>
+      <c r="J596" s="17"/>
+    </row>
+    <row r="597" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="14"/>
+      <c r="C597" s="14"/>
+      <c r="J597" s="17"/>
+    </row>
+    <row r="598" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="14"/>
+      <c r="C598" s="14"/>
+      <c r="J598" s="17"/>
+    </row>
+    <row r="599" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="14"/>
+      <c r="C599" s="14"/>
+      <c r="J599" s="17"/>
+    </row>
+    <row r="600" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="14"/>
+      <c r="C600" s="14"/>
+      <c r="J600" s="17"/>
+    </row>
+    <row r="601" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="14"/>
+      <c r="C601" s="14"/>
+      <c r="J601" s="17"/>
+    </row>
+    <row r="602" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="J602" s="17"/>
+    </row>
+    <row r="603" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="J603" s="17"/>
+    </row>
+    <row r="604" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="14"/>
+      <c r="C604" s="14"/>
+      <c r="J604" s="17"/>
+    </row>
+    <row r="605" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="14"/>
+      <c r="C605" s="14"/>
+      <c r="J605" s="17"/>
+    </row>
+    <row r="606" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="J606" s="17"/>
+    </row>
+    <row r="607" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="14"/>
+      <c r="C607" s="14"/>
+      <c r="J607" s="17"/>
+    </row>
+    <row r="608" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="14"/>
+      <c r="C608" s="14"/>
+      <c r="J608" s="17"/>
+    </row>
+    <row r="609" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="14"/>
+      <c r="C609" s="14"/>
+      <c r="J609" s="17"/>
+    </row>
+    <row r="610" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="14"/>
+      <c r="C610" s="14"/>
+      <c r="J610" s="17"/>
+    </row>
+    <row r="611" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="14"/>
+      <c r="C611" s="14"/>
+      <c r="J611" s="17"/>
+    </row>
+    <row r="612" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="14"/>
+      <c r="C612" s="14"/>
+      <c r="J612" s="17"/>
+    </row>
+    <row r="613" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="14"/>
+      <c r="C613" s="14"/>
+      <c r="J613" s="17"/>
+    </row>
+    <row r="614" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="14"/>
+      <c r="C614" s="14"/>
+      <c r="J614" s="17"/>
+    </row>
+    <row r="615" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="14"/>
+      <c r="C615" s="14"/>
+      <c r="J615" s="17"/>
+    </row>
+    <row r="616" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="14"/>
+      <c r="C616" s="14"/>
+      <c r="J616" s="17"/>
+    </row>
+    <row r="617" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="14"/>
+      <c r="C617" s="14"/>
+      <c r="J617" s="17"/>
+    </row>
+    <row r="618" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="14"/>
+      <c r="C618" s="14"/>
+      <c r="J618" s="17"/>
+    </row>
+    <row r="619" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="J619" s="17"/>
+    </row>
+    <row r="620" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="14"/>
+      <c r="C620" s="14"/>
+      <c r="J620" s="17"/>
+    </row>
+    <row r="621" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="J621" s="17"/>
+    </row>
+    <row r="622" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="14"/>
+      <c r="C622" s="14"/>
+      <c r="J622" s="17"/>
+    </row>
+    <row r="623" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="J623" s="17"/>
+    </row>
+    <row r="624" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="14"/>
+      <c r="C624" s="14"/>
+      <c r="J624" s="17"/>
+    </row>
+    <row r="625" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="J625" s="17"/>
+    </row>
+    <row r="626" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="14"/>
+      <c r="C626" s="14"/>
+      <c r="J626" s="17"/>
+    </row>
+    <row r="627" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="J627" s="17"/>
+    </row>
+    <row r="628" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="14"/>
+      <c r="C628" s="14"/>
+      <c r="J628" s="17"/>
+    </row>
+    <row r="629" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="14"/>
+      <c r="C629" s="14"/>
+      <c r="J629" s="17"/>
+    </row>
+    <row r="630" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="14"/>
+      <c r="C630" s="14"/>
+      <c r="J630" s="17"/>
+    </row>
+    <row r="631" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="J631" s="17"/>
+    </row>
+    <row r="632" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="14"/>
+      <c r="C632" s="14"/>
+      <c r="J632" s="17"/>
+    </row>
+    <row r="633" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="14"/>
+      <c r="C633" s="14"/>
+      <c r="J633" s="17"/>
+    </row>
+    <row r="634" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="14"/>
+      <c r="C634" s="14"/>
+      <c r="J634" s="17"/>
+    </row>
+    <row r="635" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="14"/>
+      <c r="C635" s="14"/>
+      <c r="J635" s="17"/>
+    </row>
+    <row r="636" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="14"/>
+      <c r="C636" s="14"/>
+      <c r="J636" s="17"/>
+    </row>
+    <row r="637" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="14"/>
+      <c r="C637" s="14"/>
+      <c r="J637" s="17"/>
+    </row>
+    <row r="638" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="J638" s="17"/>
+    </row>
+    <row r="639" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="14"/>
+      <c r="C639" s="14"/>
+      <c r="J639" s="17"/>
+    </row>
+    <row r="640" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="14"/>
+      <c r="C640" s="14"/>
+      <c r="J640" s="17"/>
+    </row>
+    <row r="641" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="14"/>
+      <c r="C641" s="14"/>
+      <c r="J641" s="17"/>
+    </row>
+    <row r="642" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="14"/>
+      <c r="C642" s="14"/>
+      <c r="J642" s="17"/>
+    </row>
+    <row r="643" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="14"/>
+      <c r="C643" s="14"/>
+      <c r="J643" s="17"/>
+    </row>
+    <row r="644" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="14"/>
+      <c r="C644" s="14"/>
+      <c r="J644" s="17"/>
+    </row>
+    <row r="645" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="14"/>
+      <c r="C645" s="14"/>
+      <c r="J645" s="17"/>
+    </row>
+    <row r="646" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="14"/>
+      <c r="C646" s="14"/>
+      <c r="J646" s="17"/>
+    </row>
+    <row r="647" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="J647" s="17"/>
+    </row>
+    <row r="648" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="14"/>
+      <c r="C648" s="14"/>
+      <c r="J648" s="17"/>
+    </row>
+    <row r="649" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="14"/>
+      <c r="C649" s="14"/>
+      <c r="J649" s="17"/>
+    </row>
+    <row r="650" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="14"/>
+      <c r="C650" s="14"/>
+      <c r="J650" s="17"/>
+    </row>
+    <row r="651" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="14"/>
+      <c r="C651" s="14"/>
+      <c r="J651" s="17"/>
+    </row>
+    <row r="652" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="14"/>
+      <c r="C652" s="14"/>
+      <c r="J652" s="17"/>
+    </row>
+    <row r="653" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="J653" s="17"/>
+    </row>
+    <row r="654" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="14"/>
+      <c r="C654" s="14"/>
+      <c r="J654" s="17"/>
+    </row>
+    <row r="655" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="14"/>
+      <c r="C655" s="14"/>
+      <c r="J655" s="17"/>
+    </row>
+    <row r="656" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="14"/>
+      <c r="C656" s="14"/>
+      <c r="J656" s="17"/>
+    </row>
+    <row r="657" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="14"/>
+      <c r="C657" s="14"/>
+      <c r="J657" s="17"/>
+    </row>
+    <row r="658" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="J658" s="17"/>
+    </row>
+    <row r="659" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="14"/>
+      <c r="C659" s="14"/>
+      <c r="J659" s="17"/>
+    </row>
+    <row r="660" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="14"/>
+      <c r="C660" s="14"/>
+      <c r="J660" s="17"/>
+    </row>
+    <row r="661" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="J661" s="17"/>
+    </row>
+    <row r="662" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="14"/>
+      <c r="C662" s="14"/>
+      <c r="J662" s="17"/>
+    </row>
+    <row r="663" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="J663" s="17"/>
+    </row>
+    <row r="664" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="14"/>
+      <c r="C664" s="14"/>
+      <c r="J664" s="17"/>
+    </row>
+    <row r="665" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="14"/>
+      <c r="C665" s="14"/>
+      <c r="J665" s="17"/>
+    </row>
+    <row r="666" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="J666" s="17"/>
+    </row>
+    <row r="667" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="14"/>
+      <c r="C667" s="14"/>
+      <c r="J667" s="17"/>
+    </row>
+    <row r="668" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="14"/>
+      <c r="C668" s="14"/>
+      <c r="J668" s="17"/>
+    </row>
+    <row r="669" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="J669" s="17"/>
+    </row>
+    <row r="670" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="14"/>
+      <c r="C670" s="14"/>
+      <c r="J670" s="17"/>
+    </row>
+    <row r="671" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="J671" s="17"/>
+    </row>
+    <row r="672" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="14"/>
+      <c r="C672" s="14"/>
+      <c r="J672" s="17"/>
+    </row>
+    <row r="673" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="J673" s="17"/>
+    </row>
+    <row r="674" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="14"/>
+      <c r="C674" s="14"/>
+      <c r="J674" s="17"/>
+    </row>
+    <row r="675" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="14"/>
+      <c r="C675" s="14"/>
+      <c r="J675" s="17"/>
+    </row>
+    <row r="676" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="14"/>
+      <c r="C676" s="14"/>
+      <c r="J676" s="17"/>
+    </row>
+    <row r="677" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="14"/>
+      <c r="C677" s="14"/>
+      <c r="J677" s="17"/>
+    </row>
+    <row r="678" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="J678" s="17"/>
+    </row>
+    <row r="679" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="14"/>
+      <c r="C679" s="14"/>
+      <c r="J679" s="17"/>
+    </row>
+    <row r="680" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="14"/>
+      <c r="C680" s="14"/>
+      <c r="J680" s="17"/>
+    </row>
+    <row r="681" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="14"/>
+      <c r="C681" s="14"/>
+      <c r="J681" s="17"/>
+    </row>
+    <row r="682" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="14"/>
+      <c r="C682" s="14"/>
+      <c r="J682" s="17"/>
+    </row>
+    <row r="683" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="14"/>
+      <c r="C683" s="14"/>
+      <c r="J683" s="17"/>
+    </row>
+    <row r="684" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="14"/>
+      <c r="C684" s="14"/>
+      <c r="J684" s="17"/>
+    </row>
+    <row r="685" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="14"/>
+      <c r="C685" s="14"/>
+      <c r="J685" s="17"/>
+    </row>
+    <row r="686" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="J686" s="17"/>
+    </row>
+    <row r="687" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="14"/>
+      <c r="C687" s="14"/>
+      <c r="J687" s="17"/>
+    </row>
+    <row r="688" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="14"/>
+      <c r="C688" s="14"/>
+      <c r="J688" s="17"/>
+    </row>
+    <row r="689" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="14"/>
+      <c r="C689" s="14"/>
+      <c r="J689" s="17"/>
+    </row>
+    <row r="690" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="14"/>
+      <c r="C690" s="14"/>
+      <c r="J690" s="17"/>
+    </row>
+    <row r="691" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="14"/>
+      <c r="C691" s="14"/>
+      <c r="J691" s="17"/>
+    </row>
+    <row r="692" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="14"/>
+      <c r="C692" s="14"/>
+      <c r="J692" s="17"/>
+    </row>
+    <row r="693" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="14"/>
+      <c r="C693" s="14"/>
+      <c r="J693" s="17"/>
+    </row>
+    <row r="694" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="14"/>
+      <c r="C694" s="14"/>
+      <c r="J694" s="17"/>
+    </row>
+    <row r="695" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="14"/>
+      <c r="C695" s="14"/>
+      <c r="J695" s="17"/>
+    </row>
+    <row r="696" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="14"/>
+      <c r="C696" s="14"/>
+      <c r="J696" s="17"/>
+    </row>
+    <row r="697" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="14"/>
+      <c r="C697" s="14"/>
+      <c r="J697" s="17"/>
+    </row>
+    <row r="698" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="14"/>
+      <c r="C698" s="14"/>
+      <c r="J698" s="17"/>
+    </row>
+    <row r="699" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="14"/>
+      <c r="C699" s="14"/>
+      <c r="J699" s="17"/>
+    </row>
+    <row r="700" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="14"/>
+      <c r="C700" s="14"/>
+      <c r="J700" s="17"/>
+    </row>
+    <row r="701" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="J701" s="17"/>
+    </row>
+    <row r="702" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="14"/>
+      <c r="C702" s="14"/>
+      <c r="J702" s="17"/>
+    </row>
+    <row r="703" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="14"/>
+      <c r="C703" s="14"/>
+      <c r="J703" s="17"/>
+    </row>
+    <row r="704" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="J704" s="17"/>
+    </row>
+    <row r="705" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="14"/>
+      <c r="C705" s="14"/>
+      <c r="J705" s="17"/>
+    </row>
+    <row r="706" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="14"/>
+      <c r="C706" s="14"/>
+      <c r="J706" s="17"/>
+    </row>
+    <row r="707" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="14"/>
+      <c r="C707" s="14"/>
+      <c r="J707" s="17"/>
+    </row>
+    <row r="708" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="14"/>
+      <c r="C708" s="14"/>
+      <c r="J708" s="17"/>
+    </row>
+    <row r="709" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="14"/>
+      <c r="C709" s="14"/>
+      <c r="J709" s="17"/>
+    </row>
+    <row r="710" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="14"/>
+      <c r="C710" s="14"/>
+      <c r="J710" s="17"/>
+    </row>
+    <row r="711" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="14"/>
+      <c r="C711" s="14"/>
+      <c r="J711" s="17"/>
+    </row>
+    <row r="712" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="14"/>
+      <c r="C712" s="14"/>
+      <c r="J712" s="17"/>
+    </row>
+    <row r="713" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="14"/>
+      <c r="C713" s="14"/>
+      <c r="J713" s="17"/>
+    </row>
+    <row r="714" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="14"/>
+      <c r="C714" s="14"/>
+      <c r="J714" s="17"/>
+    </row>
+    <row r="715" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="14"/>
+      <c r="C715" s="14"/>
+      <c r="J715" s="17"/>
+    </row>
+    <row r="716" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="14"/>
+      <c r="C716" s="14"/>
+      <c r="J716" s="17"/>
+    </row>
+    <row r="717" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="J717" s="17"/>
+    </row>
+    <row r="718" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="14"/>
+      <c r="C718" s="14"/>
+      <c r="J718" s="17"/>
+    </row>
+    <row r="719" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="J719" s="17"/>
+    </row>
+    <row r="720" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="14"/>
+      <c r="C720" s="14"/>
+      <c r="J720" s="17"/>
+    </row>
+    <row r="721" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="14"/>
+      <c r="C721" s="14"/>
+      <c r="J721" s="17"/>
+    </row>
+    <row r="722" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="14"/>
+      <c r="C722" s="14"/>
+      <c r="J722" s="17"/>
+    </row>
+    <row r="723" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="14"/>
+      <c r="C723" s="14"/>
+      <c r="J723" s="17"/>
+    </row>
+    <row r="724" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="14"/>
+      <c r="C724" s="14"/>
+      <c r="J724" s="17"/>
+    </row>
+    <row r="725" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="J725" s="17"/>
+    </row>
+    <row r="726" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="14"/>
+      <c r="C726" s="14"/>
+      <c r="J726" s="17"/>
+    </row>
+    <row r="727" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="14"/>
+      <c r="C727" s="14"/>
+      <c r="J727" s="17"/>
+    </row>
+    <row r="728" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="14"/>
+      <c r="C728" s="14"/>
+      <c r="J728" s="17"/>
+    </row>
+    <row r="729" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="14"/>
+      <c r="C729" s="14"/>
+      <c r="J729" s="17"/>
+    </row>
+    <row r="730" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="14"/>
+      <c r="C730" s="14"/>
+      <c r="J730" s="17"/>
+    </row>
+    <row r="731" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="14"/>
+      <c r="C731" s="14"/>
+      <c r="J731" s="17"/>
+    </row>
+    <row r="732" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="14"/>
+      <c r="C732" s="14"/>
+      <c r="J732" s="17"/>
+    </row>
+    <row r="733" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="14"/>
+      <c r="C733" s="14"/>
+      <c r="J733" s="17"/>
+    </row>
+    <row r="734" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="J734" s="17"/>
+    </row>
+    <row r="735" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="14"/>
+      <c r="C735" s="14"/>
+      <c r="J735" s="17"/>
+    </row>
+    <row r="736" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="14"/>
+      <c r="C736" s="14"/>
+      <c r="J736" s="17"/>
+    </row>
+    <row r="737" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="14"/>
+      <c r="C737" s="14"/>
+      <c r="J737" s="17"/>
+    </row>
+    <row r="738" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="14"/>
+      <c r="C738" s="14"/>
+      <c r="J738" s="17"/>
+    </row>
+    <row r="739" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="14"/>
+      <c r="C739" s="14"/>
+      <c r="J739" s="17"/>
+    </row>
+    <row r="740" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="14"/>
+      <c r="C740" s="14"/>
+      <c r="J740" s="17"/>
+    </row>
+    <row r="741" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="J741" s="17"/>
+    </row>
+    <row r="742" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="14"/>
+      <c r="C742" s="14"/>
+      <c r="J742" s="17"/>
+    </row>
+    <row r="743" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="14"/>
+      <c r="C743" s="14"/>
+      <c r="J743" s="17"/>
+    </row>
+    <row r="744" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="14"/>
+      <c r="C744" s="14"/>
+      <c r="J744" s="17"/>
+    </row>
+    <row r="745" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="14"/>
+      <c r="C745" s="14"/>
+      <c r="J745" s="17"/>
+    </row>
+    <row r="746" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="14"/>
+      <c r="C746" s="14"/>
+      <c r="J746" s="17"/>
+    </row>
+    <row r="747" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="14"/>
+      <c r="C747" s="14"/>
+      <c r="J747" s="17"/>
+    </row>
+    <row r="748" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="14"/>
+      <c r="C748" s="14"/>
+      <c r="J748" s="17"/>
+    </row>
+    <row r="749" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="J749" s="17"/>
+    </row>
+    <row r="750" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="14"/>
+      <c r="C750" s="14"/>
+      <c r="J750" s="17"/>
+    </row>
+    <row r="751" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="14"/>
+      <c r="C751" s="14"/>
+      <c r="J751" s="17"/>
+    </row>
+    <row r="752" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="14"/>
+      <c r="C752" s="14"/>
+      <c r="J752" s="17"/>
+    </row>
+    <row r="753" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="14"/>
+      <c r="C753" s="14"/>
+      <c r="J753" s="17"/>
+    </row>
+    <row r="754" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="14"/>
+      <c r="C754" s="14"/>
+      <c r="J754" s="17"/>
+    </row>
+    <row r="755" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="14"/>
+      <c r="C755" s="14"/>
+      <c r="J755" s="17"/>
+    </row>
+    <row r="756" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="14"/>
+      <c r="C756" s="14"/>
+      <c r="J756" s="17"/>
+    </row>
+    <row r="757" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="14"/>
+      <c r="C757" s="14"/>
+      <c r="J757" s="17"/>
+    </row>
+    <row r="758" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="J758" s="17"/>
+    </row>
+    <row r="759" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="14"/>
+      <c r="C759" s="14"/>
+      <c r="J759" s="17"/>
+    </row>
+    <row r="760" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="J760" s="17"/>
+    </row>
+    <row r="761" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="14"/>
+      <c r="C761" s="14"/>
+      <c r="J761" s="17"/>
+    </row>
+    <row r="762" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="14"/>
+      <c r="C762" s="14"/>
+      <c r="J762" s="17"/>
+    </row>
+    <row r="763" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="14"/>
+      <c r="C763" s="14"/>
+      <c r="J763" s="17"/>
+    </row>
+    <row r="764" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="14"/>
+      <c r="C764" s="14"/>
+      <c r="J764" s="17"/>
+    </row>
+    <row r="765" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="J765" s="17"/>
+    </row>
+    <row r="766" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="14"/>
+      <c r="C766" s="14"/>
+      <c r="J766" s="17"/>
+    </row>
+    <row r="767" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="14"/>
+      <c r="C767" s="14"/>
+      <c r="J767" s="17"/>
+    </row>
+    <row r="768" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="J768" s="17"/>
+    </row>
+    <row r="769" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="14"/>
+      <c r="C769" s="14"/>
+      <c r="J769" s="17"/>
+    </row>
+    <row r="770" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="14"/>
+      <c r="C770" s="14"/>
+      <c r="J770" s="17"/>
+    </row>
+    <row r="771" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="14"/>
+      <c r="C771" s="14"/>
+      <c r="J771" s="17"/>
+    </row>
+    <row r="772" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="14"/>
+      <c r="C772" s="14"/>
+      <c r="J772" s="17"/>
+    </row>
+    <row r="773" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="14"/>
+      <c r="C773" s="14"/>
+      <c r="J773" s="17"/>
+    </row>
+    <row r="774" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="14"/>
+      <c r="C774" s="14"/>
+      <c r="J774" s="17"/>
+    </row>
+    <row r="775" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="14"/>
+      <c r="C775" s="14"/>
+      <c r="J775" s="17"/>
+    </row>
+    <row r="776" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="14"/>
+      <c r="C776" s="14"/>
+      <c r="J776" s="17"/>
+    </row>
+    <row r="777" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
+      <c r="J777" s="17"/>
+    </row>
+    <row r="778" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="14"/>
+      <c r="C778" s="14"/>
+      <c r="J778" s="17"/>
+    </row>
+    <row r="779" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="J779" s="17"/>
+    </row>
+    <row r="780" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="14"/>
+      <c r="C780" s="14"/>
+      <c r="J780" s="17"/>
+    </row>
+    <row r="781" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="14"/>
+      <c r="C781" s="14"/>
+      <c r="J781" s="17"/>
+    </row>
+    <row r="782" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="14"/>
+      <c r="C782" s="14"/>
+      <c r="J782" s="17"/>
+    </row>
+    <row r="783" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="14"/>
+      <c r="C783" s="14"/>
+      <c r="J783" s="17"/>
+    </row>
+    <row r="784" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="14"/>
+      <c r="C784" s="14"/>
+      <c r="J784" s="17"/>
+    </row>
+    <row r="785" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="14"/>
+      <c r="C785" s="14"/>
+      <c r="J785" s="17"/>
+    </row>
+    <row r="786" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="14"/>
+      <c r="C786" s="14"/>
+      <c r="J786" s="17"/>
+    </row>
+    <row r="787" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="14"/>
+      <c r="C787" s="14"/>
+      <c r="J787" s="17"/>
+    </row>
+    <row r="788" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="14"/>
+      <c r="C788" s="14"/>
+      <c r="J788" s="17"/>
+    </row>
+    <row r="789" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="14"/>
+      <c r="C789" s="14"/>
+      <c r="J789" s="17"/>
+    </row>
+    <row r="790" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="14"/>
+      <c r="C790" s="14"/>
+      <c r="J790" s="17"/>
+    </row>
+    <row r="791" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="J791" s="17"/>
+    </row>
+    <row r="792" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="14"/>
+      <c r="C792" s="14"/>
+      <c r="J792" s="17"/>
+    </row>
+    <row r="793" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="14"/>
+      <c r="C793" s="14"/>
+      <c r="J793" s="17"/>
+    </row>
+    <row r="794" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="14"/>
+      <c r="C794" s="14"/>
+      <c r="J794" s="17"/>
+    </row>
+    <row r="795" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="14"/>
+      <c r="C795" s="14"/>
+      <c r="J795" s="17"/>
+    </row>
+    <row r="796" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="14"/>
+      <c r="C796" s="14"/>
+      <c r="J796" s="17"/>
+    </row>
+    <row r="797" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="14"/>
+      <c r="C797" s="14"/>
+      <c r="J797" s="17"/>
+    </row>
+    <row r="798" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="J798" s="17"/>
+    </row>
+    <row r="799" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="14"/>
+      <c r="C799" s="14"/>
+      <c r="J799" s="17"/>
+    </row>
+    <row r="800" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="J800" s="17"/>
+    </row>
+    <row r="801" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="14"/>
+      <c r="C801" s="14"/>
+      <c r="J801" s="17"/>
+    </row>
+    <row r="802" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="14"/>
+      <c r="C802" s="14"/>
+      <c r="J802" s="17"/>
+    </row>
+    <row r="803" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="14"/>
+      <c r="C803" s="14"/>
+      <c r="J803" s="17"/>
+    </row>
+    <row r="804" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="14"/>
+      <c r="C804" s="14"/>
+      <c r="J804" s="17"/>
+    </row>
+    <row r="805" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="14"/>
+      <c r="C805" s="14"/>
+      <c r="J805" s="17"/>
+    </row>
+    <row r="806" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="14"/>
+      <c r="C806" s="14"/>
+      <c r="J806" s="17"/>
+    </row>
+    <row r="807" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="14"/>
+      <c r="C807" s="14"/>
+      <c r="J807" s="17"/>
+    </row>
+    <row r="808" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="14"/>
+      <c r="C808" s="14"/>
+      <c r="J808" s="17"/>
+    </row>
+    <row r="809" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="14"/>
+      <c r="C809" s="14"/>
+      <c r="J809" s="17"/>
+    </row>
+    <row r="810" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="14"/>
+      <c r="C810" s="14"/>
+      <c r="J810" s="17"/>
+    </row>
+    <row r="811" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="14"/>
+      <c r="C811" s="14"/>
+      <c r="J811" s="17"/>
+    </row>
+    <row r="812" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="14"/>
+      <c r="C812" s="14"/>
+      <c r="J812" s="17"/>
+    </row>
+    <row r="813" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="14"/>
+      <c r="C813" s="14"/>
+      <c r="J813" s="17"/>
+    </row>
+    <row r="814" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="14"/>
+      <c r="C814" s="14"/>
+      <c r="J814" s="17"/>
+    </row>
+    <row r="815" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="14"/>
+      <c r="C815" s="14"/>
+      <c r="J815" s="17"/>
+    </row>
+    <row r="816" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="14"/>
+      <c r="C816" s="14"/>
+      <c r="J816" s="17"/>
+    </row>
+    <row r="817" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="J817" s="17"/>
+    </row>
+    <row r="818" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="14"/>
+      <c r="C818" s="14"/>
+      <c r="J818" s="17"/>
+    </row>
+    <row r="819" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="14"/>
+      <c r="C819" s="14"/>
+      <c r="J819" s="17"/>
+    </row>
+    <row r="820" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="14"/>
+      <c r="C820" s="14"/>
+      <c r="J820" s="17"/>
+    </row>
+    <row r="821" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="14"/>
+      <c r="C821" s="14"/>
+      <c r="J821" s="17"/>
+    </row>
+    <row r="822" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="14"/>
+      <c r="C822" s="14"/>
+      <c r="J822" s="17"/>
+    </row>
+    <row r="823" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="14"/>
+      <c r="C823" s="14"/>
+      <c r="J823" s="17"/>
+    </row>
+    <row r="824" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="14"/>
+      <c r="C824" s="14"/>
+      <c r="J824" s="17"/>
+    </row>
+    <row r="825" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="14"/>
+      <c r="C825" s="14"/>
+      <c r="J825" s="17"/>
+    </row>
+    <row r="826" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="14"/>
+      <c r="C826" s="14"/>
+      <c r="J826" s="17"/>
+    </row>
+    <row r="827" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="14"/>
+      <c r="C827" s="14"/>
+      <c r="J827" s="17"/>
+    </row>
+    <row r="828" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="14"/>
+      <c r="C828" s="14"/>
+      <c r="J828" s="17"/>
+    </row>
+    <row r="829" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="14"/>
+      <c r="C829" s="14"/>
+      <c r="J829" s="17"/>
+    </row>
+    <row r="830" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="14"/>
+      <c r="C830" s="14"/>
+      <c r="J830" s="17"/>
+    </row>
+    <row r="831" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="14"/>
+      <c r="C831" s="14"/>
+      <c r="J831" s="17"/>
+    </row>
+    <row r="832" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="14"/>
+      <c r="C832" s="14"/>
+      <c r="J832" s="17"/>
+    </row>
+    <row r="833" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="14"/>
+      <c r="C833" s="14"/>
+      <c r="J833" s="17"/>
+    </row>
+    <row r="834" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="14"/>
+      <c r="C834" s="14"/>
+      <c r="J834" s="17"/>
+    </row>
+    <row r="835" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="14"/>
+      <c r="C835" s="14"/>
+      <c r="J835" s="17"/>
+    </row>
+    <row r="836" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="14"/>
+      <c r="C836" s="14"/>
+      <c r="J836" s="17"/>
+    </row>
+    <row r="837" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="14"/>
+      <c r="C837" s="14"/>
+      <c r="J837" s="17"/>
+    </row>
+    <row r="838" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="14"/>
+      <c r="C838" s="14"/>
+      <c r="J838" s="17"/>
+    </row>
+    <row r="839" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="14"/>
+      <c r="C839" s="14"/>
+      <c r="J839" s="17"/>
+    </row>
+    <row r="840" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="14"/>
+      <c r="C840" s="14"/>
+      <c r="J840" s="17"/>
+    </row>
+    <row r="841" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="14"/>
+      <c r="C841" s="14"/>
+      <c r="J841" s="17"/>
+    </row>
+    <row r="842" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="14"/>
+      <c r="C842" s="14"/>
+      <c r="J842" s="17"/>
+    </row>
+    <row r="843" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="14"/>
+      <c r="C843" s="14"/>
+      <c r="J843" s="17"/>
+    </row>
+    <row r="844" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="14"/>
+      <c r="C844" s="14"/>
+      <c r="J844" s="17"/>
+    </row>
+    <row r="845" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="14"/>
+      <c r="C845" s="14"/>
+      <c r="J845" s="17"/>
+    </row>
+    <row r="846" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="14"/>
+      <c r="C846" s="14"/>
+      <c r="J846" s="17"/>
+    </row>
+    <row r="847" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="14"/>
+      <c r="C847" s="14"/>
+      <c r="J847" s="17"/>
+    </row>
+    <row r="848" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="14"/>
+      <c r="C848" s="14"/>
+      <c r="J848" s="17"/>
+    </row>
+    <row r="849" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="14"/>
+      <c r="C849" s="14"/>
+      <c r="J849" s="17"/>
+    </row>
+    <row r="850" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="14"/>
+      <c r="C850" s="14"/>
+      <c r="J850" s="17"/>
+    </row>
+    <row r="851" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="14"/>
+      <c r="C851" s="14"/>
+      <c r="J851" s="17"/>
+    </row>
+    <row r="852" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="14"/>
+      <c r="C852" s="14"/>
+      <c r="J852" s="17"/>
+    </row>
+    <row r="853" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="14"/>
+      <c r="C853" s="14"/>
+      <c r="J853" s="17"/>
+    </row>
+    <row r="854" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="14"/>
+      <c r="C854" s="14"/>
+      <c r="J854" s="17"/>
+    </row>
+    <row r="855" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="14"/>
+      <c r="C855" s="14"/>
+      <c r="J855" s="17"/>
+    </row>
+    <row r="856" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="14"/>
+      <c r="C856" s="14"/>
+      <c r="J856" s="17"/>
+    </row>
+    <row r="857" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="14"/>
+      <c r="C857" s="14"/>
+      <c r="J857" s="17"/>
+    </row>
+    <row r="858" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="14"/>
+      <c r="C858" s="14"/>
+      <c r="J858" s="17"/>
+    </row>
+    <row r="859" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="14"/>
+      <c r="C859" s="14"/>
+      <c r="J859" s="17"/>
+    </row>
+    <row r="860" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="14"/>
+      <c r="C860" s="14"/>
+      <c r="J860" s="17"/>
+    </row>
+    <row r="861" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="14"/>
+      <c r="C861" s="14"/>
+      <c r="J861" s="17"/>
+    </row>
+    <row r="862" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="14"/>
+      <c r="C862" s="14"/>
+      <c r="J862" s="17"/>
+    </row>
+    <row r="863" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="14"/>
+      <c r="C863" s="14"/>
+      <c r="J863" s="17"/>
+    </row>
+    <row r="864" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="14"/>
+      <c r="C864" s="14"/>
+      <c r="J864" s="17"/>
+    </row>
+    <row r="865" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="14"/>
+      <c r="C865" s="14"/>
+      <c r="J865" s="17"/>
+    </row>
+    <row r="866" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="14"/>
+      <c r="C866" s="14"/>
+      <c r="J866" s="17"/>
+    </row>
+    <row r="867" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="14"/>
+      <c r="C867" s="14"/>
+      <c r="J867" s="17"/>
+    </row>
+    <row r="868" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="14"/>
+      <c r="C868" s="14"/>
+      <c r="J868" s="17"/>
+    </row>
+    <row r="869" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="14"/>
+      <c r="C869" s="14"/>
+      <c r="J869" s="17"/>
+    </row>
+    <row r="870" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="14"/>
+      <c r="C870" s="14"/>
+      <c r="J870" s="17"/>
+    </row>
+    <row r="871" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="14"/>
+      <c r="C871" s="14"/>
+      <c r="J871" s="17"/>
+    </row>
+    <row r="872" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="14"/>
+      <c r="C872" s="14"/>
+      <c r="J872" s="17"/>
+    </row>
+    <row r="873" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="14"/>
+      <c r="C873" s="14"/>
+      <c r="J873" s="17"/>
+    </row>
+    <row r="874" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="14"/>
+      <c r="C874" s="14"/>
+      <c r="J874" s="17"/>
+    </row>
+    <row r="875" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="14"/>
+      <c r="C875" s="14"/>
+      <c r="J875" s="17"/>
+    </row>
+    <row r="876" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="14"/>
+      <c r="C876" s="14"/>
+      <c r="J876" s="17"/>
+    </row>
+    <row r="877" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="14"/>
+      <c r="C877" s="14"/>
+      <c r="J877" s="17"/>
+    </row>
+    <row r="878" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="14"/>
+      <c r="C878" s="14"/>
+      <c r="J878" s="17"/>
+    </row>
+    <row r="879" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="14"/>
+      <c r="C879" s="14"/>
+      <c r="J879" s="17"/>
+    </row>
+    <row r="880" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="14"/>
+      <c r="C880" s="14"/>
+      <c r="J880" s="17"/>
+    </row>
+    <row r="881" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="14"/>
+      <c r="C881" s="14"/>
+      <c r="J881" s="17"/>
+    </row>
+    <row r="882" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="14"/>
+      <c r="C882" s="14"/>
+      <c r="J882" s="17"/>
+    </row>
+    <row r="883" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="14"/>
+      <c r="C883" s="14"/>
+      <c r="J883" s="17"/>
+    </row>
+    <row r="884" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="14"/>
+      <c r="C884" s="14"/>
+      <c r="J884" s="17"/>
+    </row>
+    <row r="885" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="14"/>
+      <c r="C885" s="14"/>
+      <c r="J885" s="17"/>
+    </row>
+    <row r="886" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="14"/>
+      <c r="C886" s="14"/>
+      <c r="J886" s="17"/>
+    </row>
+    <row r="887" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="14"/>
+      <c r="C887" s="14"/>
+      <c r="J887" s="17"/>
+    </row>
+    <row r="888" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="14"/>
+      <c r="C888" s="14"/>
+      <c r="J888" s="17"/>
+    </row>
+    <row r="889" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="14"/>
+      <c r="C889" s="14"/>
+      <c r="J889" s="17"/>
+    </row>
+    <row r="890" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="14"/>
+      <c r="C890" s="14"/>
+      <c r="J890" s="17"/>
+    </row>
+    <row r="891" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="14"/>
+      <c r="C891" s="14"/>
+      <c r="J891" s="17"/>
+    </row>
+    <row r="892" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="14"/>
+      <c r="C892" s="14"/>
+      <c r="J892" s="17"/>
+    </row>
+    <row r="893" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="14"/>
+      <c r="C893" s="14"/>
+      <c r="J893" s="17"/>
+    </row>
+    <row r="894" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="14"/>
+      <c r="C894" s="14"/>
+      <c r="J894" s="17"/>
+    </row>
+    <row r="895" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="14"/>
+      <c r="C895" s="14"/>
+      <c r="J895" s="17"/>
+    </row>
+    <row r="896" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="14"/>
+      <c r="C896" s="14"/>
+      <c r="J896" s="17"/>
+    </row>
+    <row r="897" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="14"/>
+      <c r="C897" s="14"/>
+      <c r="J897" s="17"/>
+    </row>
+    <row r="898" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="14"/>
+      <c r="C898" s="14"/>
+      <c r="J898" s="17"/>
+    </row>
+    <row r="899" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="14"/>
+      <c r="C899" s="14"/>
+      <c r="J899" s="17"/>
+    </row>
+    <row r="900" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="14"/>
+      <c r="C900" s="14"/>
+      <c r="J900" s="17"/>
+    </row>
+    <row r="901" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="14"/>
+      <c r="C901" s="14"/>
+      <c r="J901" s="17"/>
+    </row>
+    <row r="902" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="14"/>
+      <c r="C902" s="14"/>
+      <c r="J902" s="17"/>
+    </row>
+    <row r="903" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="14"/>
+      <c r="C903" s="14"/>
+      <c r="J903" s="17"/>
+    </row>
+    <row r="904" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="14"/>
+      <c r="C904" s="14"/>
+      <c r="J904" s="17"/>
+    </row>
+    <row r="905" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="14"/>
+      <c r="C905" s="14"/>
+      <c r="J905" s="17"/>
+    </row>
+    <row r="906" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="14"/>
+      <c r="C906" s="14"/>
+      <c r="J906" s="17"/>
+    </row>
+    <row r="907" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="14"/>
+      <c r="C907" s="14"/>
+      <c r="J907" s="17"/>
+    </row>
+    <row r="908" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="14"/>
+      <c r="C908" s="14"/>
+      <c r="J908" s="17"/>
+    </row>
+    <row r="909" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="14"/>
+      <c r="C909" s="14"/>
+      <c r="J909" s="17"/>
+    </row>
+    <row r="910" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="14"/>
+      <c r="C910" s="14"/>
+      <c r="J910" s="17"/>
+    </row>
+    <row r="911" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="14"/>
+      <c r="C911" s="14"/>
+      <c r="J911" s="17"/>
+    </row>
+    <row r="912" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="14"/>
+      <c r="C912" s="14"/>
+      <c r="J912" s="17"/>
+    </row>
+    <row r="913" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="14"/>
+      <c r="C913" s="14"/>
+      <c r="J913" s="17"/>
+    </row>
+    <row r="914" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="14"/>
+      <c r="C914" s="14"/>
+      <c r="J914" s="17"/>
+    </row>
+    <row r="915" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="14"/>
+      <c r="C915" s="14"/>
+      <c r="J915" s="17"/>
+    </row>
+    <row r="916" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="14"/>
+      <c r="C916" s="14"/>
+      <c r="J916" s="17"/>
+    </row>
+    <row r="917" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="14"/>
+      <c r="C917" s="14"/>
+      <c r="J917" s="17"/>
+    </row>
+    <row r="918" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="14"/>
+      <c r="C918" s="14"/>
+      <c r="J918" s="17"/>
+    </row>
+    <row r="919" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="14"/>
+      <c r="C919" s="14"/>
+      <c r="J919" s="17"/>
+    </row>
+    <row r="920" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="14"/>
+      <c r="C920" s="14"/>
+      <c r="J920" s="17"/>
+    </row>
+    <row r="921" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="14"/>
+      <c r="C921" s="14"/>
+      <c r="J921" s="17"/>
+    </row>
+    <row r="922" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="14"/>
+      <c r="C922" s="14"/>
+      <c r="J922" s="17"/>
+    </row>
+    <row r="923" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="14"/>
+      <c r="C923" s="14"/>
+      <c r="J923" s="17"/>
+    </row>
+    <row r="924" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="14"/>
+      <c r="C924" s="14"/>
+      <c r="J924" s="17"/>
+    </row>
+    <row r="925" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="14"/>
+      <c r="C925" s="14"/>
+      <c r="J925" s="17"/>
+    </row>
+    <row r="926" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="14"/>
+      <c r="C926" s="14"/>
+      <c r="J926" s="17"/>
+    </row>
+    <row r="927" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="14"/>
+      <c r="C927" s="14"/>
+      <c r="J927" s="17"/>
+    </row>
+    <row r="928" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="14"/>
+      <c r="C928" s="14"/>
+      <c r="J928" s="17"/>
+    </row>
+    <row r="929" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="14"/>
+      <c r="C929" s="14"/>
+      <c r="J929" s="17"/>
+    </row>
+    <row r="930" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="14"/>
+      <c r="C930" s="14"/>
+      <c r="J930" s="17"/>
+    </row>
+    <row r="931" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="14"/>
+      <c r="C931" s="14"/>
+      <c r="J931" s="17"/>
+    </row>
+    <row r="932" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="14"/>
+      <c r="C932" s="14"/>
+      <c r="J932" s="17"/>
+    </row>
+    <row r="933" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="14"/>
+      <c r="C933" s="14"/>
+      <c r="J933" s="17"/>
+    </row>
+    <row r="934" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="14"/>
+      <c r="C934" s="14"/>
+      <c r="J934" s="17"/>
+    </row>
+    <row r="935" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="14"/>
+      <c r="C935" s="14"/>
+      <c r="J935" s="17"/>
+    </row>
+    <row r="936" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="14"/>
+      <c r="C936" s="14"/>
+      <c r="J936" s="17"/>
+    </row>
+    <row r="937" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="14"/>
+      <c r="C937" s="14"/>
+      <c r="J937" s="17"/>
+    </row>
+    <row r="938" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="14"/>
+      <c r="C938" s="14"/>
+      <c r="J938" s="17"/>
+    </row>
+    <row r="939" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="14"/>
+      <c r="C939" s="14"/>
+      <c r="J939" s="17"/>
+    </row>
+    <row r="940" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="14"/>
+      <c r="C940" s="14"/>
+      <c r="J940" s="17"/>
+    </row>
+    <row r="941" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="14"/>
+      <c r="C941" s="14"/>
+      <c r="J941" s="17"/>
+    </row>
+    <row r="942" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="14"/>
+      <c r="C942" s="14"/>
+      <c r="J942" s="17"/>
+    </row>
+    <row r="943" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="14"/>
+      <c r="C943" s="14"/>
+      <c r="J943" s="17"/>
+    </row>
+    <row r="944" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="14"/>
+      <c r="C944" s="14"/>
+      <c r="J944" s="17"/>
+    </row>
+    <row r="945" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="14"/>
+      <c r="C945" s="14"/>
+      <c r="J945" s="17"/>
+    </row>
+    <row r="946" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="14"/>
+      <c r="C946" s="14"/>
+      <c r="J946" s="17"/>
+    </row>
+    <row r="947" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="14"/>
+      <c r="C947" s="14"/>
+      <c r="J947" s="17"/>
+    </row>
+    <row r="948" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="14"/>
+      <c r="C948" s="14"/>
+      <c r="J948" s="17"/>
+    </row>
+    <row r="949" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="14"/>
+      <c r="C949" s="14"/>
+      <c r="J949" s="17"/>
+    </row>
+    <row r="950" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="14"/>
+      <c r="C950" s="14"/>
+      <c r="J950" s="17"/>
+    </row>
+    <row r="951" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="14"/>
+      <c r="C951" s="14"/>
+      <c r="J951" s="17"/>
+    </row>
+    <row r="952" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="14"/>
+      <c r="C952" s="14"/>
+      <c r="J952" s="17"/>
+    </row>
+    <row r="953" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="14"/>
+      <c r="C953" s="14"/>
+      <c r="J953" s="17"/>
+    </row>
+    <row r="954" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="14"/>
+      <c r="C954" s="14"/>
+      <c r="J954" s="17"/>
+    </row>
+    <row r="955" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="14"/>
+      <c r="C955" s="14"/>
+      <c r="J955" s="17"/>
+    </row>
+    <row r="956" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="14"/>
+      <c r="C956" s="14"/>
+      <c r="J956" s="17"/>
+    </row>
+    <row r="957" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="14"/>
+      <c r="C957" s="14"/>
+      <c r="J957" s="17"/>
+    </row>
+    <row r="958" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="14"/>
+      <c r="C958" s="14"/>
+      <c r="J958" s="17"/>
+    </row>
+    <row r="959" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="14"/>
+      <c r="C959" s="14"/>
+      <c r="J959" s="17"/>
+    </row>
+    <row r="960" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="14"/>
+      <c r="C960" s="14"/>
+      <c r="J960" s="17"/>
+    </row>
+    <row r="961" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="14"/>
+      <c r="C961" s="14"/>
+      <c r="J961" s="17"/>
+    </row>
+    <row r="962" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="14"/>
+      <c r="C962" s="14"/>
+      <c r="J962" s="17"/>
+    </row>
+    <row r="963" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="14"/>
+      <c r="C963" s="14"/>
+      <c r="J963" s="17"/>
+    </row>
+    <row r="964" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="14"/>
+      <c r="C964" s="14"/>
+      <c r="J964" s="17"/>
+    </row>
+    <row r="965" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="14"/>
+      <c r="C965" s="14"/>
+      <c r="J965" s="17"/>
+    </row>
+    <row r="966" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="14"/>
+      <c r="C966" s="14"/>
+      <c r="J966" s="17"/>
+    </row>
+    <row r="967" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="14"/>
+      <c r="C967" s="14"/>
+      <c r="J967" s="17"/>
+    </row>
+    <row r="968" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="14"/>
+      <c r="C968" s="14"/>
+      <c r="J968" s="17"/>
+    </row>
+    <row r="969" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="14"/>
+      <c r="C969" s="14"/>
+      <c r="J969" s="17"/>
+    </row>
+    <row r="970" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="14"/>
+      <c r="C970" s="14"/>
+      <c r="J970" s="17"/>
+    </row>
+    <row r="971" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="14"/>
+      <c r="C971" s="14"/>
+      <c r="J971" s="17"/>
+    </row>
+    <row r="972" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="14"/>
+      <c r="C972" s="14"/>
+      <c r="J972" s="17"/>
+    </row>
+    <row r="973" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="14"/>
+      <c r="C973" s="14"/>
+      <c r="J973" s="17"/>
+    </row>
+    <row r="974" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="14"/>
+      <c r="C974" s="14"/>
+      <c r="J974" s="17"/>
+    </row>
+    <row r="975" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="14"/>
+      <c r="C975" s="14"/>
+      <c r="J975" s="17"/>
+    </row>
+    <row r="976" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="14"/>
+      <c r="C976" s="14"/>
+      <c r="J976" s="17"/>
+    </row>
+    <row r="977" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="14"/>
+      <c r="C977" s="14"/>
+      <c r="J977" s="17"/>
+    </row>
+    <row r="978" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="14"/>
+      <c r="C978" s="14"/>
+      <c r="J978" s="17"/>
+    </row>
+    <row r="979" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="14"/>
+      <c r="C979" s="14"/>
+      <c r="J979" s="17"/>
+    </row>
+    <row r="980" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="14"/>
+      <c r="C980" s="14"/>
+      <c r="J980" s="17"/>
+    </row>
+    <row r="981" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="14"/>
+      <c r="C981" s="14"/>
+      <c r="J981" s="17"/>
+    </row>
+    <row r="982" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="14"/>
+      <c r="C982" s="14"/>
+      <c r="J982" s="17"/>
+    </row>
+    <row r="983" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="14"/>
+      <c r="C983" s="14"/>
+      <c r="J983" s="17"/>
+    </row>
+    <row r="984" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="14"/>
+      <c r="C984" s="14"/>
+      <c r="J984" s="17"/>
+    </row>
+    <row r="985" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="14"/>
+      <c r="C985" s="14"/>
+      <c r="J985" s="17"/>
+    </row>
+    <row r="986" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="14"/>
+      <c r="C986" s="14"/>
+      <c r="J986" s="17"/>
+    </row>
+    <row r="987" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="14"/>
+      <c r="C987" s="14"/>
+      <c r="J987" s="17"/>
+    </row>
+    <row r="988" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="14"/>
+      <c r="C988" s="14"/>
+      <c r="J988" s="17"/>
+    </row>
+    <row r="989" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B989" s="14"/>
+      <c r="C989" s="14"/>
+      <c r="J989" s="17"/>
+    </row>
+    <row r="990" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B990" s="14"/>
+      <c r="C990" s="14"/>
+      <c r="J990" s="17"/>
+    </row>
+    <row r="991" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B991" s="14"/>
+      <c r="C991" s="14"/>
+      <c r="J991" s="17"/>
+    </row>
+    <row r="992" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B992" s="14"/>
+      <c r="C992" s="14"/>
+      <c r="J992" s="17"/>
+    </row>
+    <row r="993" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B993" s="14"/>
+      <c r="C993" s="14"/>
+      <c r="J993" s="17"/>
+    </row>
+    <row r="994" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B994" s="14"/>
+      <c r="C994" s="14"/>
+      <c r="J994" s="17"/>
+    </row>
+    <row r="995" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B995" s="14"/>
+      <c r="C995" s="14"/>
+      <c r="J995" s="17"/>
+    </row>
+    <row r="996" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B996" s="14"/>
+      <c r="C996" s="14"/>
+      <c r="J996" s="17"/>
+    </row>
+    <row r="997" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B997" s="14"/>
+      <c r="C997" s="14"/>
+      <c r="J997" s="17"/>
+    </row>
+    <row r="998" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B998" s="14"/>
+      <c r="C998" s="14"/>
+      <c r="J998" s="17"/>
+    </row>
+    <row r="999" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B999" s="14"/>
+      <c r="C999" s="14"/>
+      <c r="J999" s="17"/>
+    </row>
+    <row r="1000" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1000" s="14"/>
+      <c r="C1000" s="14"/>
+      <c r="J1000" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-90 TSP.xlsx
+++ b/CH-90 TSP.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD2FFD-90E1-47C5-9DA7-DDD410072136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE06A8E-9BB6-45B9-AD1B-99C56559B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
     <sheet name="Alt2" sheetId="4" r:id="rId4"/>
+    <sheet name="MySingle" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_nDist">EDA!$N$5:$N$29</definedName>
@@ -36,14 +37,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DgkY+fpI/2xRIY6cJZSUsIsNHItUH9qAtTi9OVGj8sw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="DgkY+fpI/2xRIY6cJZSUsIsNHItUH9qAtTi9OVGj8sw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -6319,7 +6320,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17719,7 +17720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8150A3D-3119-46A7-87F6-EC49F0EA2662}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -23217,4 +23218,5421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F73259E-5F36-4976-A9F9-6881CEF9CD72}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>107</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10">
+        <v>113</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10">
+        <v>113</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10">
+        <v>98</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="J15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="J18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="J19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="J21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="J22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="J23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="J24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="J26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="J79" s="17"/>
+    </row>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="J80" s="17"/>
+    </row>
+    <row r="81" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="J103" s="17"/>
+    </row>
+    <row r="104" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="J146" s="17"/>
+    </row>
+    <row r="147" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="J148" s="17"/>
+    </row>
+    <row r="149" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="J151" s="17"/>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="J152" s="17"/>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="J154" s="17"/>
+    </row>
+    <row r="155" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="J155" s="17"/>
+    </row>
+    <row r="156" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="J157" s="17"/>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="J158" s="17"/>
+    </row>
+    <row r="159" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="J159" s="17"/>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="J160" s="17"/>
+    </row>
+    <row r="161" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="J161" s="17"/>
+    </row>
+    <row r="162" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="J162" s="17"/>
+    </row>
+    <row r="163" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="J163" s="17"/>
+    </row>
+    <row r="164" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="J165" s="17"/>
+    </row>
+    <row r="166" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="J167" s="17"/>
+    </row>
+    <row r="168" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="J168" s="17"/>
+    </row>
+    <row r="169" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="J170" s="17"/>
+    </row>
+    <row r="171" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="J171" s="17"/>
+    </row>
+    <row r="172" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="J172" s="17"/>
+    </row>
+    <row r="173" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="J173" s="17"/>
+    </row>
+    <row r="174" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="J174" s="17"/>
+    </row>
+    <row r="175" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="J175" s="17"/>
+    </row>
+    <row r="176" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="J176" s="17"/>
+    </row>
+    <row r="177" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="J178" s="17"/>
+    </row>
+    <row r="179" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="J179" s="17"/>
+    </row>
+    <row r="180" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="J180" s="17"/>
+    </row>
+    <row r="181" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="J181" s="17"/>
+    </row>
+    <row r="182" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="J182" s="17"/>
+    </row>
+    <row r="183" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="J184" s="17"/>
+    </row>
+    <row r="185" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="J188" s="17"/>
+    </row>
+    <row r="189" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="J189" s="17"/>
+    </row>
+    <row r="190" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="J190" s="17"/>
+    </row>
+    <row r="191" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="J191" s="17"/>
+    </row>
+    <row r="192" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="J192" s="17"/>
+    </row>
+    <row r="193" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="J193" s="17"/>
+    </row>
+    <row r="194" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="J194" s="17"/>
+    </row>
+    <row r="195" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="J195" s="17"/>
+    </row>
+    <row r="196" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="J196" s="17"/>
+    </row>
+    <row r="197" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="J198" s="17"/>
+    </row>
+    <row r="199" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="J199" s="17"/>
+    </row>
+    <row r="200" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="J200" s="17"/>
+    </row>
+    <row r="201" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="J201" s="17"/>
+    </row>
+    <row r="202" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="J202" s="17"/>
+    </row>
+    <row r="203" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="J203" s="17"/>
+    </row>
+    <row r="204" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="J204" s="17"/>
+    </row>
+    <row r="205" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="J205" s="17"/>
+    </row>
+    <row r="206" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="J206" s="17"/>
+    </row>
+    <row r="207" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="J207" s="17"/>
+    </row>
+    <row r="208" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="J208" s="17"/>
+    </row>
+    <row r="209" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="J209" s="17"/>
+    </row>
+    <row r="210" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="J210" s="17"/>
+    </row>
+    <row r="211" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="J211" s="17"/>
+    </row>
+    <row r="212" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="J212" s="17"/>
+    </row>
+    <row r="213" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="J213" s="17"/>
+    </row>
+    <row r="214" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="J214" s="17"/>
+    </row>
+    <row r="215" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="J215" s="17"/>
+    </row>
+    <row r="216" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="J216" s="17"/>
+    </row>
+    <row r="217" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="J217" s="17"/>
+    </row>
+    <row r="218" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="J218" s="17"/>
+    </row>
+    <row r="219" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="J219" s="17"/>
+    </row>
+    <row r="220" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="J220" s="17"/>
+    </row>
+    <row r="221" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="J222" s="17"/>
+    </row>
+    <row r="223" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="J223" s="17"/>
+    </row>
+    <row r="224" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="J224" s="17"/>
+    </row>
+    <row r="225" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="J225" s="17"/>
+    </row>
+    <row r="226" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="J226" s="17"/>
+    </row>
+    <row r="227" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="J227" s="17"/>
+    </row>
+    <row r="228" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="J228" s="17"/>
+    </row>
+    <row r="229" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="J229" s="17"/>
+    </row>
+    <row r="230" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="J230" s="17"/>
+    </row>
+    <row r="231" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="J231" s="17"/>
+    </row>
+    <row r="232" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="J232" s="17"/>
+    </row>
+    <row r="233" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="J233" s="17"/>
+    </row>
+    <row r="234" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="J234" s="17"/>
+    </row>
+    <row r="235" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="J235" s="17"/>
+    </row>
+    <row r="236" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="J236" s="17"/>
+    </row>
+    <row r="237" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="J237" s="17"/>
+    </row>
+    <row r="238" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="J238" s="17"/>
+    </row>
+    <row r="239" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="J239" s="17"/>
+    </row>
+    <row r="240" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="J240" s="17"/>
+    </row>
+    <row r="241" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="J241" s="17"/>
+    </row>
+    <row r="242" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="J242" s="17"/>
+    </row>
+    <row r="243" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="J243" s="17"/>
+    </row>
+    <row r="244" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="J244" s="17"/>
+    </row>
+    <row r="245" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="J245" s="17"/>
+    </row>
+    <row r="246" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="J246" s="17"/>
+    </row>
+    <row r="247" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="J247" s="17"/>
+    </row>
+    <row r="248" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="J248" s="17"/>
+    </row>
+    <row r="249" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="J249" s="17"/>
+    </row>
+    <row r="250" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="J250" s="17"/>
+    </row>
+    <row r="251" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="J251" s="17"/>
+    </row>
+    <row r="252" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="J252" s="17"/>
+    </row>
+    <row r="253" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="J253" s="17"/>
+    </row>
+    <row r="254" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="J254" s="17"/>
+    </row>
+    <row r="255" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="J255" s="17"/>
+    </row>
+    <row r="256" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="J256" s="17"/>
+    </row>
+    <row r="257" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="J257" s="17"/>
+    </row>
+    <row r="258" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="J258" s="17"/>
+    </row>
+    <row r="259" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="J259" s="17"/>
+    </row>
+    <row r="260" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="J260" s="17"/>
+    </row>
+    <row r="261" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="J261" s="17"/>
+    </row>
+    <row r="262" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="J262" s="17"/>
+    </row>
+    <row r="263" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="J263" s="17"/>
+    </row>
+    <row r="264" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="J264" s="17"/>
+    </row>
+    <row r="265" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="J265" s="17"/>
+    </row>
+    <row r="266" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="J266" s="17"/>
+    </row>
+    <row r="267" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="J267" s="17"/>
+    </row>
+    <row r="268" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="J268" s="17"/>
+    </row>
+    <row r="269" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="J269" s="17"/>
+    </row>
+    <row r="270" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="J270" s="17"/>
+    </row>
+    <row r="271" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="J271" s="17"/>
+    </row>
+    <row r="272" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="J272" s="17"/>
+    </row>
+    <row r="273" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="J273" s="17"/>
+    </row>
+    <row r="274" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="J274" s="17"/>
+    </row>
+    <row r="275" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="J275" s="17"/>
+    </row>
+    <row r="276" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="J276" s="17"/>
+    </row>
+    <row r="277" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="J277" s="17"/>
+    </row>
+    <row r="278" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="J278" s="17"/>
+    </row>
+    <row r="279" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="J279" s="17"/>
+    </row>
+    <row r="280" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="J280" s="17"/>
+    </row>
+    <row r="281" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="J281" s="17"/>
+    </row>
+    <row r="282" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="J282" s="17"/>
+    </row>
+    <row r="283" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="J283" s="17"/>
+    </row>
+    <row r="284" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="J284" s="17"/>
+    </row>
+    <row r="285" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="J285" s="17"/>
+    </row>
+    <row r="286" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="J286" s="17"/>
+    </row>
+    <row r="287" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="J287" s="17"/>
+    </row>
+    <row r="288" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="J288" s="17"/>
+    </row>
+    <row r="289" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="J289" s="17"/>
+    </row>
+    <row r="290" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="J290" s="17"/>
+    </row>
+    <row r="291" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="J291" s="17"/>
+    </row>
+    <row r="292" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="J292" s="17"/>
+    </row>
+    <row r="293" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="J293" s="17"/>
+    </row>
+    <row r="294" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="J294" s="17"/>
+    </row>
+    <row r="295" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="J295" s="17"/>
+    </row>
+    <row r="296" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="J296" s="17"/>
+    </row>
+    <row r="297" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="J297" s="17"/>
+    </row>
+    <row r="298" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="J298" s="17"/>
+    </row>
+    <row r="299" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="J299" s="17"/>
+    </row>
+    <row r="300" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="J300" s="17"/>
+    </row>
+    <row r="301" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="J301" s="17"/>
+    </row>
+    <row r="302" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="J302" s="17"/>
+    </row>
+    <row r="303" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="J303" s="17"/>
+    </row>
+    <row r="304" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="J304" s="17"/>
+    </row>
+    <row r="305" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="J305" s="17"/>
+    </row>
+    <row r="306" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="J306" s="17"/>
+    </row>
+    <row r="307" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="J307" s="17"/>
+    </row>
+    <row r="308" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="J308" s="17"/>
+    </row>
+    <row r="309" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="J309" s="17"/>
+    </row>
+    <row r="310" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="J310" s="17"/>
+    </row>
+    <row r="311" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="J311" s="17"/>
+    </row>
+    <row r="312" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="J312" s="17"/>
+    </row>
+    <row r="313" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="J313" s="17"/>
+    </row>
+    <row r="314" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="J314" s="17"/>
+    </row>
+    <row r="315" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="J315" s="17"/>
+    </row>
+    <row r="316" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="J316" s="17"/>
+    </row>
+    <row r="317" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="J317" s="17"/>
+    </row>
+    <row r="318" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="J318" s="17"/>
+    </row>
+    <row r="319" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="J319" s="17"/>
+    </row>
+    <row r="320" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="J320" s="17"/>
+    </row>
+    <row r="321" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="J321" s="17"/>
+    </row>
+    <row r="322" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="J322" s="17"/>
+    </row>
+    <row r="323" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="J323" s="17"/>
+    </row>
+    <row r="324" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="J324" s="17"/>
+    </row>
+    <row r="325" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="J325" s="17"/>
+    </row>
+    <row r="326" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="J326" s="17"/>
+    </row>
+    <row r="327" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="J327" s="17"/>
+    </row>
+    <row r="328" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="J328" s="17"/>
+    </row>
+    <row r="329" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="J329" s="17"/>
+    </row>
+    <row r="330" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="J330" s="17"/>
+    </row>
+    <row r="331" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="J331" s="17"/>
+    </row>
+    <row r="332" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="J332" s="17"/>
+    </row>
+    <row r="333" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="J333" s="17"/>
+    </row>
+    <row r="334" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="J334" s="17"/>
+    </row>
+    <row r="335" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="J335" s="17"/>
+    </row>
+    <row r="336" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="J336" s="17"/>
+    </row>
+    <row r="337" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="J337" s="17"/>
+    </row>
+    <row r="338" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="J338" s="17"/>
+    </row>
+    <row r="339" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="J339" s="17"/>
+    </row>
+    <row r="340" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="J340" s="17"/>
+    </row>
+    <row r="341" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="J341" s="17"/>
+    </row>
+    <row r="342" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="J342" s="17"/>
+    </row>
+    <row r="343" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="J343" s="17"/>
+    </row>
+    <row r="344" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="J344" s="17"/>
+    </row>
+    <row r="345" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="J345" s="17"/>
+    </row>
+    <row r="346" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="J346" s="17"/>
+    </row>
+    <row r="347" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
+      <c r="J347" s="17"/>
+    </row>
+    <row r="348" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="J348" s="17"/>
+    </row>
+    <row r="349" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="J349" s="17"/>
+    </row>
+    <row r="350" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
+      <c r="J350" s="17"/>
+    </row>
+    <row r="351" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="J351" s="17"/>
+    </row>
+    <row r="352" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="J352" s="17"/>
+    </row>
+    <row r="353" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="J353" s="17"/>
+    </row>
+    <row r="354" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="J354" s="17"/>
+    </row>
+    <row r="355" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
+      <c r="J355" s="17"/>
+    </row>
+    <row r="356" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="J356" s="17"/>
+    </row>
+    <row r="357" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="J357" s="17"/>
+    </row>
+    <row r="358" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="J358" s="17"/>
+    </row>
+    <row r="359" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="J359" s="17"/>
+    </row>
+    <row r="360" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="J360" s="17"/>
+    </row>
+    <row r="361" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="J361" s="17"/>
+    </row>
+    <row r="362" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
+      <c r="J362" s="17"/>
+    </row>
+    <row r="363" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="J363" s="17"/>
+    </row>
+    <row r="364" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="J364" s="17"/>
+    </row>
+    <row r="365" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
+      <c r="J365" s="17"/>
+    </row>
+    <row r="366" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="J366" s="17"/>
+    </row>
+    <row r="367" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
+      <c r="J367" s="17"/>
+    </row>
+    <row r="368" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="J368" s="17"/>
+    </row>
+    <row r="369" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="J369" s="17"/>
+    </row>
+    <row r="370" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="J370" s="17"/>
+    </row>
+    <row r="371" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
+      <c r="J371" s="17"/>
+    </row>
+    <row r="372" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
+      <c r="J372" s="17"/>
+    </row>
+    <row r="373" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
+      <c r="J373" s="17"/>
+    </row>
+    <row r="374" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
+      <c r="J374" s="17"/>
+    </row>
+    <row r="375" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="J375" s="17"/>
+    </row>
+    <row r="376" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="J376" s="17"/>
+    </row>
+    <row r="377" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
+      <c r="J377" s="17"/>
+    </row>
+    <row r="378" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
+      <c r="J378" s="17"/>
+    </row>
+    <row r="379" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
+      <c r="J379" s="17"/>
+    </row>
+    <row r="380" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="J380" s="17"/>
+    </row>
+    <row r="381" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="J381" s="17"/>
+    </row>
+    <row r="382" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="J382" s="17"/>
+    </row>
+    <row r="383" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="J383" s="17"/>
+    </row>
+    <row r="384" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
+      <c r="J384" s="17"/>
+    </row>
+    <row r="385" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="J385" s="17"/>
+    </row>
+    <row r="386" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="14"/>
+      <c r="C386" s="14"/>
+      <c r="J386" s="17"/>
+    </row>
+    <row r="387" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
+      <c r="J387" s="17"/>
+    </row>
+    <row r="388" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="14"/>
+      <c r="C388" s="14"/>
+      <c r="J388" s="17"/>
+    </row>
+    <row r="389" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
+      <c r="J389" s="17"/>
+    </row>
+    <row r="390" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
+      <c r="J390" s="17"/>
+    </row>
+    <row r="391" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
+      <c r="J391" s="17"/>
+    </row>
+    <row r="392" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
+      <c r="J392" s="17"/>
+    </row>
+    <row r="393" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
+      <c r="J393" s="17"/>
+    </row>
+    <row r="394" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+      <c r="J394" s="17"/>
+    </row>
+    <row r="395" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
+      <c r="J395" s="17"/>
+    </row>
+    <row r="396" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
+      <c r="J396" s="17"/>
+    </row>
+    <row r="397" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="14"/>
+      <c r="C397" s="14"/>
+      <c r="J397" s="17"/>
+    </row>
+    <row r="398" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
+      <c r="J398" s="17"/>
+    </row>
+    <row r="399" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
+      <c r="J399" s="17"/>
+    </row>
+    <row r="400" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="14"/>
+      <c r="C400" s="14"/>
+      <c r="J400" s="17"/>
+    </row>
+    <row r="401" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
+      <c r="J401" s="17"/>
+    </row>
+    <row r="402" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="14"/>
+      <c r="C402" s="14"/>
+      <c r="J402" s="17"/>
+    </row>
+    <row r="403" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
+      <c r="J403" s="17"/>
+    </row>
+    <row r="404" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
+      <c r="J404" s="17"/>
+    </row>
+    <row r="405" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
+      <c r="J405" s="17"/>
+    </row>
+    <row r="406" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
+      <c r="J406" s="17"/>
+    </row>
+    <row r="407" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
+      <c r="J407" s="17"/>
+    </row>
+    <row r="408" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
+      <c r="J408" s="17"/>
+    </row>
+    <row r="409" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="14"/>
+      <c r="C409" s="14"/>
+      <c r="J409" s="17"/>
+    </row>
+    <row r="410" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="14"/>
+      <c r="C410" s="14"/>
+      <c r="J410" s="17"/>
+    </row>
+    <row r="411" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
+      <c r="J411" s="17"/>
+    </row>
+    <row r="412" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="14"/>
+      <c r="C412" s="14"/>
+      <c r="J412" s="17"/>
+    </row>
+    <row r="413" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
+      <c r="J413" s="17"/>
+    </row>
+    <row r="414" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="14"/>
+      <c r="C414" s="14"/>
+      <c r="J414" s="17"/>
+    </row>
+    <row r="415" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+      <c r="J415" s="17"/>
+    </row>
+    <row r="416" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
+      <c r="J416" s="17"/>
+    </row>
+    <row r="417" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="14"/>
+      <c r="C417" s="14"/>
+      <c r="J417" s="17"/>
+    </row>
+    <row r="418" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
+      <c r="J418" s="17"/>
+    </row>
+    <row r="419" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="14"/>
+      <c r="C419" s="14"/>
+      <c r="J419" s="17"/>
+    </row>
+    <row r="420" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="14"/>
+      <c r="C420" s="14"/>
+      <c r="J420" s="17"/>
+    </row>
+    <row r="421" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="14"/>
+      <c r="C421" s="14"/>
+      <c r="J421" s="17"/>
+    </row>
+    <row r="422" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
+      <c r="J422" s="17"/>
+    </row>
+    <row r="423" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="J423" s="17"/>
+    </row>
+    <row r="424" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="14"/>
+      <c r="C424" s="14"/>
+      <c r="J424" s="17"/>
+    </row>
+    <row r="425" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="14"/>
+      <c r="C425" s="14"/>
+      <c r="J425" s="17"/>
+    </row>
+    <row r="426" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
+      <c r="J426" s="17"/>
+    </row>
+    <row r="427" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
+      <c r="J427" s="17"/>
+    </row>
+    <row r="428" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
+      <c r="J428" s="17"/>
+    </row>
+    <row r="429" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
+      <c r="J429" s="17"/>
+    </row>
+    <row r="430" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="14"/>
+      <c r="C430" s="14"/>
+      <c r="J430" s="17"/>
+    </row>
+    <row r="431" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="14"/>
+      <c r="C431" s="14"/>
+      <c r="J431" s="17"/>
+    </row>
+    <row r="432" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="J432" s="17"/>
+    </row>
+    <row r="433" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="J433" s="17"/>
+    </row>
+    <row r="434" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="J434" s="17"/>
+    </row>
+    <row r="435" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="J435" s="17"/>
+    </row>
+    <row r="436" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="J436" s="17"/>
+    </row>
+    <row r="437" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
+      <c r="J437" s="17"/>
+    </row>
+    <row r="438" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
+      <c r="J438" s="17"/>
+    </row>
+    <row r="439" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="14"/>
+      <c r="C439" s="14"/>
+      <c r="J439" s="17"/>
+    </row>
+    <row r="440" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="J440" s="17"/>
+    </row>
+    <row r="441" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
+      <c r="J441" s="17"/>
+    </row>
+    <row r="442" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="J442" s="17"/>
+    </row>
+    <row r="443" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="J443" s="17"/>
+    </row>
+    <row r="444" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
+      <c r="J444" s="17"/>
+    </row>
+    <row r="445" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="J445" s="17"/>
+    </row>
+    <row r="446" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="J446" s="17"/>
+    </row>
+    <row r="447" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="J447" s="17"/>
+    </row>
+    <row r="448" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="J448" s="17"/>
+    </row>
+    <row r="449" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="J449" s="17"/>
+    </row>
+    <row r="450" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="J450" s="17"/>
+    </row>
+    <row r="451" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="J451" s="17"/>
+    </row>
+    <row r="452" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="J452" s="17"/>
+    </row>
+    <row r="453" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="J453" s="17"/>
+    </row>
+    <row r="454" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="J454" s="17"/>
+    </row>
+    <row r="455" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="J455" s="17"/>
+    </row>
+    <row r="456" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
+      <c r="J456" s="17"/>
+    </row>
+    <row r="457" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="J457" s="17"/>
+    </row>
+    <row r="458" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="J458" s="17"/>
+    </row>
+    <row r="459" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="J459" s="17"/>
+    </row>
+    <row r="460" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
+      <c r="J460" s="17"/>
+    </row>
+    <row r="461" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="J461" s="17"/>
+    </row>
+    <row r="462" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="J462" s="17"/>
+    </row>
+    <row r="463" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="J463" s="17"/>
+    </row>
+    <row r="464" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
+      <c r="J464" s="17"/>
+    </row>
+    <row r="465" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="J465" s="17"/>
+    </row>
+    <row r="466" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="J466" s="17"/>
+    </row>
+    <row r="467" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="J467" s="17"/>
+    </row>
+    <row r="468" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="J468" s="17"/>
+    </row>
+    <row r="469" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="J469" s="17"/>
+    </row>
+    <row r="470" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
+      <c r="J470" s="17"/>
+    </row>
+    <row r="471" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="J471" s="17"/>
+    </row>
+    <row r="472" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
+      <c r="J472" s="17"/>
+    </row>
+    <row r="473" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
+      <c r="J473" s="17"/>
+    </row>
+    <row r="474" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
+      <c r="J474" s="17"/>
+    </row>
+    <row r="475" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
+      <c r="J475" s="17"/>
+    </row>
+    <row r="476" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="J476" s="17"/>
+    </row>
+    <row r="477" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
+      <c r="J477" s="17"/>
+    </row>
+    <row r="478" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
+      <c r="J478" s="17"/>
+    </row>
+    <row r="479" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
+      <c r="J479" s="17"/>
+    </row>
+    <row r="480" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
+      <c r="J480" s="17"/>
+    </row>
+    <row r="481" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
+      <c r="J481" s="17"/>
+    </row>
+    <row r="482" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="14"/>
+      <c r="C482" s="14"/>
+      <c r="J482" s="17"/>
+    </row>
+    <row r="483" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
+      <c r="J483" s="17"/>
+    </row>
+    <row r="484" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
+      <c r="J484" s="17"/>
+    </row>
+    <row r="485" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="14"/>
+      <c r="C485" s="14"/>
+      <c r="J485" s="17"/>
+    </row>
+    <row r="486" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="14"/>
+      <c r="C486" s="14"/>
+      <c r="J486" s="17"/>
+    </row>
+    <row r="487" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="14"/>
+      <c r="C487" s="14"/>
+      <c r="J487" s="17"/>
+    </row>
+    <row r="488" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="14"/>
+      <c r="C488" s="14"/>
+      <c r="J488" s="17"/>
+    </row>
+    <row r="489" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="14"/>
+      <c r="C489" s="14"/>
+      <c r="J489" s="17"/>
+    </row>
+    <row r="490" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="J490" s="17"/>
+    </row>
+    <row r="491" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="14"/>
+      <c r="C491" s="14"/>
+      <c r="J491" s="17"/>
+    </row>
+    <row r="492" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="J492" s="17"/>
+    </row>
+    <row r="493" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="14"/>
+      <c r="C493" s="14"/>
+      <c r="J493" s="17"/>
+    </row>
+    <row r="494" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="14"/>
+      <c r="C494" s="14"/>
+      <c r="J494" s="17"/>
+    </row>
+    <row r="495" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="J495" s="17"/>
+    </row>
+    <row r="496" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="14"/>
+      <c r="C496" s="14"/>
+      <c r="J496" s="17"/>
+    </row>
+    <row r="497" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="14"/>
+      <c r="C497" s="14"/>
+      <c r="J497" s="17"/>
+    </row>
+    <row r="498" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="J498" s="17"/>
+    </row>
+    <row r="499" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="14"/>
+      <c r="C499" s="14"/>
+      <c r="J499" s="17"/>
+    </row>
+    <row r="500" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="14"/>
+      <c r="C500" s="14"/>
+      <c r="J500" s="17"/>
+    </row>
+    <row r="501" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="14"/>
+      <c r="C501" s="14"/>
+      <c r="J501" s="17"/>
+    </row>
+    <row r="502" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="J502" s="17"/>
+    </row>
+    <row r="503" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="14"/>
+      <c r="C503" s="14"/>
+      <c r="J503" s="17"/>
+    </row>
+    <row r="504" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="14"/>
+      <c r="C504" s="14"/>
+      <c r="J504" s="17"/>
+    </row>
+    <row r="505" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="14"/>
+      <c r="C505" s="14"/>
+      <c r="J505" s="17"/>
+    </row>
+    <row r="506" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="14"/>
+      <c r="C506" s="14"/>
+      <c r="J506" s="17"/>
+    </row>
+    <row r="507" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="14"/>
+      <c r="C507" s="14"/>
+      <c r="J507" s="17"/>
+    </row>
+    <row r="508" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="14"/>
+      <c r="C508" s="14"/>
+      <c r="J508" s="17"/>
+    </row>
+    <row r="509" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="14"/>
+      <c r="C509" s="14"/>
+      <c r="J509" s="17"/>
+    </row>
+    <row r="510" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="J510" s="17"/>
+    </row>
+    <row r="511" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="14"/>
+      <c r="C511" s="14"/>
+      <c r="J511" s="17"/>
+    </row>
+    <row r="512" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="14"/>
+      <c r="C512" s="14"/>
+      <c r="J512" s="17"/>
+    </row>
+    <row r="513" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="14"/>
+      <c r="C513" s="14"/>
+      <c r="J513" s="17"/>
+    </row>
+    <row r="514" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="14"/>
+      <c r="C514" s="14"/>
+      <c r="J514" s="17"/>
+    </row>
+    <row r="515" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="J515" s="17"/>
+    </row>
+    <row r="516" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="14"/>
+      <c r="C516" s="14"/>
+      <c r="J516" s="17"/>
+    </row>
+    <row r="517" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="14"/>
+      <c r="C517" s="14"/>
+      <c r="J517" s="17"/>
+    </row>
+    <row r="518" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="J518" s="17"/>
+    </row>
+    <row r="519" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="14"/>
+      <c r="C519" s="14"/>
+      <c r="J519" s="17"/>
+    </row>
+    <row r="520" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="14"/>
+      <c r="C520" s="14"/>
+      <c r="J520" s="17"/>
+    </row>
+    <row r="521" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="J521" s="17"/>
+    </row>
+    <row r="522" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="14"/>
+      <c r="C522" s="14"/>
+      <c r="J522" s="17"/>
+    </row>
+    <row r="523" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="14"/>
+      <c r="C523" s="14"/>
+      <c r="J523" s="17"/>
+    </row>
+    <row r="524" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="14"/>
+      <c r="C524" s="14"/>
+      <c r="J524" s="17"/>
+    </row>
+    <row r="525" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="14"/>
+      <c r="C525" s="14"/>
+      <c r="J525" s="17"/>
+    </row>
+    <row r="526" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="14"/>
+      <c r="C526" s="14"/>
+      <c r="J526" s="17"/>
+    </row>
+    <row r="527" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="14"/>
+      <c r="C527" s="14"/>
+      <c r="J527" s="17"/>
+    </row>
+    <row r="528" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="14"/>
+      <c r="C528" s="14"/>
+      <c r="J528" s="17"/>
+    </row>
+    <row r="529" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="14"/>
+      <c r="C529" s="14"/>
+      <c r="J529" s="17"/>
+    </row>
+    <row r="530" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="14"/>
+      <c r="C530" s="14"/>
+      <c r="J530" s="17"/>
+    </row>
+    <row r="531" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="14"/>
+      <c r="C531" s="14"/>
+      <c r="J531" s="17"/>
+    </row>
+    <row r="532" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="J532" s="17"/>
+    </row>
+    <row r="533" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+      <c r="J533" s="17"/>
+    </row>
+    <row r="534" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+      <c r="J534" s="17"/>
+    </row>
+    <row r="535" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+      <c r="J535" s="17"/>
+    </row>
+    <row r="536" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="14"/>
+      <c r="C536" s="14"/>
+      <c r="J536" s="17"/>
+    </row>
+    <row r="537" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="14"/>
+      <c r="C537" s="14"/>
+      <c r="J537" s="17"/>
+    </row>
+    <row r="538" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
+      <c r="J538" s="17"/>
+    </row>
+    <row r="539" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="14"/>
+      <c r="C539" s="14"/>
+      <c r="J539" s="17"/>
+    </row>
+    <row r="540" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="14"/>
+      <c r="C540" s="14"/>
+      <c r="J540" s="17"/>
+    </row>
+    <row r="541" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="14"/>
+      <c r="C541" s="14"/>
+      <c r="J541" s="17"/>
+    </row>
+    <row r="542" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="J542" s="17"/>
+    </row>
+    <row r="543" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="J543" s="17"/>
+    </row>
+    <row r="544" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="14"/>
+      <c r="C544" s="14"/>
+      <c r="J544" s="17"/>
+    </row>
+    <row r="545" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="J545" s="17"/>
+    </row>
+    <row r="546" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="14"/>
+      <c r="C546" s="14"/>
+      <c r="J546" s="17"/>
+    </row>
+    <row r="547" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="J547" s="17"/>
+    </row>
+    <row r="548" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="14"/>
+      <c r="C548" s="14"/>
+      <c r="J548" s="17"/>
+    </row>
+    <row r="549" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="J549" s="17"/>
+    </row>
+    <row r="550" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="14"/>
+      <c r="C550" s="14"/>
+      <c r="J550" s="17"/>
+    </row>
+    <row r="551" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="J551" s="17"/>
+    </row>
+    <row r="552" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
+      <c r="J552" s="17"/>
+    </row>
+    <row r="553" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="14"/>
+      <c r="C553" s="14"/>
+      <c r="J553" s="17"/>
+    </row>
+    <row r="554" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="J554" s="17"/>
+    </row>
+    <row r="555" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="14"/>
+      <c r="C555" s="14"/>
+      <c r="J555" s="17"/>
+    </row>
+    <row r="556" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="J556" s="17"/>
+    </row>
+    <row r="557" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="J557" s="17"/>
+    </row>
+    <row r="558" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="14"/>
+      <c r="C558" s="14"/>
+      <c r="J558" s="17"/>
+    </row>
+    <row r="559" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="14"/>
+      <c r="C559" s="14"/>
+      <c r="J559" s="17"/>
+    </row>
+    <row r="560" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="14"/>
+      <c r="C560" s="14"/>
+      <c r="J560" s="17"/>
+    </row>
+    <row r="561" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="J561" s="17"/>
+    </row>
+    <row r="562" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="14"/>
+      <c r="C562" s="14"/>
+      <c r="J562" s="17"/>
+    </row>
+    <row r="563" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="14"/>
+      <c r="C563" s="14"/>
+      <c r="J563" s="17"/>
+    </row>
+    <row r="564" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="14"/>
+      <c r="C564" s="14"/>
+      <c r="J564" s="17"/>
+    </row>
+    <row r="565" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="14"/>
+      <c r="C565" s="14"/>
+      <c r="J565" s="17"/>
+    </row>
+    <row r="566" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="14"/>
+      <c r="C566" s="14"/>
+      <c r="J566" s="17"/>
+    </row>
+    <row r="567" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="14"/>
+      <c r="C567" s="14"/>
+      <c r="J567" s="17"/>
+    </row>
+    <row r="568" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="14"/>
+      <c r="C568" s="14"/>
+      <c r="J568" s="17"/>
+    </row>
+    <row r="569" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="14"/>
+      <c r="C569" s="14"/>
+      <c r="J569" s="17"/>
+    </row>
+    <row r="570" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="14"/>
+      <c r="C570" s="14"/>
+      <c r="J570" s="17"/>
+    </row>
+    <row r="571" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="J571" s="17"/>
+    </row>
+    <row r="572" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="14"/>
+      <c r="C572" s="14"/>
+      <c r="J572" s="17"/>
+    </row>
+    <row r="573" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="14"/>
+      <c r="C573" s="14"/>
+      <c r="J573" s="17"/>
+    </row>
+    <row r="574" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="14"/>
+      <c r="C574" s="14"/>
+      <c r="J574" s="17"/>
+    </row>
+    <row r="575" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="14"/>
+      <c r="C575" s="14"/>
+      <c r="J575" s="17"/>
+    </row>
+    <row r="576" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="J576" s="17"/>
+    </row>
+    <row r="577" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="14"/>
+      <c r="C577" s="14"/>
+      <c r="J577" s="17"/>
+    </row>
+    <row r="578" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="14"/>
+      <c r="C578" s="14"/>
+      <c r="J578" s="17"/>
+    </row>
+    <row r="579" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="J579" s="17"/>
+    </row>
+    <row r="580" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="14"/>
+      <c r="C580" s="14"/>
+      <c r="J580" s="17"/>
+    </row>
+    <row r="581" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="14"/>
+      <c r="C581" s="14"/>
+      <c r="J581" s="17"/>
+    </row>
+    <row r="582" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="14"/>
+      <c r="C582" s="14"/>
+      <c r="J582" s="17"/>
+    </row>
+    <row r="583" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+      <c r="J583" s="17"/>
+    </row>
+    <row r="584" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="14"/>
+      <c r="C584" s="14"/>
+      <c r="J584" s="17"/>
+    </row>
+    <row r="585" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="14"/>
+      <c r="C585" s="14"/>
+      <c r="J585" s="17"/>
+    </row>
+    <row r="586" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="14"/>
+      <c r="C586" s="14"/>
+      <c r="J586" s="17"/>
+    </row>
+    <row r="587" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="14"/>
+      <c r="C587" s="14"/>
+      <c r="J587" s="17"/>
+    </row>
+    <row r="588" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="14"/>
+      <c r="C588" s="14"/>
+      <c r="J588" s="17"/>
+    </row>
+    <row r="589" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="14"/>
+      <c r="C589" s="14"/>
+      <c r="J589" s="17"/>
+    </row>
+    <row r="590" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="14"/>
+      <c r="C590" s="14"/>
+      <c r="J590" s="17"/>
+    </row>
+    <row r="591" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="14"/>
+      <c r="C591" s="14"/>
+      <c r="J591" s="17"/>
+    </row>
+    <row r="592" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="14"/>
+      <c r="C592" s="14"/>
+      <c r="J592" s="17"/>
+    </row>
+    <row r="593" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="14"/>
+      <c r="C593" s="14"/>
+      <c r="J593" s="17"/>
+    </row>
+    <row r="594" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="J594" s="17"/>
+    </row>
+    <row r="595" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="14"/>
+      <c r="C595" s="14"/>
+      <c r="J595" s="17"/>
+    </row>
+    <row r="596" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="14"/>
+      <c r="C596" s="14"/>
+      <c r="J596" s="17"/>
+    </row>
+    <row r="597" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="14"/>
+      <c r="C597" s="14"/>
+      <c r="J597" s="17"/>
+    </row>
+    <row r="598" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="14"/>
+      <c r="C598" s="14"/>
+      <c r="J598" s="17"/>
+    </row>
+    <row r="599" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="14"/>
+      <c r="C599" s="14"/>
+      <c r="J599" s="17"/>
+    </row>
+    <row r="600" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="14"/>
+      <c r="C600" s="14"/>
+      <c r="J600" s="17"/>
+    </row>
+    <row r="601" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="14"/>
+      <c r="C601" s="14"/>
+      <c r="J601" s="17"/>
+    </row>
+    <row r="602" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="J602" s="17"/>
+    </row>
+    <row r="603" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="J603" s="17"/>
+    </row>
+    <row r="604" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="14"/>
+      <c r="C604" s="14"/>
+      <c r="J604" s="17"/>
+    </row>
+    <row r="605" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="14"/>
+      <c r="C605" s="14"/>
+      <c r="J605" s="17"/>
+    </row>
+    <row r="606" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="J606" s="17"/>
+    </row>
+    <row r="607" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="14"/>
+      <c r="C607" s="14"/>
+      <c r="J607" s="17"/>
+    </row>
+    <row r="608" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="14"/>
+      <c r="C608" s="14"/>
+      <c r="J608" s="17"/>
+    </row>
+    <row r="609" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="14"/>
+      <c r="C609" s="14"/>
+      <c r="J609" s="17"/>
+    </row>
+    <row r="610" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="14"/>
+      <c r="C610" s="14"/>
+      <c r="J610" s="17"/>
+    </row>
+    <row r="611" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="14"/>
+      <c r="C611" s="14"/>
+      <c r="J611" s="17"/>
+    </row>
+    <row r="612" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="14"/>
+      <c r="C612" s="14"/>
+      <c r="J612" s="17"/>
+    </row>
+    <row r="613" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="14"/>
+      <c r="C613" s="14"/>
+      <c r="J613" s="17"/>
+    </row>
+    <row r="614" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="14"/>
+      <c r="C614" s="14"/>
+      <c r="J614" s="17"/>
+    </row>
+    <row r="615" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="14"/>
+      <c r="C615" s="14"/>
+      <c r="J615" s="17"/>
+    </row>
+    <row r="616" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="14"/>
+      <c r="C616" s="14"/>
+      <c r="J616" s="17"/>
+    </row>
+    <row r="617" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="14"/>
+      <c r="C617" s="14"/>
+      <c r="J617" s="17"/>
+    </row>
+    <row r="618" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="14"/>
+      <c r="C618" s="14"/>
+      <c r="J618" s="17"/>
+    </row>
+    <row r="619" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="J619" s="17"/>
+    </row>
+    <row r="620" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="14"/>
+      <c r="C620" s="14"/>
+      <c r="J620" s="17"/>
+    </row>
+    <row r="621" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="J621" s="17"/>
+    </row>
+    <row r="622" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="14"/>
+      <c r="C622" s="14"/>
+      <c r="J622" s="17"/>
+    </row>
+    <row r="623" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="J623" s="17"/>
+    </row>
+    <row r="624" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="14"/>
+      <c r="C624" s="14"/>
+      <c r="J624" s="17"/>
+    </row>
+    <row r="625" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="J625" s="17"/>
+    </row>
+    <row r="626" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="14"/>
+      <c r="C626" s="14"/>
+      <c r="J626" s="17"/>
+    </row>
+    <row r="627" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="J627" s="17"/>
+    </row>
+    <row r="628" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="14"/>
+      <c r="C628" s="14"/>
+      <c r="J628" s="17"/>
+    </row>
+    <row r="629" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="14"/>
+      <c r="C629" s="14"/>
+      <c r="J629" s="17"/>
+    </row>
+    <row r="630" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="14"/>
+      <c r="C630" s="14"/>
+      <c r="J630" s="17"/>
+    </row>
+    <row r="631" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="J631" s="17"/>
+    </row>
+    <row r="632" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="14"/>
+      <c r="C632" s="14"/>
+      <c r="J632" s="17"/>
+    </row>
+    <row r="633" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="14"/>
+      <c r="C633" s="14"/>
+      <c r="J633" s="17"/>
+    </row>
+    <row r="634" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="14"/>
+      <c r="C634" s="14"/>
+      <c r="J634" s="17"/>
+    </row>
+    <row r="635" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="14"/>
+      <c r="C635" s="14"/>
+      <c r="J635" s="17"/>
+    </row>
+    <row r="636" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="14"/>
+      <c r="C636" s="14"/>
+      <c r="J636" s="17"/>
+    </row>
+    <row r="637" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="14"/>
+      <c r="C637" s="14"/>
+      <c r="J637" s="17"/>
+    </row>
+    <row r="638" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="J638" s="17"/>
+    </row>
+    <row r="639" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="14"/>
+      <c r="C639" s="14"/>
+      <c r="J639" s="17"/>
+    </row>
+    <row r="640" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="14"/>
+      <c r="C640" s="14"/>
+      <c r="J640" s="17"/>
+    </row>
+    <row r="641" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="14"/>
+      <c r="C641" s="14"/>
+      <c r="J641" s="17"/>
+    </row>
+    <row r="642" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="14"/>
+      <c r="C642" s="14"/>
+      <c r="J642" s="17"/>
+    </row>
+    <row r="643" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="14"/>
+      <c r="C643" s="14"/>
+      <c r="J643" s="17"/>
+    </row>
+    <row r="644" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="14"/>
+      <c r="C644" s="14"/>
+      <c r="J644" s="17"/>
+    </row>
+    <row r="645" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="14"/>
+      <c r="C645" s="14"/>
+      <c r="J645" s="17"/>
+    </row>
+    <row r="646" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="14"/>
+      <c r="C646" s="14"/>
+      <c r="J646" s="17"/>
+    </row>
+    <row r="647" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="J647" s="17"/>
+    </row>
+    <row r="648" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="14"/>
+      <c r="C648" s="14"/>
+      <c r="J648" s="17"/>
+    </row>
+    <row r="649" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="14"/>
+      <c r="C649" s="14"/>
+      <c r="J649" s="17"/>
+    </row>
+    <row r="650" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="14"/>
+      <c r="C650" s="14"/>
+      <c r="J650" s="17"/>
+    </row>
+    <row r="651" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="14"/>
+      <c r="C651" s="14"/>
+      <c r="J651" s="17"/>
+    </row>
+    <row r="652" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="14"/>
+      <c r="C652" s="14"/>
+      <c r="J652" s="17"/>
+    </row>
+    <row r="653" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="J653" s="17"/>
+    </row>
+    <row r="654" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="14"/>
+      <c r="C654" s="14"/>
+      <c r="J654" s="17"/>
+    </row>
+    <row r="655" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="14"/>
+      <c r="C655" s="14"/>
+      <c r="J655" s="17"/>
+    </row>
+    <row r="656" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="14"/>
+      <c r="C656" s="14"/>
+      <c r="J656" s="17"/>
+    </row>
+    <row r="657" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="14"/>
+      <c r="C657" s="14"/>
+      <c r="J657" s="17"/>
+    </row>
+    <row r="658" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="J658" s="17"/>
+    </row>
+    <row r="659" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="14"/>
+      <c r="C659" s="14"/>
+      <c r="J659" s="17"/>
+    </row>
+    <row r="660" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="14"/>
+      <c r="C660" s="14"/>
+      <c r="J660" s="17"/>
+    </row>
+    <row r="661" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="J661" s="17"/>
+    </row>
+    <row r="662" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="14"/>
+      <c r="C662" s="14"/>
+      <c r="J662" s="17"/>
+    </row>
+    <row r="663" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="J663" s="17"/>
+    </row>
+    <row r="664" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="14"/>
+      <c r="C664" s="14"/>
+      <c r="J664" s="17"/>
+    </row>
+    <row r="665" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="14"/>
+      <c r="C665" s="14"/>
+      <c r="J665" s="17"/>
+    </row>
+    <row r="666" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="J666" s="17"/>
+    </row>
+    <row r="667" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="14"/>
+      <c r="C667" s="14"/>
+      <c r="J667" s="17"/>
+    </row>
+    <row r="668" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="14"/>
+      <c r="C668" s="14"/>
+      <c r="J668" s="17"/>
+    </row>
+    <row r="669" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="J669" s="17"/>
+    </row>
+    <row r="670" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="14"/>
+      <c r="C670" s="14"/>
+      <c r="J670" s="17"/>
+    </row>
+    <row r="671" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="J671" s="17"/>
+    </row>
+    <row r="672" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="14"/>
+      <c r="C672" s="14"/>
+      <c r="J672" s="17"/>
+    </row>
+    <row r="673" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="J673" s="17"/>
+    </row>
+    <row r="674" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="14"/>
+      <c r="C674" s="14"/>
+      <c r="J674" s="17"/>
+    </row>
+    <row r="675" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="14"/>
+      <c r="C675" s="14"/>
+      <c r="J675" s="17"/>
+    </row>
+    <row r="676" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="14"/>
+      <c r="C676" s="14"/>
+      <c r="J676" s="17"/>
+    </row>
+    <row r="677" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="14"/>
+      <c r="C677" s="14"/>
+      <c r="J677" s="17"/>
+    </row>
+    <row r="678" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="J678" s="17"/>
+    </row>
+    <row r="679" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="14"/>
+      <c r="C679" s="14"/>
+      <c r="J679" s="17"/>
+    </row>
+    <row r="680" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="14"/>
+      <c r="C680" s="14"/>
+      <c r="J680" s="17"/>
+    </row>
+    <row r="681" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="14"/>
+      <c r="C681" s="14"/>
+      <c r="J681" s="17"/>
+    </row>
+    <row r="682" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="14"/>
+      <c r="C682" s="14"/>
+      <c r="J682" s="17"/>
+    </row>
+    <row r="683" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="14"/>
+      <c r="C683" s="14"/>
+      <c r="J683" s="17"/>
+    </row>
+    <row r="684" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="14"/>
+      <c r="C684" s="14"/>
+      <c r="J684" s="17"/>
+    </row>
+    <row r="685" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="14"/>
+      <c r="C685" s="14"/>
+      <c r="J685" s="17"/>
+    </row>
+    <row r="686" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="J686" s="17"/>
+    </row>
+    <row r="687" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="14"/>
+      <c r="C687" s="14"/>
+      <c r="J687" s="17"/>
+    </row>
+    <row r="688" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="14"/>
+      <c r="C688" s="14"/>
+      <c r="J688" s="17"/>
+    </row>
+    <row r="689" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="14"/>
+      <c r="C689" s="14"/>
+      <c r="J689" s="17"/>
+    </row>
+    <row r="690" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="14"/>
+      <c r="C690" s="14"/>
+      <c r="J690" s="17"/>
+    </row>
+    <row r="691" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="14"/>
+      <c r="C691" s="14"/>
+      <c r="J691" s="17"/>
+    </row>
+    <row r="692" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="14"/>
+      <c r="C692" s="14"/>
+      <c r="J692" s="17"/>
+    </row>
+    <row r="693" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="14"/>
+      <c r="C693" s="14"/>
+      <c r="J693" s="17"/>
+    </row>
+    <row r="694" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="14"/>
+      <c r="C694" s="14"/>
+      <c r="J694" s="17"/>
+    </row>
+    <row r="695" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="14"/>
+      <c r="C695" s="14"/>
+      <c r="J695" s="17"/>
+    </row>
+    <row r="696" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="14"/>
+      <c r="C696" s="14"/>
+      <c r="J696" s="17"/>
+    </row>
+    <row r="697" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="14"/>
+      <c r="C697" s="14"/>
+      <c r="J697" s="17"/>
+    </row>
+    <row r="698" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="14"/>
+      <c r="C698" s="14"/>
+      <c r="J698" s="17"/>
+    </row>
+    <row r="699" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="14"/>
+      <c r="C699" s="14"/>
+      <c r="J699" s="17"/>
+    </row>
+    <row r="700" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="14"/>
+      <c r="C700" s="14"/>
+      <c r="J700" s="17"/>
+    </row>
+    <row r="701" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="J701" s="17"/>
+    </row>
+    <row r="702" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="14"/>
+      <c r="C702" s="14"/>
+      <c r="J702" s="17"/>
+    </row>
+    <row r="703" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="14"/>
+      <c r="C703" s="14"/>
+      <c r="J703" s="17"/>
+    </row>
+    <row r="704" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="J704" s="17"/>
+    </row>
+    <row r="705" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="14"/>
+      <c r="C705" s="14"/>
+      <c r="J705" s="17"/>
+    </row>
+    <row r="706" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="14"/>
+      <c r="C706" s="14"/>
+      <c r="J706" s="17"/>
+    </row>
+    <row r="707" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="14"/>
+      <c r="C707" s="14"/>
+      <c r="J707" s="17"/>
+    </row>
+    <row r="708" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="14"/>
+      <c r="C708" s="14"/>
+      <c r="J708" s="17"/>
+    </row>
+    <row r="709" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="14"/>
+      <c r="C709" s="14"/>
+      <c r="J709" s="17"/>
+    </row>
+    <row r="710" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="14"/>
+      <c r="C710" s="14"/>
+      <c r="J710" s="17"/>
+    </row>
+    <row r="711" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="14"/>
+      <c r="C711" s="14"/>
+      <c r="J711" s="17"/>
+    </row>
+    <row r="712" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="14"/>
+      <c r="C712" s="14"/>
+      <c r="J712" s="17"/>
+    </row>
+    <row r="713" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="14"/>
+      <c r="C713" s="14"/>
+      <c r="J713" s="17"/>
+    </row>
+    <row r="714" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="14"/>
+      <c r="C714" s="14"/>
+      <c r="J714" s="17"/>
+    </row>
+    <row r="715" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="14"/>
+      <c r="C715" s="14"/>
+      <c r="J715" s="17"/>
+    </row>
+    <row r="716" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="14"/>
+      <c r="C716" s="14"/>
+      <c r="J716" s="17"/>
+    </row>
+    <row r="717" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="J717" s="17"/>
+    </row>
+    <row r="718" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="14"/>
+      <c r="C718" s="14"/>
+      <c r="J718" s="17"/>
+    </row>
+    <row r="719" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="J719" s="17"/>
+    </row>
+    <row r="720" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="14"/>
+      <c r="C720" s="14"/>
+      <c r="J720" s="17"/>
+    </row>
+    <row r="721" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="14"/>
+      <c r="C721" s="14"/>
+      <c r="J721" s="17"/>
+    </row>
+    <row r="722" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="14"/>
+      <c r="C722" s="14"/>
+      <c r="J722" s="17"/>
+    </row>
+    <row r="723" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="14"/>
+      <c r="C723" s="14"/>
+      <c r="J723" s="17"/>
+    </row>
+    <row r="724" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="14"/>
+      <c r="C724" s="14"/>
+      <c r="J724" s="17"/>
+    </row>
+    <row r="725" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="J725" s="17"/>
+    </row>
+    <row r="726" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="14"/>
+      <c r="C726" s="14"/>
+      <c r="J726" s="17"/>
+    </row>
+    <row r="727" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="14"/>
+      <c r="C727" s="14"/>
+      <c r="J727" s="17"/>
+    </row>
+    <row r="728" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="14"/>
+      <c r="C728" s="14"/>
+      <c r="J728" s="17"/>
+    </row>
+    <row r="729" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="14"/>
+      <c r="C729" s="14"/>
+      <c r="J729" s="17"/>
+    </row>
+    <row r="730" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="14"/>
+      <c r="C730" s="14"/>
+      <c r="J730" s="17"/>
+    </row>
+    <row r="731" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="14"/>
+      <c r="C731" s="14"/>
+      <c r="J731" s="17"/>
+    </row>
+    <row r="732" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="14"/>
+      <c r="C732" s="14"/>
+      <c r="J732" s="17"/>
+    </row>
+    <row r="733" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="14"/>
+      <c r="C733" s="14"/>
+      <c r="J733" s="17"/>
+    </row>
+    <row r="734" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="J734" s="17"/>
+    </row>
+    <row r="735" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="14"/>
+      <c r="C735" s="14"/>
+      <c r="J735" s="17"/>
+    </row>
+    <row r="736" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="14"/>
+      <c r="C736" s="14"/>
+      <c r="J736" s="17"/>
+    </row>
+    <row r="737" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="14"/>
+      <c r="C737" s="14"/>
+      <c r="J737" s="17"/>
+    </row>
+    <row r="738" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="14"/>
+      <c r="C738" s="14"/>
+      <c r="J738" s="17"/>
+    </row>
+    <row r="739" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="14"/>
+      <c r="C739" s="14"/>
+      <c r="J739" s="17"/>
+    </row>
+    <row r="740" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="14"/>
+      <c r="C740" s="14"/>
+      <c r="J740" s="17"/>
+    </row>
+    <row r="741" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="J741" s="17"/>
+    </row>
+    <row r="742" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="14"/>
+      <c r="C742" s="14"/>
+      <c r="J742" s="17"/>
+    </row>
+    <row r="743" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="14"/>
+      <c r="C743" s="14"/>
+      <c r="J743" s="17"/>
+    </row>
+    <row r="744" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="14"/>
+      <c r="C744" s="14"/>
+      <c r="J744" s="17"/>
+    </row>
+    <row r="745" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="14"/>
+      <c r="C745" s="14"/>
+      <c r="J745" s="17"/>
+    </row>
+    <row r="746" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="14"/>
+      <c r="C746" s="14"/>
+      <c r="J746" s="17"/>
+    </row>
+    <row r="747" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="14"/>
+      <c r="C747" s="14"/>
+      <c r="J747" s="17"/>
+    </row>
+    <row r="748" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="14"/>
+      <c r="C748" s="14"/>
+      <c r="J748" s="17"/>
+    </row>
+    <row r="749" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="J749" s="17"/>
+    </row>
+    <row r="750" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="14"/>
+      <c r="C750" s="14"/>
+      <c r="J750" s="17"/>
+    </row>
+    <row r="751" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="14"/>
+      <c r="C751" s="14"/>
+      <c r="J751" s="17"/>
+    </row>
+    <row r="752" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="14"/>
+      <c r="C752" s="14"/>
+      <c r="J752" s="17"/>
+    </row>
+    <row r="753" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="14"/>
+      <c r="C753" s="14"/>
+      <c r="J753" s="17"/>
+    </row>
+    <row r="754" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="14"/>
+      <c r="C754" s="14"/>
+      <c r="J754" s="17"/>
+    </row>
+    <row r="755" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="14"/>
+      <c r="C755" s="14"/>
+      <c r="J755" s="17"/>
+    </row>
+    <row r="756" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="14"/>
+      <c r="C756" s="14"/>
+      <c r="J756" s="17"/>
+    </row>
+    <row r="757" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="14"/>
+      <c r="C757" s="14"/>
+      <c r="J757" s="17"/>
+    </row>
+    <row r="758" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="J758" s="17"/>
+    </row>
+    <row r="759" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="14"/>
+      <c r="C759" s="14"/>
+      <c r="J759" s="17"/>
+    </row>
+    <row r="760" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="J760" s="17"/>
+    </row>
+    <row r="761" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="14"/>
+      <c r="C761" s="14"/>
+      <c r="J761" s="17"/>
+    </row>
+    <row r="762" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="14"/>
+      <c r="C762" s="14"/>
+      <c r="J762" s="17"/>
+    </row>
+    <row r="763" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="14"/>
+      <c r="C763" s="14"/>
+      <c r="J763" s="17"/>
+    </row>
+    <row r="764" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="14"/>
+      <c r="C764" s="14"/>
+      <c r="J764" s="17"/>
+    </row>
+    <row r="765" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="J765" s="17"/>
+    </row>
+    <row r="766" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="14"/>
+      <c r="C766" s="14"/>
+      <c r="J766" s="17"/>
+    </row>
+    <row r="767" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="14"/>
+      <c r="C767" s="14"/>
+      <c r="J767" s="17"/>
+    </row>
+    <row r="768" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="J768" s="17"/>
+    </row>
+    <row r="769" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="14"/>
+      <c r="C769" s="14"/>
+      <c r="J769" s="17"/>
+    </row>
+    <row r="770" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="14"/>
+      <c r="C770" s="14"/>
+      <c r="J770" s="17"/>
+    </row>
+    <row r="771" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="14"/>
+      <c r="C771" s="14"/>
+      <c r="J771" s="17"/>
+    </row>
+    <row r="772" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="14"/>
+      <c r="C772" s="14"/>
+      <c r="J772" s="17"/>
+    </row>
+    <row r="773" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="14"/>
+      <c r="C773" s="14"/>
+      <c r="J773" s="17"/>
+    </row>
+    <row r="774" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="14"/>
+      <c r="C774" s="14"/>
+      <c r="J774" s="17"/>
+    </row>
+    <row r="775" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="14"/>
+      <c r="C775" s="14"/>
+      <c r="J775" s="17"/>
+    </row>
+    <row r="776" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="14"/>
+      <c r="C776" s="14"/>
+      <c r="J776" s="17"/>
+    </row>
+    <row r="777" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
+      <c r="J777" s="17"/>
+    </row>
+    <row r="778" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="14"/>
+      <c r="C778" s="14"/>
+      <c r="J778" s="17"/>
+    </row>
+    <row r="779" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="J779" s="17"/>
+    </row>
+    <row r="780" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="14"/>
+      <c r="C780" s="14"/>
+      <c r="J780" s="17"/>
+    </row>
+    <row r="781" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="14"/>
+      <c r="C781" s="14"/>
+      <c r="J781" s="17"/>
+    </row>
+    <row r="782" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="14"/>
+      <c r="C782" s="14"/>
+      <c r="J782" s="17"/>
+    </row>
+    <row r="783" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="14"/>
+      <c r="C783" s="14"/>
+      <c r="J783" s="17"/>
+    </row>
+    <row r="784" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="14"/>
+      <c r="C784" s="14"/>
+      <c r="J784" s="17"/>
+    </row>
+    <row r="785" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="14"/>
+      <c r="C785" s="14"/>
+      <c r="J785" s="17"/>
+    </row>
+    <row r="786" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="14"/>
+      <c r="C786" s="14"/>
+      <c r="J786" s="17"/>
+    </row>
+    <row r="787" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="14"/>
+      <c r="C787" s="14"/>
+      <c r="J787" s="17"/>
+    </row>
+    <row r="788" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="14"/>
+      <c r="C788" s="14"/>
+      <c r="J788" s="17"/>
+    </row>
+    <row r="789" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="14"/>
+      <c r="C789" s="14"/>
+      <c r="J789" s="17"/>
+    </row>
+    <row r="790" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="14"/>
+      <c r="C790" s="14"/>
+      <c r="J790" s="17"/>
+    </row>
+    <row r="791" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="J791" s="17"/>
+    </row>
+    <row r="792" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="14"/>
+      <c r="C792" s="14"/>
+      <c r="J792" s="17"/>
+    </row>
+    <row r="793" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="14"/>
+      <c r="C793" s="14"/>
+      <c r="J793" s="17"/>
+    </row>
+    <row r="794" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="14"/>
+      <c r="C794" s="14"/>
+      <c r="J794" s="17"/>
+    </row>
+    <row r="795" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="14"/>
+      <c r="C795" s="14"/>
+      <c r="J795" s="17"/>
+    </row>
+    <row r="796" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="14"/>
+      <c r="C796" s="14"/>
+      <c r="J796" s="17"/>
+    </row>
+    <row r="797" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="14"/>
+      <c r="C797" s="14"/>
+      <c r="J797" s="17"/>
+    </row>
+    <row r="798" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="J798" s="17"/>
+    </row>
+    <row r="799" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="14"/>
+      <c r="C799" s="14"/>
+      <c r="J799" s="17"/>
+    </row>
+    <row r="800" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="J800" s="17"/>
+    </row>
+    <row r="801" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="14"/>
+      <c r="C801" s="14"/>
+      <c r="J801" s="17"/>
+    </row>
+    <row r="802" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="14"/>
+      <c r="C802" s="14"/>
+      <c r="J802" s="17"/>
+    </row>
+    <row r="803" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="14"/>
+      <c r="C803" s="14"/>
+      <c r="J803" s="17"/>
+    </row>
+    <row r="804" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="14"/>
+      <c r="C804" s="14"/>
+      <c r="J804" s="17"/>
+    </row>
+    <row r="805" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="14"/>
+      <c r="C805" s="14"/>
+      <c r="J805" s="17"/>
+    </row>
+    <row r="806" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="14"/>
+      <c r="C806" s="14"/>
+      <c r="J806" s="17"/>
+    </row>
+    <row r="807" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="14"/>
+      <c r="C807" s="14"/>
+      <c r="J807" s="17"/>
+    </row>
+    <row r="808" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="14"/>
+      <c r="C808" s="14"/>
+      <c r="J808" s="17"/>
+    </row>
+    <row r="809" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="14"/>
+      <c r="C809" s="14"/>
+      <c r="J809" s="17"/>
+    </row>
+    <row r="810" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="14"/>
+      <c r="C810" s="14"/>
+      <c r="J810" s="17"/>
+    </row>
+    <row r="811" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="14"/>
+      <c r="C811" s="14"/>
+      <c r="J811" s="17"/>
+    </row>
+    <row r="812" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="14"/>
+      <c r="C812" s="14"/>
+      <c r="J812" s="17"/>
+    </row>
+    <row r="813" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="14"/>
+      <c r="C813" s="14"/>
+      <c r="J813" s="17"/>
+    </row>
+    <row r="814" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="14"/>
+      <c r="C814" s="14"/>
+      <c r="J814" s="17"/>
+    </row>
+    <row r="815" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="14"/>
+      <c r="C815" s="14"/>
+      <c r="J815" s="17"/>
+    </row>
+    <row r="816" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="14"/>
+      <c r="C816" s="14"/>
+      <c r="J816" s="17"/>
+    </row>
+    <row r="817" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="J817" s="17"/>
+    </row>
+    <row r="818" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="14"/>
+      <c r="C818" s="14"/>
+      <c r="J818" s="17"/>
+    </row>
+    <row r="819" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="14"/>
+      <c r="C819" s="14"/>
+      <c r="J819" s="17"/>
+    </row>
+    <row r="820" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="14"/>
+      <c r="C820" s="14"/>
+      <c r="J820" s="17"/>
+    </row>
+    <row r="821" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="14"/>
+      <c r="C821" s="14"/>
+      <c r="J821" s="17"/>
+    </row>
+    <row r="822" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="14"/>
+      <c r="C822" s="14"/>
+      <c r="J822" s="17"/>
+    </row>
+    <row r="823" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="14"/>
+      <c r="C823" s="14"/>
+      <c r="J823" s="17"/>
+    </row>
+    <row r="824" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="14"/>
+      <c r="C824" s="14"/>
+      <c r="J824" s="17"/>
+    </row>
+    <row r="825" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="14"/>
+      <c r="C825" s="14"/>
+      <c r="J825" s="17"/>
+    </row>
+    <row r="826" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="14"/>
+      <c r="C826" s="14"/>
+      <c r="J826" s="17"/>
+    </row>
+    <row r="827" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="14"/>
+      <c r="C827" s="14"/>
+      <c r="J827" s="17"/>
+    </row>
+    <row r="828" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="14"/>
+      <c r="C828" s="14"/>
+      <c r="J828" s="17"/>
+    </row>
+    <row r="829" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="14"/>
+      <c r="C829" s="14"/>
+      <c r="J829" s="17"/>
+    </row>
+    <row r="830" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="14"/>
+      <c r="C830" s="14"/>
+      <c r="J830" s="17"/>
+    </row>
+    <row r="831" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="14"/>
+      <c r="C831" s="14"/>
+      <c r="J831" s="17"/>
+    </row>
+    <row r="832" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="14"/>
+      <c r="C832" s="14"/>
+      <c r="J832" s="17"/>
+    </row>
+    <row r="833" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="14"/>
+      <c r="C833" s="14"/>
+      <c r="J833" s="17"/>
+    </row>
+    <row r="834" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="14"/>
+      <c r="C834" s="14"/>
+      <c r="J834" s="17"/>
+    </row>
+    <row r="835" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="14"/>
+      <c r="C835" s="14"/>
+      <c r="J835" s="17"/>
+    </row>
+    <row r="836" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="14"/>
+      <c r="C836" s="14"/>
+      <c r="J836" s="17"/>
+    </row>
+    <row r="837" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="14"/>
+      <c r="C837" s="14"/>
+      <c r="J837" s="17"/>
+    </row>
+    <row r="838" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="14"/>
+      <c r="C838" s="14"/>
+      <c r="J838" s="17"/>
+    </row>
+    <row r="839" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="14"/>
+      <c r="C839" s="14"/>
+      <c r="J839" s="17"/>
+    </row>
+    <row r="840" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="14"/>
+      <c r="C840" s="14"/>
+      <c r="J840" s="17"/>
+    </row>
+    <row r="841" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="14"/>
+      <c r="C841" s="14"/>
+      <c r="J841" s="17"/>
+    </row>
+    <row r="842" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="14"/>
+      <c r="C842" s="14"/>
+      <c r="J842" s="17"/>
+    </row>
+    <row r="843" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="14"/>
+      <c r="C843" s="14"/>
+      <c r="J843" s="17"/>
+    </row>
+    <row r="844" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="14"/>
+      <c r="C844" s="14"/>
+      <c r="J844" s="17"/>
+    </row>
+    <row r="845" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="14"/>
+      <c r="C845" s="14"/>
+      <c r="J845" s="17"/>
+    </row>
+    <row r="846" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="14"/>
+      <c r="C846" s="14"/>
+      <c r="J846" s="17"/>
+    </row>
+    <row r="847" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="14"/>
+      <c r="C847" s="14"/>
+      <c r="J847" s="17"/>
+    </row>
+    <row r="848" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="14"/>
+      <c r="C848" s="14"/>
+      <c r="J848" s="17"/>
+    </row>
+    <row r="849" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="14"/>
+      <c r="C849" s="14"/>
+      <c r="J849" s="17"/>
+    </row>
+    <row r="850" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="14"/>
+      <c r="C850" s="14"/>
+      <c r="J850" s="17"/>
+    </row>
+    <row r="851" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="14"/>
+      <c r="C851" s="14"/>
+      <c r="J851" s="17"/>
+    </row>
+    <row r="852" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="14"/>
+      <c r="C852" s="14"/>
+      <c r="J852" s="17"/>
+    </row>
+    <row r="853" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="14"/>
+      <c r="C853" s="14"/>
+      <c r="J853" s="17"/>
+    </row>
+    <row r="854" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="14"/>
+      <c r="C854" s="14"/>
+      <c r="J854" s="17"/>
+    </row>
+    <row r="855" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="14"/>
+      <c r="C855" s="14"/>
+      <c r="J855" s="17"/>
+    </row>
+    <row r="856" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="14"/>
+      <c r="C856" s="14"/>
+      <c r="J856" s="17"/>
+    </row>
+    <row r="857" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="14"/>
+      <c r="C857" s="14"/>
+      <c r="J857" s="17"/>
+    </row>
+    <row r="858" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="14"/>
+      <c r="C858" s="14"/>
+      <c r="J858" s="17"/>
+    </row>
+    <row r="859" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="14"/>
+      <c r="C859" s="14"/>
+      <c r="J859" s="17"/>
+    </row>
+    <row r="860" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="14"/>
+      <c r="C860" s="14"/>
+      <c r="J860" s="17"/>
+    </row>
+    <row r="861" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="14"/>
+      <c r="C861" s="14"/>
+      <c r="J861" s="17"/>
+    </row>
+    <row r="862" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="14"/>
+      <c r="C862" s="14"/>
+      <c r="J862" s="17"/>
+    </row>
+    <row r="863" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="14"/>
+      <c r="C863" s="14"/>
+      <c r="J863" s="17"/>
+    </row>
+    <row r="864" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="14"/>
+      <c r="C864" s="14"/>
+      <c r="J864" s="17"/>
+    </row>
+    <row r="865" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="14"/>
+      <c r="C865" s="14"/>
+      <c r="J865" s="17"/>
+    </row>
+    <row r="866" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="14"/>
+      <c r="C866" s="14"/>
+      <c r="J866" s="17"/>
+    </row>
+    <row r="867" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="14"/>
+      <c r="C867" s="14"/>
+      <c r="J867" s="17"/>
+    </row>
+    <row r="868" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="14"/>
+      <c r="C868" s="14"/>
+      <c r="J868" s="17"/>
+    </row>
+    <row r="869" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="14"/>
+      <c r="C869" s="14"/>
+      <c r="J869" s="17"/>
+    </row>
+    <row r="870" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="14"/>
+      <c r="C870" s="14"/>
+      <c r="J870" s="17"/>
+    </row>
+    <row r="871" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="14"/>
+      <c r="C871" s="14"/>
+      <c r="J871" s="17"/>
+    </row>
+    <row r="872" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="14"/>
+      <c r="C872" s="14"/>
+      <c r="J872" s="17"/>
+    </row>
+    <row r="873" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="14"/>
+      <c r="C873" s="14"/>
+      <c r="J873" s="17"/>
+    </row>
+    <row r="874" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="14"/>
+      <c r="C874" s="14"/>
+      <c r="J874" s="17"/>
+    </row>
+    <row r="875" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="14"/>
+      <c r="C875" s="14"/>
+      <c r="J875" s="17"/>
+    </row>
+    <row r="876" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="14"/>
+      <c r="C876" s="14"/>
+      <c r="J876" s="17"/>
+    </row>
+    <row r="877" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="14"/>
+      <c r="C877" s="14"/>
+      <c r="J877" s="17"/>
+    </row>
+    <row r="878" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="14"/>
+      <c r="C878" s="14"/>
+      <c r="J878" s="17"/>
+    </row>
+    <row r="879" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="14"/>
+      <c r="C879" s="14"/>
+      <c r="J879" s="17"/>
+    </row>
+    <row r="880" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="14"/>
+      <c r="C880" s="14"/>
+      <c r="J880" s="17"/>
+    </row>
+    <row r="881" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="14"/>
+      <c r="C881" s="14"/>
+      <c r="J881" s="17"/>
+    </row>
+    <row r="882" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="14"/>
+      <c r="C882" s="14"/>
+      <c r="J882" s="17"/>
+    </row>
+    <row r="883" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="14"/>
+      <c r="C883" s="14"/>
+      <c r="J883" s="17"/>
+    </row>
+    <row r="884" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="14"/>
+      <c r="C884" s="14"/>
+      <c r="J884" s="17"/>
+    </row>
+    <row r="885" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="14"/>
+      <c r="C885" s="14"/>
+      <c r="J885" s="17"/>
+    </row>
+    <row r="886" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="14"/>
+      <c r="C886" s="14"/>
+      <c r="J886" s="17"/>
+    </row>
+    <row r="887" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="14"/>
+      <c r="C887" s="14"/>
+      <c r="J887" s="17"/>
+    </row>
+    <row r="888" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="14"/>
+      <c r="C888" s="14"/>
+      <c r="J888" s="17"/>
+    </row>
+    <row r="889" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="14"/>
+      <c r="C889" s="14"/>
+      <c r="J889" s="17"/>
+    </row>
+    <row r="890" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="14"/>
+      <c r="C890" s="14"/>
+      <c r="J890" s="17"/>
+    </row>
+    <row r="891" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="14"/>
+      <c r="C891" s="14"/>
+      <c r="J891" s="17"/>
+    </row>
+    <row r="892" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="14"/>
+      <c r="C892" s="14"/>
+      <c r="J892" s="17"/>
+    </row>
+    <row r="893" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="14"/>
+      <c r="C893" s="14"/>
+      <c r="J893" s="17"/>
+    </row>
+    <row r="894" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="14"/>
+      <c r="C894" s="14"/>
+      <c r="J894" s="17"/>
+    </row>
+    <row r="895" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="14"/>
+      <c r="C895" s="14"/>
+      <c r="J895" s="17"/>
+    </row>
+    <row r="896" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="14"/>
+      <c r="C896" s="14"/>
+      <c r="J896" s="17"/>
+    </row>
+    <row r="897" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="14"/>
+      <c r="C897" s="14"/>
+      <c r="J897" s="17"/>
+    </row>
+    <row r="898" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="14"/>
+      <c r="C898" s="14"/>
+      <c r="J898" s="17"/>
+    </row>
+    <row r="899" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="14"/>
+      <c r="C899" s="14"/>
+      <c r="J899" s="17"/>
+    </row>
+    <row r="900" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="14"/>
+      <c r="C900" s="14"/>
+      <c r="J900" s="17"/>
+    </row>
+    <row r="901" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="14"/>
+      <c r="C901" s="14"/>
+      <c r="J901" s="17"/>
+    </row>
+    <row r="902" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="14"/>
+      <c r="C902" s="14"/>
+      <c r="J902" s="17"/>
+    </row>
+    <row r="903" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="14"/>
+      <c r="C903" s="14"/>
+      <c r="J903" s="17"/>
+    </row>
+    <row r="904" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="14"/>
+      <c r="C904" s="14"/>
+      <c r="J904" s="17"/>
+    </row>
+    <row r="905" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="14"/>
+      <c r="C905" s="14"/>
+      <c r="J905" s="17"/>
+    </row>
+    <row r="906" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="14"/>
+      <c r="C906" s="14"/>
+      <c r="J906" s="17"/>
+    </row>
+    <row r="907" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="14"/>
+      <c r="C907" s="14"/>
+      <c r="J907" s="17"/>
+    </row>
+    <row r="908" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="14"/>
+      <c r="C908" s="14"/>
+      <c r="J908" s="17"/>
+    </row>
+    <row r="909" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="14"/>
+      <c r="C909" s="14"/>
+      <c r="J909" s="17"/>
+    </row>
+    <row r="910" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="14"/>
+      <c r="C910" s="14"/>
+      <c r="J910" s="17"/>
+    </row>
+    <row r="911" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="14"/>
+      <c r="C911" s="14"/>
+      <c r="J911" s="17"/>
+    </row>
+    <row r="912" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="14"/>
+      <c r="C912" s="14"/>
+      <c r="J912" s="17"/>
+    </row>
+    <row r="913" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="14"/>
+      <c r="C913" s="14"/>
+      <c r="J913" s="17"/>
+    </row>
+    <row r="914" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="14"/>
+      <c r="C914" s="14"/>
+      <c r="J914" s="17"/>
+    </row>
+    <row r="915" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="14"/>
+      <c r="C915" s="14"/>
+      <c r="J915" s="17"/>
+    </row>
+    <row r="916" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="14"/>
+      <c r="C916" s="14"/>
+      <c r="J916" s="17"/>
+    </row>
+    <row r="917" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="14"/>
+      <c r="C917" s="14"/>
+      <c r="J917" s="17"/>
+    </row>
+    <row r="918" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="14"/>
+      <c r="C918" s="14"/>
+      <c r="J918" s="17"/>
+    </row>
+    <row r="919" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="14"/>
+      <c r="C919" s="14"/>
+      <c r="J919" s="17"/>
+    </row>
+    <row r="920" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="14"/>
+      <c r="C920" s="14"/>
+      <c r="J920" s="17"/>
+    </row>
+    <row r="921" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="14"/>
+      <c r="C921" s="14"/>
+      <c r="J921" s="17"/>
+    </row>
+    <row r="922" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="14"/>
+      <c r="C922" s="14"/>
+      <c r="J922" s="17"/>
+    </row>
+    <row r="923" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="14"/>
+      <c r="C923" s="14"/>
+      <c r="J923" s="17"/>
+    </row>
+    <row r="924" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="14"/>
+      <c r="C924" s="14"/>
+      <c r="J924" s="17"/>
+    </row>
+    <row r="925" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="14"/>
+      <c r="C925" s="14"/>
+      <c r="J925" s="17"/>
+    </row>
+    <row r="926" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="14"/>
+      <c r="C926" s="14"/>
+      <c r="J926" s="17"/>
+    </row>
+    <row r="927" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="14"/>
+      <c r="C927" s="14"/>
+      <c r="J927" s="17"/>
+    </row>
+    <row r="928" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="14"/>
+      <c r="C928" s="14"/>
+      <c r="J928" s="17"/>
+    </row>
+    <row r="929" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="14"/>
+      <c r="C929" s="14"/>
+      <c r="J929" s="17"/>
+    </row>
+    <row r="930" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="14"/>
+      <c r="C930" s="14"/>
+      <c r="J930" s="17"/>
+    </row>
+    <row r="931" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="14"/>
+      <c r="C931" s="14"/>
+      <c r="J931" s="17"/>
+    </row>
+    <row r="932" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="14"/>
+      <c r="C932" s="14"/>
+      <c r="J932" s="17"/>
+    </row>
+    <row r="933" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="14"/>
+      <c r="C933" s="14"/>
+      <c r="J933" s="17"/>
+    </row>
+    <row r="934" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="14"/>
+      <c r="C934" s="14"/>
+      <c r="J934" s="17"/>
+    </row>
+    <row r="935" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="14"/>
+      <c r="C935" s="14"/>
+      <c r="J935" s="17"/>
+    </row>
+    <row r="936" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="14"/>
+      <c r="C936" s="14"/>
+      <c r="J936" s="17"/>
+    </row>
+    <row r="937" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="14"/>
+      <c r="C937" s="14"/>
+      <c r="J937" s="17"/>
+    </row>
+    <row r="938" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="14"/>
+      <c r="C938" s="14"/>
+      <c r="J938" s="17"/>
+    </row>
+    <row r="939" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="14"/>
+      <c r="C939" s="14"/>
+      <c r="J939" s="17"/>
+    </row>
+    <row r="940" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="14"/>
+      <c r="C940" s="14"/>
+      <c r="J940" s="17"/>
+    </row>
+    <row r="941" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="14"/>
+      <c r="C941" s="14"/>
+      <c r="J941" s="17"/>
+    </row>
+    <row r="942" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="14"/>
+      <c r="C942" s="14"/>
+      <c r="J942" s="17"/>
+    </row>
+    <row r="943" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="14"/>
+      <c r="C943" s="14"/>
+      <c r="J943" s="17"/>
+    </row>
+    <row r="944" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="14"/>
+      <c r="C944" s="14"/>
+      <c r="J944" s="17"/>
+    </row>
+    <row r="945" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="14"/>
+      <c r="C945" s="14"/>
+      <c r="J945" s="17"/>
+    </row>
+    <row r="946" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="14"/>
+      <c r="C946" s="14"/>
+      <c r="J946" s="17"/>
+    </row>
+    <row r="947" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="14"/>
+      <c r="C947" s="14"/>
+      <c r="J947" s="17"/>
+    </row>
+    <row r="948" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="14"/>
+      <c r="C948" s="14"/>
+      <c r="J948" s="17"/>
+    </row>
+    <row r="949" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="14"/>
+      <c r="C949" s="14"/>
+      <c r="J949" s="17"/>
+    </row>
+    <row r="950" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="14"/>
+      <c r="C950" s="14"/>
+      <c r="J950" s="17"/>
+    </row>
+    <row r="951" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="14"/>
+      <c r="C951" s="14"/>
+      <c r="J951" s="17"/>
+    </row>
+    <row r="952" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="14"/>
+      <c r="C952" s="14"/>
+      <c r="J952" s="17"/>
+    </row>
+    <row r="953" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="14"/>
+      <c r="C953" s="14"/>
+      <c r="J953" s="17"/>
+    </row>
+    <row r="954" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="14"/>
+      <c r="C954" s="14"/>
+      <c r="J954" s="17"/>
+    </row>
+    <row r="955" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="14"/>
+      <c r="C955" s="14"/>
+      <c r="J955" s="17"/>
+    </row>
+    <row r="956" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="14"/>
+      <c r="C956" s="14"/>
+      <c r="J956" s="17"/>
+    </row>
+    <row r="957" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="14"/>
+      <c r="C957" s="14"/>
+      <c r="J957" s="17"/>
+    </row>
+    <row r="958" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="14"/>
+      <c r="C958" s="14"/>
+      <c r="J958" s="17"/>
+    </row>
+    <row r="959" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="14"/>
+      <c r="C959" s="14"/>
+      <c r="J959" s="17"/>
+    </row>
+    <row r="960" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="14"/>
+      <c r="C960" s="14"/>
+      <c r="J960" s="17"/>
+    </row>
+    <row r="961" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="14"/>
+      <c r="C961" s="14"/>
+      <c r="J961" s="17"/>
+    </row>
+    <row r="962" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="14"/>
+      <c r="C962" s="14"/>
+      <c r="J962" s="17"/>
+    </row>
+    <row r="963" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="14"/>
+      <c r="C963" s="14"/>
+      <c r="J963" s="17"/>
+    </row>
+    <row r="964" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="14"/>
+      <c r="C964" s="14"/>
+      <c r="J964" s="17"/>
+    </row>
+    <row r="965" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="14"/>
+      <c r="C965" s="14"/>
+      <c r="J965" s="17"/>
+    </row>
+    <row r="966" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="14"/>
+      <c r="C966" s="14"/>
+      <c r="J966" s="17"/>
+    </row>
+    <row r="967" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="14"/>
+      <c r="C967" s="14"/>
+      <c r="J967" s="17"/>
+    </row>
+    <row r="968" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="14"/>
+      <c r="C968" s="14"/>
+      <c r="J968" s="17"/>
+    </row>
+    <row r="969" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="14"/>
+      <c r="C969" s="14"/>
+      <c r="J969" s="17"/>
+    </row>
+    <row r="970" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="14"/>
+      <c r="C970" s="14"/>
+      <c r="J970" s="17"/>
+    </row>
+    <row r="971" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="14"/>
+      <c r="C971" s="14"/>
+      <c r="J971" s="17"/>
+    </row>
+    <row r="972" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="14"/>
+      <c r="C972" s="14"/>
+      <c r="J972" s="17"/>
+    </row>
+    <row r="973" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="14"/>
+      <c r="C973" s="14"/>
+      <c r="J973" s="17"/>
+    </row>
+    <row r="974" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="14"/>
+      <c r="C974" s="14"/>
+      <c r="J974" s="17"/>
+    </row>
+    <row r="975" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="14"/>
+      <c r="C975" s="14"/>
+      <c r="J975" s="17"/>
+    </row>
+    <row r="976" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="14"/>
+      <c r="C976" s="14"/>
+      <c r="J976" s="17"/>
+    </row>
+    <row r="977" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="14"/>
+      <c r="C977" s="14"/>
+      <c r="J977" s="17"/>
+    </row>
+    <row r="978" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="14"/>
+      <c r="C978" s="14"/>
+      <c r="J978" s="17"/>
+    </row>
+    <row r="979" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="14"/>
+      <c r="C979" s="14"/>
+      <c r="J979" s="17"/>
+    </row>
+    <row r="980" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="14"/>
+      <c r="C980" s="14"/>
+      <c r="J980" s="17"/>
+    </row>
+    <row r="981" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="14"/>
+      <c r="C981" s="14"/>
+      <c r="J981" s="17"/>
+    </row>
+    <row r="982" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="14"/>
+      <c r="C982" s="14"/>
+      <c r="J982" s="17"/>
+    </row>
+    <row r="983" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="14"/>
+      <c r="C983" s="14"/>
+      <c r="J983" s="17"/>
+    </row>
+    <row r="984" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="14"/>
+      <c r="C984" s="14"/>
+      <c r="J984" s="17"/>
+    </row>
+    <row r="985" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="14"/>
+      <c r="C985" s="14"/>
+      <c r="J985" s="17"/>
+    </row>
+    <row r="986" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="14"/>
+      <c r="C986" s="14"/>
+      <c r="J986" s="17"/>
+    </row>
+    <row r="987" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="14"/>
+      <c r="C987" s="14"/>
+      <c r="J987" s="17"/>
+    </row>
+    <row r="988" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="14"/>
+      <c r="C988" s="14"/>
+      <c r="J988" s="17"/>
+    </row>
+    <row r="989" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B989" s="14"/>
+      <c r="C989" s="14"/>
+      <c r="J989" s="17"/>
+    </row>
+    <row r="990" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B990" s="14"/>
+      <c r="C990" s="14"/>
+      <c r="J990" s="17"/>
+    </row>
+    <row r="991" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B991" s="14"/>
+      <c r="C991" s="14"/>
+      <c r="J991" s="17"/>
+    </row>
+    <row r="992" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B992" s="14"/>
+      <c r="C992" s="14"/>
+      <c r="J992" s="17"/>
+    </row>
+    <row r="993" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B993" s="14"/>
+      <c r="C993" s="14"/>
+      <c r="J993" s="17"/>
+    </row>
+    <row r="994" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B994" s="14"/>
+      <c r="C994" s="14"/>
+      <c r="J994" s="17"/>
+    </row>
+    <row r="995" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B995" s="14"/>
+      <c r="C995" s="14"/>
+      <c r="J995" s="17"/>
+    </row>
+    <row r="996" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B996" s="14"/>
+      <c r="C996" s="14"/>
+      <c r="J996" s="17"/>
+    </row>
+    <row r="997" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B997" s="14"/>
+      <c r="C997" s="14"/>
+      <c r="J997" s="17"/>
+    </row>
+    <row r="998" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B998" s="14"/>
+      <c r="C998" s="14"/>
+      <c r="J998" s="17"/>
+    </row>
+    <row r="999" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B999" s="14"/>
+      <c r="C999" s="14"/>
+      <c r="J999" s="17"/>
+    </row>
+    <row r="1000" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1000" s="14"/>
+      <c r="C1000" s="14"/>
+      <c r="J1000" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>